--- a/Mital_Ezra_Manual_TestCases.xlsx
+++ b/Mital_Ezra_Manual_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mital/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9FEC147-1A43-624C-846A-639796BE0826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C03E34-2C83-1446-8B7D-F88916018252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="880" windowWidth="32420" windowHeight="18940" xr2:uid="{1991952B-D082-BC41-A19D-DA728C8F795C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
   <si>
     <t>Test Case #</t>
   </si>
@@ -643,12 +643,70 @@
   <si>
     <t>Login, submit booking information and valid card from Stripe test data</t>
   </si>
+  <si>
+    <t>Invalid login credentials - Email/Password</t>
+  </si>
+  <si>
+    <t>Enter invalid data for email or password fields</t>
+  </si>
+  <si>
+    <t>Error displayed,The username/password combination is invalid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part 1: Ezra's business operation: </t>
+  </si>
+  <si>
+    <t>User Facing Portal: https://staging-hub.ezra.com/sign-in/</t>
+  </si>
+  <si>
+    <t>Username: michael.krakovsky+test_interview@ezra.com
+Pwd: 12121212Aa</t>
+  </si>
+  <si>
+    <t>Successfully login</t>
+  </si>
+  <si>
+    <t>Scheduled scan(s) are listed accordingly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login to user portal
+</t>
+  </si>
+  <si>
+    <t>Name: Mital Patel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login to member portal &amp; search for scheduled scan(s) by name
+</t>
+  </si>
+  <si>
+    <t>Validate the scan schedule from above test case # 2
+Validate the details</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test cases for Member Facing Portal: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF103CC0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://myezra-staging.ezra.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Cases for User Facing Portal: https://staging-hub.ezra.com/sign-in/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -761,6 +819,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF103CC0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -838,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -924,9 +989,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -989,6 +1051,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1354,19 +1431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854990FD-4250-1A4F-80A2-EE89AA5C0644}">
-  <dimension ref="A1:W998"/>
+  <dimension ref="A1:W1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="44.1640625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.6640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="48.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.1640625" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" style="20" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="20" customWidth="1"/>
     <col min="8" max="22" width="8.6640625" style="20" customWidth="1"/>
@@ -1374,20 +1451,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="18"/>
+        <v>137</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>146</v>
+      </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -1409,419 +1488,509 @@
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-    </row>
-    <row r="4" spans="1:23" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
-        <v>2</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>11</v>
+      <c r="B5" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
-        <v>4</v>
+    <row r="7" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>3</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="27"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="25" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
-        <v>5</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="27"/>
+    <row r="8" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>4</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="E8" s="25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:23" s="25" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-    </row>
-    <row r="10" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D10" s="27"/>
       <c r="E10" s="25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="25" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>9</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="25" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
+        <v>15</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
+        <v>16</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:22" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+    <row r="24" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+    </row>
+    <row r="25" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <v>1</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="58">
+        <v>2</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -1846,57 +2015,57 @@
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="55"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7623,14 +7792,38 @@
       <c r="D998" s="21"/>
       <c r="F998" s="21"/>
     </row>
+    <row r="999" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B999" s="21"/>
+      <c r="C999" s="21"/>
+      <c r="D999" s="21"/>
+      <c r="F999" s="21"/>
+    </row>
+    <row r="1000" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1000" s="21"/>
+      <c r="C1000" s="21"/>
+      <c r="D1000" s="21"/>
+      <c r="F1000" s="21"/>
+    </row>
+    <row r="1001" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1001" s="21"/>
+      <c r="C1001" s="21"/>
+      <c r="D1001" s="21"/>
+      <c r="F1001" s="21"/>
+    </row>
+    <row r="1002" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1002" s="21"/>
+      <c r="C1002" s="21"/>
+      <c r="D1002" s="21"/>
+      <c r="F1002" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7646,61 +7839,61 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="33" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="33" customWidth="1"/>
-    <col min="5" max="5" width="48.5" style="33" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="33" customWidth="1"/>
-    <col min="7" max="16384" width="14.5" style="33"/>
+    <col min="1" max="1" width="29.6640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="32" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="48.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="32" customWidth="1"/>
+    <col min="7" max="16384" width="14.5" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
@@ -7937,4904 +8130,4904 @@
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="E24" s="39"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="E28" s="39"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="E33" s="39"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="E34" s="39"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="E35" s="39"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="E35" s="38"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="E36" s="39"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="E36" s="38"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="E37" s="39"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="E37" s="38"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="E38" s="39"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="E39" s="39"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="E39" s="38"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="E40" s="39"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="E41" s="39"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="E42" s="39"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="E43" s="39"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="E43" s="38"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="E44" s="39"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="E44" s="38"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="E46" s="38"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="E47" s="38"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="E49" s="39"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="E50" s="39"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="E51" s="39"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="E51" s="38"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="E52" s="39"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="E53" s="39"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="E54" s="39"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="E54" s="38"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="E56" s="39"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="E56" s="38"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="E57" s="38"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="E58" s="39"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="E58" s="38"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="E59" s="39"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="E59" s="38"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="E60" s="39"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="E60" s="38"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="E61" s="39"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="E61" s="38"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="E62" s="39"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="E62" s="38"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="E63" s="39"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="E64" s="39"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="E65" s="39"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="E66" s="39"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="E66" s="38"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="E67" s="39"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="E67" s="38"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="E68" s="39"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="E68" s="38"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="E69" s="39"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="E70" s="39"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="E71" s="39"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="E71" s="38"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="E72" s="39"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="E73" s="39"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="E73" s="38"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="E74" s="39"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="E75" s="39"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="E75" s="38"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="E76" s="39"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="E76" s="38"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="E77" s="39"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="E77" s="38"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="E78" s="39"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="E78" s="38"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="E79" s="39"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="E79" s="38"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="E80" s="39"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
-      <c r="E81" s="39"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="E81" s="38"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="E82" s="39"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="E82" s="38"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="E83" s="39"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="E83" s="38"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="E84" s="39"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="E84" s="38"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="E85" s="39"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="E85" s="38"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="E86" s="39"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="E86" s="38"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="E87" s="39"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="E87" s="38"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="E88" s="39"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="E88" s="38"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="E89" s="39"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
+      <c r="E89" s="38"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="E90" s="39"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="E90" s="38"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="E91" s="39"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="E91" s="38"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="E92" s="39"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="E92" s="38"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="E93" s="39"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="E93" s="38"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="E94" s="39"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="E94" s="38"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="E95" s="39"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="E95" s="38"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="E96" s="39"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="E96" s="38"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="E97" s="39"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="E97" s="38"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="E98" s="39"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="E98" s="38"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="E99" s="39"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="38"/>
+      <c r="E99" s="38"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="E100" s="39"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="E100" s="38"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="E101" s="39"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
+      <c r="E101" s="38"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="E102" s="39"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="E102" s="38"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="E103" s="39"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="E103" s="38"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="E104" s="39"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="E104" s="38"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="E105" s="39"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="E105" s="38"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="E106" s="39"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="E106" s="38"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="E107" s="39"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="E107" s="38"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="E108" s="39"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
+      <c r="E108" s="38"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="E109" s="39"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="38"/>
+      <c r="E109" s="38"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="E110" s="39"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="E110" s="38"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="E111" s="39"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="38"/>
+      <c r="E111" s="38"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-      <c r="E112" s="39"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="38"/>
+      <c r="E112" s="38"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="E113" s="39"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="38"/>
+      <c r="E113" s="38"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
-      <c r="E114" s="39"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="38"/>
+      <c r="E114" s="38"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
-      <c r="E115" s="39"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="38"/>
+      <c r="E115" s="38"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="E116" s="39"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="E116" s="38"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="E117" s="39"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="E117" s="38"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="E118" s="39"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+      <c r="E118" s="38"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="E119" s="39"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
+      <c r="E119" s="38"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="E120" s="39"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="38"/>
+      <c r="E120" s="38"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-      <c r="E121" s="39"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="38"/>
+      <c r="E121" s="38"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-      <c r="E122" s="39"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="38"/>
+      <c r="E122" s="38"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
-      <c r="E123" s="39"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="38"/>
+      <c r="E123" s="38"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="E124" s="39"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="38"/>
+      <c r="E124" s="38"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="E125" s="39"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
+      <c r="E125" s="38"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="E126" s="39"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="38"/>
+      <c r="E126" s="38"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="E127" s="39"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="38"/>
+      <c r="E127" s="38"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="39"/>
-      <c r="C128" s="39"/>
-      <c r="E128" s="39"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="38"/>
+      <c r="E128" s="38"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
-      <c r="E129" s="39"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="E129" s="38"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="39"/>
-      <c r="C130" s="39"/>
-      <c r="E130" s="39"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="E130" s="38"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="39"/>
-      <c r="C131" s="39"/>
-      <c r="E131" s="39"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="38"/>
+      <c r="E131" s="38"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
-      <c r="E132" s="39"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="38"/>
+      <c r="E132" s="38"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="39"/>
-      <c r="C133" s="39"/>
-      <c r="E133" s="39"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="38"/>
+      <c r="E133" s="38"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="39"/>
-      <c r="C134" s="39"/>
-      <c r="E134" s="39"/>
+      <c r="B134" s="38"/>
+      <c r="C134" s="38"/>
+      <c r="E134" s="38"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="39"/>
-      <c r="C135" s="39"/>
-      <c r="E135" s="39"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="38"/>
+      <c r="E135" s="38"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
-      <c r="E136" s="39"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="38"/>
+      <c r="E136" s="38"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="E137" s="39"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="38"/>
+      <c r="E137" s="38"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
-      <c r="E138" s="39"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="38"/>
+      <c r="E138" s="38"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="39"/>
-      <c r="C139" s="39"/>
-      <c r="E139" s="39"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="38"/>
+      <c r="E139" s="38"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
-      <c r="E140" s="39"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="38"/>
+      <c r="E140" s="38"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="39"/>
-      <c r="C141" s="39"/>
-      <c r="E141" s="39"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="38"/>
+      <c r="E141" s="38"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="39"/>
-      <c r="C142" s="39"/>
-      <c r="E142" s="39"/>
+      <c r="B142" s="38"/>
+      <c r="C142" s="38"/>
+      <c r="E142" s="38"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
-      <c r="E143" s="39"/>
+      <c r="B143" s="38"/>
+      <c r="C143" s="38"/>
+      <c r="E143" s="38"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="E144" s="39"/>
+      <c r="B144" s="38"/>
+      <c r="C144" s="38"/>
+      <c r="E144" s="38"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
-      <c r="E145" s="39"/>
+      <c r="B145" s="38"/>
+      <c r="C145" s="38"/>
+      <c r="E145" s="38"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="39"/>
-      <c r="C146" s="39"/>
-      <c r="E146" s="39"/>
+      <c r="B146" s="38"/>
+      <c r="C146" s="38"/>
+      <c r="E146" s="38"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="39"/>
-      <c r="C147" s="39"/>
-      <c r="E147" s="39"/>
+      <c r="B147" s="38"/>
+      <c r="C147" s="38"/>
+      <c r="E147" s="38"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="E148" s="39"/>
+      <c r="B148" s="38"/>
+      <c r="C148" s="38"/>
+      <c r="E148" s="38"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="39"/>
-      <c r="C149" s="39"/>
-      <c r="E149" s="39"/>
+      <c r="B149" s="38"/>
+      <c r="C149" s="38"/>
+      <c r="E149" s="38"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="E150" s="39"/>
+      <c r="B150" s="38"/>
+      <c r="C150" s="38"/>
+      <c r="E150" s="38"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
-      <c r="E151" s="39"/>
+      <c r="B151" s="38"/>
+      <c r="C151" s="38"/>
+      <c r="E151" s="38"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" s="39"/>
-      <c r="C152" s="39"/>
-      <c r="E152" s="39"/>
+      <c r="B152" s="38"/>
+      <c r="C152" s="38"/>
+      <c r="E152" s="38"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="39"/>
-      <c r="C153" s="39"/>
-      <c r="E153" s="39"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="38"/>
+      <c r="E153" s="38"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="39"/>
-      <c r="C154" s="39"/>
-      <c r="E154" s="39"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="38"/>
+      <c r="E154" s="38"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="39"/>
-      <c r="C155" s="39"/>
-      <c r="E155" s="39"/>
+      <c r="B155" s="38"/>
+      <c r="C155" s="38"/>
+      <c r="E155" s="38"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B156" s="39"/>
-      <c r="C156" s="39"/>
-      <c r="E156" s="39"/>
+      <c r="B156" s="38"/>
+      <c r="C156" s="38"/>
+      <c r="E156" s="38"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="39"/>
-      <c r="C157" s="39"/>
-      <c r="E157" s="39"/>
+      <c r="B157" s="38"/>
+      <c r="C157" s="38"/>
+      <c r="E157" s="38"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="39"/>
-      <c r="C158" s="39"/>
-      <c r="E158" s="39"/>
+      <c r="B158" s="38"/>
+      <c r="C158" s="38"/>
+      <c r="E158" s="38"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="39"/>
-      <c r="C159" s="39"/>
-      <c r="E159" s="39"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="38"/>
+      <c r="E159" s="38"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="39"/>
-      <c r="C160" s="39"/>
-      <c r="E160" s="39"/>
+      <c r="B160" s="38"/>
+      <c r="C160" s="38"/>
+      <c r="E160" s="38"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="39"/>
-      <c r="C161" s="39"/>
-      <c r="E161" s="39"/>
+      <c r="B161" s="38"/>
+      <c r="C161" s="38"/>
+      <c r="E161" s="38"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="39"/>
-      <c r="C162" s="39"/>
-      <c r="E162" s="39"/>
+      <c r="B162" s="38"/>
+      <c r="C162" s="38"/>
+      <c r="E162" s="38"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="39"/>
-      <c r="C163" s="39"/>
-      <c r="E163" s="39"/>
+      <c r="B163" s="38"/>
+      <c r="C163" s="38"/>
+      <c r="E163" s="38"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" s="39"/>
-      <c r="C164" s="39"/>
-      <c r="E164" s="39"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="38"/>
+      <c r="E164" s="38"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="39"/>
-      <c r="C165" s="39"/>
-      <c r="E165" s="39"/>
+      <c r="B165" s="38"/>
+      <c r="C165" s="38"/>
+      <c r="E165" s="38"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" s="39"/>
-      <c r="C166" s="39"/>
-      <c r="E166" s="39"/>
+      <c r="B166" s="38"/>
+      <c r="C166" s="38"/>
+      <c r="E166" s="38"/>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" s="39"/>
-      <c r="C167" s="39"/>
-      <c r="E167" s="39"/>
+      <c r="B167" s="38"/>
+      <c r="C167" s="38"/>
+      <c r="E167" s="38"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="39"/>
-      <c r="C168" s="39"/>
-      <c r="E168" s="39"/>
+      <c r="B168" s="38"/>
+      <c r="C168" s="38"/>
+      <c r="E168" s="38"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B169" s="39"/>
-      <c r="C169" s="39"/>
-      <c r="E169" s="39"/>
+      <c r="B169" s="38"/>
+      <c r="C169" s="38"/>
+      <c r="E169" s="38"/>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" s="39"/>
-      <c r="C170" s="39"/>
-      <c r="E170" s="39"/>
+      <c r="B170" s="38"/>
+      <c r="C170" s="38"/>
+      <c r="E170" s="38"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="39"/>
-      <c r="C171" s="39"/>
-      <c r="E171" s="39"/>
+      <c r="B171" s="38"/>
+      <c r="C171" s="38"/>
+      <c r="E171" s="38"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B172" s="39"/>
-      <c r="C172" s="39"/>
-      <c r="E172" s="39"/>
+      <c r="B172" s="38"/>
+      <c r="C172" s="38"/>
+      <c r="E172" s="38"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B173" s="39"/>
-      <c r="C173" s="39"/>
-      <c r="E173" s="39"/>
+      <c r="B173" s="38"/>
+      <c r="C173" s="38"/>
+      <c r="E173" s="38"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="39"/>
-      <c r="C174" s="39"/>
-      <c r="E174" s="39"/>
+      <c r="B174" s="38"/>
+      <c r="C174" s="38"/>
+      <c r="E174" s="38"/>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B175" s="39"/>
-      <c r="C175" s="39"/>
-      <c r="E175" s="39"/>
+      <c r="B175" s="38"/>
+      <c r="C175" s="38"/>
+      <c r="E175" s="38"/>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B176" s="39"/>
-      <c r="C176" s="39"/>
-      <c r="E176" s="39"/>
+      <c r="B176" s="38"/>
+      <c r="C176" s="38"/>
+      <c r="E176" s="38"/>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B177" s="39"/>
-      <c r="C177" s="39"/>
-      <c r="E177" s="39"/>
+      <c r="B177" s="38"/>
+      <c r="C177" s="38"/>
+      <c r="E177" s="38"/>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B178" s="39"/>
-      <c r="C178" s="39"/>
-      <c r="E178" s="39"/>
+      <c r="B178" s="38"/>
+      <c r="C178" s="38"/>
+      <c r="E178" s="38"/>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B179" s="39"/>
-      <c r="C179" s="39"/>
-      <c r="E179" s="39"/>
+      <c r="B179" s="38"/>
+      <c r="C179" s="38"/>
+      <c r="E179" s="38"/>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B180" s="39"/>
-      <c r="C180" s="39"/>
-      <c r="E180" s="39"/>
+      <c r="B180" s="38"/>
+      <c r="C180" s="38"/>
+      <c r="E180" s="38"/>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B181" s="39"/>
-      <c r="C181" s="39"/>
-      <c r="E181" s="39"/>
+      <c r="B181" s="38"/>
+      <c r="C181" s="38"/>
+      <c r="E181" s="38"/>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B182" s="39"/>
-      <c r="C182" s="39"/>
-      <c r="E182" s="39"/>
+      <c r="B182" s="38"/>
+      <c r="C182" s="38"/>
+      <c r="E182" s="38"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B183" s="39"/>
-      <c r="C183" s="39"/>
-      <c r="E183" s="39"/>
+      <c r="B183" s="38"/>
+      <c r="C183" s="38"/>
+      <c r="E183" s="38"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B184" s="39"/>
-      <c r="C184" s="39"/>
-      <c r="E184" s="39"/>
+      <c r="B184" s="38"/>
+      <c r="C184" s="38"/>
+      <c r="E184" s="38"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B185" s="39"/>
-      <c r="C185" s="39"/>
-      <c r="E185" s="39"/>
+      <c r="B185" s="38"/>
+      <c r="C185" s="38"/>
+      <c r="E185" s="38"/>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B186" s="39"/>
-      <c r="C186" s="39"/>
-      <c r="E186" s="39"/>
+      <c r="B186" s="38"/>
+      <c r="C186" s="38"/>
+      <c r="E186" s="38"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B187" s="39"/>
-      <c r="C187" s="39"/>
-      <c r="E187" s="39"/>
+      <c r="B187" s="38"/>
+      <c r="C187" s="38"/>
+      <c r="E187" s="38"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B188" s="39"/>
-      <c r="C188" s="39"/>
-      <c r="E188" s="39"/>
+      <c r="B188" s="38"/>
+      <c r="C188" s="38"/>
+      <c r="E188" s="38"/>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B189" s="39"/>
-      <c r="C189" s="39"/>
-      <c r="E189" s="39"/>
+      <c r="B189" s="38"/>
+      <c r="C189" s="38"/>
+      <c r="E189" s="38"/>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B190" s="39"/>
-      <c r="C190" s="39"/>
-      <c r="E190" s="39"/>
+      <c r="B190" s="38"/>
+      <c r="C190" s="38"/>
+      <c r="E190" s="38"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B191" s="39"/>
-      <c r="C191" s="39"/>
-      <c r="E191" s="39"/>
+      <c r="B191" s="38"/>
+      <c r="C191" s="38"/>
+      <c r="E191" s="38"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B192" s="39"/>
-      <c r="C192" s="39"/>
-      <c r="E192" s="39"/>
+      <c r="B192" s="38"/>
+      <c r="C192" s="38"/>
+      <c r="E192" s="38"/>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B193" s="39"/>
-      <c r="C193" s="39"/>
-      <c r="E193" s="39"/>
+      <c r="B193" s="38"/>
+      <c r="C193" s="38"/>
+      <c r="E193" s="38"/>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B194" s="39"/>
-      <c r="C194" s="39"/>
-      <c r="E194" s="39"/>
+      <c r="B194" s="38"/>
+      <c r="C194" s="38"/>
+      <c r="E194" s="38"/>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B195" s="39"/>
-      <c r="C195" s="39"/>
-      <c r="E195" s="39"/>
+      <c r="B195" s="38"/>
+      <c r="C195" s="38"/>
+      <c r="E195" s="38"/>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B196" s="39"/>
-      <c r="C196" s="39"/>
-      <c r="E196" s="39"/>
+      <c r="B196" s="38"/>
+      <c r="C196" s="38"/>
+      <c r="E196" s="38"/>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B197" s="39"/>
-      <c r="C197" s="39"/>
-      <c r="E197" s="39"/>
+      <c r="B197" s="38"/>
+      <c r="C197" s="38"/>
+      <c r="E197" s="38"/>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B198" s="39"/>
-      <c r="C198" s="39"/>
-      <c r="E198" s="39"/>
+      <c r="B198" s="38"/>
+      <c r="C198" s="38"/>
+      <c r="E198" s="38"/>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B199" s="39"/>
-      <c r="C199" s="39"/>
-      <c r="E199" s="39"/>
+      <c r="B199" s="38"/>
+      <c r="C199" s="38"/>
+      <c r="E199" s="38"/>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B200" s="39"/>
-      <c r="C200" s="39"/>
-      <c r="E200" s="39"/>
+      <c r="B200" s="38"/>
+      <c r="C200" s="38"/>
+      <c r="E200" s="38"/>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B201" s="39"/>
-      <c r="C201" s="39"/>
-      <c r="E201" s="39"/>
+      <c r="B201" s="38"/>
+      <c r="C201" s="38"/>
+      <c r="E201" s="38"/>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B202" s="39"/>
-      <c r="C202" s="39"/>
-      <c r="E202" s="39"/>
+      <c r="B202" s="38"/>
+      <c r="C202" s="38"/>
+      <c r="E202" s="38"/>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B203" s="39"/>
-      <c r="C203" s="39"/>
-      <c r="E203" s="39"/>
+      <c r="B203" s="38"/>
+      <c r="C203" s="38"/>
+      <c r="E203" s="38"/>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B204" s="39"/>
-      <c r="C204" s="39"/>
-      <c r="E204" s="39"/>
+      <c r="B204" s="38"/>
+      <c r="C204" s="38"/>
+      <c r="E204" s="38"/>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B205" s="39"/>
-      <c r="C205" s="39"/>
-      <c r="E205" s="39"/>
+      <c r="B205" s="38"/>
+      <c r="C205" s="38"/>
+      <c r="E205" s="38"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B206" s="39"/>
-      <c r="C206" s="39"/>
-      <c r="E206" s="39"/>
+      <c r="B206" s="38"/>
+      <c r="C206" s="38"/>
+      <c r="E206" s="38"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B207" s="39"/>
-      <c r="C207" s="39"/>
-      <c r="E207" s="39"/>
+      <c r="B207" s="38"/>
+      <c r="C207" s="38"/>
+      <c r="E207" s="38"/>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B208" s="39"/>
-      <c r="C208" s="39"/>
-      <c r="E208" s="39"/>
+      <c r="B208" s="38"/>
+      <c r="C208" s="38"/>
+      <c r="E208" s="38"/>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B209" s="39"/>
-      <c r="C209" s="39"/>
-      <c r="E209" s="39"/>
+      <c r="B209" s="38"/>
+      <c r="C209" s="38"/>
+      <c r="E209" s="38"/>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B210" s="39"/>
-      <c r="C210" s="39"/>
-      <c r="E210" s="39"/>
+      <c r="B210" s="38"/>
+      <c r="C210" s="38"/>
+      <c r="E210" s="38"/>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B211" s="39"/>
-      <c r="C211" s="39"/>
-      <c r="E211" s="39"/>
+      <c r="B211" s="38"/>
+      <c r="C211" s="38"/>
+      <c r="E211" s="38"/>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B212" s="39"/>
-      <c r="C212" s="39"/>
-      <c r="E212" s="39"/>
+      <c r="B212" s="38"/>
+      <c r="C212" s="38"/>
+      <c r="E212" s="38"/>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B213" s="39"/>
-      <c r="C213" s="39"/>
-      <c r="E213" s="39"/>
+      <c r="B213" s="38"/>
+      <c r="C213" s="38"/>
+      <c r="E213" s="38"/>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B214" s="39"/>
-      <c r="C214" s="39"/>
-      <c r="E214" s="39"/>
+      <c r="B214" s="38"/>
+      <c r="C214" s="38"/>
+      <c r="E214" s="38"/>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B215" s="39"/>
-      <c r="C215" s="39"/>
-      <c r="E215" s="39"/>
+      <c r="B215" s="38"/>
+      <c r="C215" s="38"/>
+      <c r="E215" s="38"/>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B216" s="39"/>
-      <c r="C216" s="39"/>
-      <c r="E216" s="39"/>
+      <c r="B216" s="38"/>
+      <c r="C216" s="38"/>
+      <c r="E216" s="38"/>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B217" s="39"/>
-      <c r="C217" s="39"/>
-      <c r="E217" s="39"/>
+      <c r="B217" s="38"/>
+      <c r="C217" s="38"/>
+      <c r="E217" s="38"/>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B218" s="39"/>
-      <c r="C218" s="39"/>
-      <c r="E218" s="39"/>
+      <c r="B218" s="38"/>
+      <c r="C218" s="38"/>
+      <c r="E218" s="38"/>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B219" s="39"/>
-      <c r="C219" s="39"/>
-      <c r="E219" s="39"/>
+      <c r="B219" s="38"/>
+      <c r="C219" s="38"/>
+      <c r="E219" s="38"/>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B220" s="39"/>
-      <c r="C220" s="39"/>
-      <c r="E220" s="39"/>
+      <c r="B220" s="38"/>
+      <c r="C220" s="38"/>
+      <c r="E220" s="38"/>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B221" s="39"/>
-      <c r="C221" s="39"/>
-      <c r="E221" s="39"/>
+      <c r="B221" s="38"/>
+      <c r="C221" s="38"/>
+      <c r="E221" s="38"/>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B222" s="39"/>
-      <c r="C222" s="39"/>
-      <c r="E222" s="39"/>
+      <c r="B222" s="38"/>
+      <c r="C222" s="38"/>
+      <c r="E222" s="38"/>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B223" s="39"/>
-      <c r="C223" s="39"/>
-      <c r="E223" s="39"/>
+      <c r="B223" s="38"/>
+      <c r="C223" s="38"/>
+      <c r="E223" s="38"/>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B224" s="39"/>
-      <c r="C224" s="39"/>
-      <c r="E224" s="39"/>
+      <c r="B224" s="38"/>
+      <c r="C224" s="38"/>
+      <c r="E224" s="38"/>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B225" s="39"/>
-      <c r="C225" s="39"/>
-      <c r="E225" s="39"/>
+      <c r="B225" s="38"/>
+      <c r="C225" s="38"/>
+      <c r="E225" s="38"/>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B226" s="39"/>
-      <c r="C226" s="39"/>
-      <c r="E226" s="39"/>
+      <c r="B226" s="38"/>
+      <c r="C226" s="38"/>
+      <c r="E226" s="38"/>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B227" s="39"/>
-      <c r="C227" s="39"/>
-      <c r="E227" s="39"/>
+      <c r="B227" s="38"/>
+      <c r="C227" s="38"/>
+      <c r="E227" s="38"/>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B228" s="39"/>
-      <c r="C228" s="39"/>
-      <c r="E228" s="39"/>
+      <c r="B228" s="38"/>
+      <c r="C228" s="38"/>
+      <c r="E228" s="38"/>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B229" s="39"/>
-      <c r="C229" s="39"/>
-      <c r="E229" s="39"/>
+      <c r="B229" s="38"/>
+      <c r="C229" s="38"/>
+      <c r="E229" s="38"/>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B230" s="39"/>
-      <c r="C230" s="39"/>
-      <c r="E230" s="39"/>
+      <c r="B230" s="38"/>
+      <c r="C230" s="38"/>
+      <c r="E230" s="38"/>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B231" s="39"/>
-      <c r="C231" s="39"/>
-      <c r="E231" s="39"/>
+      <c r="B231" s="38"/>
+      <c r="C231" s="38"/>
+      <c r="E231" s="38"/>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B232" s="39"/>
-      <c r="C232" s="39"/>
-      <c r="E232" s="39"/>
+      <c r="B232" s="38"/>
+      <c r="C232" s="38"/>
+      <c r="E232" s="38"/>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B233" s="39"/>
-      <c r="C233" s="39"/>
-      <c r="E233" s="39"/>
+      <c r="B233" s="38"/>
+      <c r="C233" s="38"/>
+      <c r="E233" s="38"/>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B234" s="39"/>
-      <c r="C234" s="39"/>
-      <c r="E234" s="39"/>
+      <c r="B234" s="38"/>
+      <c r="C234" s="38"/>
+      <c r="E234" s="38"/>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B235" s="39"/>
-      <c r="C235" s="39"/>
-      <c r="E235" s="39"/>
+      <c r="B235" s="38"/>
+      <c r="C235" s="38"/>
+      <c r="E235" s="38"/>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B236" s="39"/>
-      <c r="C236" s="39"/>
-      <c r="E236" s="39"/>
+      <c r="B236" s="38"/>
+      <c r="C236" s="38"/>
+      <c r="E236" s="38"/>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B237" s="39"/>
-      <c r="C237" s="39"/>
-      <c r="E237" s="39"/>
+      <c r="B237" s="38"/>
+      <c r="C237" s="38"/>
+      <c r="E237" s="38"/>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B238" s="39"/>
-      <c r="C238" s="39"/>
-      <c r="E238" s="39"/>
+      <c r="B238" s="38"/>
+      <c r="C238" s="38"/>
+      <c r="E238" s="38"/>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B239" s="39"/>
-      <c r="C239" s="39"/>
-      <c r="E239" s="39"/>
+      <c r="B239" s="38"/>
+      <c r="C239" s="38"/>
+      <c r="E239" s="38"/>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B240" s="39"/>
-      <c r="C240" s="39"/>
-      <c r="E240" s="39"/>
+      <c r="B240" s="38"/>
+      <c r="C240" s="38"/>
+      <c r="E240" s="38"/>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B241" s="39"/>
-      <c r="C241" s="39"/>
-      <c r="E241" s="39"/>
+      <c r="B241" s="38"/>
+      <c r="C241" s="38"/>
+      <c r="E241" s="38"/>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B242" s="39"/>
-      <c r="C242" s="39"/>
-      <c r="E242" s="39"/>
+      <c r="B242" s="38"/>
+      <c r="C242" s="38"/>
+      <c r="E242" s="38"/>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B243" s="39"/>
-      <c r="C243" s="39"/>
-      <c r="E243" s="39"/>
+      <c r="B243" s="38"/>
+      <c r="C243" s="38"/>
+      <c r="E243" s="38"/>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B244" s="39"/>
-      <c r="C244" s="39"/>
-      <c r="E244" s="39"/>
+      <c r="B244" s="38"/>
+      <c r="C244" s="38"/>
+      <c r="E244" s="38"/>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B245" s="39"/>
-      <c r="C245" s="39"/>
-      <c r="E245" s="39"/>
+      <c r="B245" s="38"/>
+      <c r="C245" s="38"/>
+      <c r="E245" s="38"/>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B246" s="39"/>
-      <c r="C246" s="39"/>
-      <c r="E246" s="39"/>
+      <c r="B246" s="38"/>
+      <c r="C246" s="38"/>
+      <c r="E246" s="38"/>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B247" s="39"/>
-      <c r="C247" s="39"/>
-      <c r="E247" s="39"/>
+      <c r="B247" s="38"/>
+      <c r="C247" s="38"/>
+      <c r="E247" s="38"/>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B248" s="39"/>
-      <c r="C248" s="39"/>
-      <c r="E248" s="39"/>
+      <c r="B248" s="38"/>
+      <c r="C248" s="38"/>
+      <c r="E248" s="38"/>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B249" s="39"/>
-      <c r="C249" s="39"/>
-      <c r="E249" s="39"/>
+      <c r="B249" s="38"/>
+      <c r="C249" s="38"/>
+      <c r="E249" s="38"/>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B250" s="39"/>
-      <c r="C250" s="39"/>
-      <c r="E250" s="39"/>
+      <c r="B250" s="38"/>
+      <c r="C250" s="38"/>
+      <c r="E250" s="38"/>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B251" s="39"/>
-      <c r="C251" s="39"/>
-      <c r="E251" s="39"/>
+      <c r="B251" s="38"/>
+      <c r="C251" s="38"/>
+      <c r="E251" s="38"/>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B252" s="39"/>
-      <c r="C252" s="39"/>
-      <c r="E252" s="39"/>
+      <c r="B252" s="38"/>
+      <c r="C252" s="38"/>
+      <c r="E252" s="38"/>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B253" s="39"/>
-      <c r="C253" s="39"/>
-      <c r="E253" s="39"/>
+      <c r="B253" s="38"/>
+      <c r="C253" s="38"/>
+      <c r="E253" s="38"/>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B254" s="39"/>
-      <c r="C254" s="39"/>
-      <c r="E254" s="39"/>
+      <c r="B254" s="38"/>
+      <c r="C254" s="38"/>
+      <c r="E254" s="38"/>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B255" s="39"/>
-      <c r="C255" s="39"/>
-      <c r="E255" s="39"/>
+      <c r="B255" s="38"/>
+      <c r="C255" s="38"/>
+      <c r="E255" s="38"/>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B256" s="39"/>
-      <c r="C256" s="39"/>
-      <c r="E256" s="39"/>
+      <c r="B256" s="38"/>
+      <c r="C256" s="38"/>
+      <c r="E256" s="38"/>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B257" s="39"/>
-      <c r="C257" s="39"/>
-      <c r="E257" s="39"/>
+      <c r="B257" s="38"/>
+      <c r="C257" s="38"/>
+      <c r="E257" s="38"/>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B258" s="39"/>
-      <c r="C258" s="39"/>
-      <c r="E258" s="39"/>
+      <c r="B258" s="38"/>
+      <c r="C258" s="38"/>
+      <c r="E258" s="38"/>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B259" s="39"/>
-      <c r="C259" s="39"/>
-      <c r="E259" s="39"/>
+      <c r="B259" s="38"/>
+      <c r="C259" s="38"/>
+      <c r="E259" s="38"/>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B260" s="39"/>
-      <c r="C260" s="39"/>
-      <c r="E260" s="39"/>
+      <c r="B260" s="38"/>
+      <c r="C260" s="38"/>
+      <c r="E260" s="38"/>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B261" s="39"/>
-      <c r="C261" s="39"/>
-      <c r="E261" s="39"/>
+      <c r="B261" s="38"/>
+      <c r="C261" s="38"/>
+      <c r="E261" s="38"/>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B262" s="39"/>
-      <c r="C262" s="39"/>
-      <c r="E262" s="39"/>
+      <c r="B262" s="38"/>
+      <c r="C262" s="38"/>
+      <c r="E262" s="38"/>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B263" s="39"/>
-      <c r="C263" s="39"/>
-      <c r="E263" s="39"/>
+      <c r="B263" s="38"/>
+      <c r="C263" s="38"/>
+      <c r="E263" s="38"/>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B264" s="39"/>
-      <c r="C264" s="39"/>
-      <c r="E264" s="39"/>
+      <c r="B264" s="38"/>
+      <c r="C264" s="38"/>
+      <c r="E264" s="38"/>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B265" s="39"/>
-      <c r="C265" s="39"/>
-      <c r="E265" s="39"/>
+      <c r="B265" s="38"/>
+      <c r="C265" s="38"/>
+      <c r="E265" s="38"/>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B266" s="39"/>
-      <c r="C266" s="39"/>
-      <c r="E266" s="39"/>
+      <c r="B266" s="38"/>
+      <c r="C266" s="38"/>
+      <c r="E266" s="38"/>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B267" s="39"/>
-      <c r="C267" s="39"/>
-      <c r="E267" s="39"/>
+      <c r="B267" s="38"/>
+      <c r="C267" s="38"/>
+      <c r="E267" s="38"/>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B268" s="39"/>
-      <c r="C268" s="39"/>
-      <c r="E268" s="39"/>
+      <c r="B268" s="38"/>
+      <c r="C268" s="38"/>
+      <c r="E268" s="38"/>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B269" s="39"/>
-      <c r="C269" s="39"/>
-      <c r="E269" s="39"/>
+      <c r="B269" s="38"/>
+      <c r="C269" s="38"/>
+      <c r="E269" s="38"/>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B270" s="39"/>
-      <c r="C270" s="39"/>
-      <c r="E270" s="39"/>
+      <c r="B270" s="38"/>
+      <c r="C270" s="38"/>
+      <c r="E270" s="38"/>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B271" s="39"/>
-      <c r="C271" s="39"/>
-      <c r="E271" s="39"/>
+      <c r="B271" s="38"/>
+      <c r="C271" s="38"/>
+      <c r="E271" s="38"/>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B272" s="39"/>
-      <c r="C272" s="39"/>
-      <c r="E272" s="39"/>
+      <c r="B272" s="38"/>
+      <c r="C272" s="38"/>
+      <c r="E272" s="38"/>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B273" s="39"/>
-      <c r="C273" s="39"/>
-      <c r="E273" s="39"/>
+      <c r="B273" s="38"/>
+      <c r="C273" s="38"/>
+      <c r="E273" s="38"/>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B274" s="39"/>
-      <c r="C274" s="39"/>
-      <c r="E274" s="39"/>
+      <c r="B274" s="38"/>
+      <c r="C274" s="38"/>
+      <c r="E274" s="38"/>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B275" s="39"/>
-      <c r="C275" s="39"/>
-      <c r="E275" s="39"/>
+      <c r="B275" s="38"/>
+      <c r="C275" s="38"/>
+      <c r="E275" s="38"/>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B276" s="39"/>
-      <c r="C276" s="39"/>
-      <c r="E276" s="39"/>
+      <c r="B276" s="38"/>
+      <c r="C276" s="38"/>
+      <c r="E276" s="38"/>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B277" s="39"/>
-      <c r="C277" s="39"/>
-      <c r="E277" s="39"/>
+      <c r="B277" s="38"/>
+      <c r="C277" s="38"/>
+      <c r="E277" s="38"/>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B278" s="39"/>
-      <c r="C278" s="39"/>
-      <c r="E278" s="39"/>
+      <c r="B278" s="38"/>
+      <c r="C278" s="38"/>
+      <c r="E278" s="38"/>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B279" s="39"/>
-      <c r="C279" s="39"/>
-      <c r="E279" s="39"/>
+      <c r="B279" s="38"/>
+      <c r="C279" s="38"/>
+      <c r="E279" s="38"/>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B280" s="39"/>
-      <c r="C280" s="39"/>
-      <c r="E280" s="39"/>
+      <c r="B280" s="38"/>
+      <c r="C280" s="38"/>
+      <c r="E280" s="38"/>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B281" s="39"/>
-      <c r="C281" s="39"/>
-      <c r="E281" s="39"/>
+      <c r="B281" s="38"/>
+      <c r="C281" s="38"/>
+      <c r="E281" s="38"/>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B282" s="39"/>
-      <c r="C282" s="39"/>
-      <c r="E282" s="39"/>
+      <c r="B282" s="38"/>
+      <c r="C282" s="38"/>
+      <c r="E282" s="38"/>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B283" s="39"/>
-      <c r="C283" s="39"/>
-      <c r="E283" s="39"/>
+      <c r="B283" s="38"/>
+      <c r="C283" s="38"/>
+      <c r="E283" s="38"/>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B284" s="39"/>
-      <c r="C284" s="39"/>
-      <c r="E284" s="39"/>
+      <c r="B284" s="38"/>
+      <c r="C284" s="38"/>
+      <c r="E284" s="38"/>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B285" s="39"/>
-      <c r="C285" s="39"/>
-      <c r="E285" s="39"/>
+      <c r="B285" s="38"/>
+      <c r="C285" s="38"/>
+      <c r="E285" s="38"/>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B286" s="39"/>
-      <c r="C286" s="39"/>
-      <c r="E286" s="39"/>
+      <c r="B286" s="38"/>
+      <c r="C286" s="38"/>
+      <c r="E286" s="38"/>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B287" s="39"/>
-      <c r="C287" s="39"/>
-      <c r="E287" s="39"/>
+      <c r="B287" s="38"/>
+      <c r="C287" s="38"/>
+      <c r="E287" s="38"/>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B288" s="39"/>
-      <c r="C288" s="39"/>
-      <c r="E288" s="39"/>
+      <c r="B288" s="38"/>
+      <c r="C288" s="38"/>
+      <c r="E288" s="38"/>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B289" s="39"/>
-      <c r="C289" s="39"/>
-      <c r="E289" s="39"/>
+      <c r="B289" s="38"/>
+      <c r="C289" s="38"/>
+      <c r="E289" s="38"/>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B290" s="39"/>
-      <c r="C290" s="39"/>
-      <c r="E290" s="39"/>
+      <c r="B290" s="38"/>
+      <c r="C290" s="38"/>
+      <c r="E290" s="38"/>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B291" s="39"/>
-      <c r="C291" s="39"/>
-      <c r="E291" s="39"/>
+      <c r="B291" s="38"/>
+      <c r="C291" s="38"/>
+      <c r="E291" s="38"/>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B292" s="39"/>
-      <c r="C292" s="39"/>
-      <c r="E292" s="39"/>
+      <c r="B292" s="38"/>
+      <c r="C292" s="38"/>
+      <c r="E292" s="38"/>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B293" s="39"/>
-      <c r="C293" s="39"/>
-      <c r="E293" s="39"/>
+      <c r="B293" s="38"/>
+      <c r="C293" s="38"/>
+      <c r="E293" s="38"/>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B294" s="39"/>
-      <c r="C294" s="39"/>
-      <c r="E294" s="39"/>
+      <c r="B294" s="38"/>
+      <c r="C294" s="38"/>
+      <c r="E294" s="38"/>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B295" s="39"/>
-      <c r="C295" s="39"/>
-      <c r="E295" s="39"/>
+      <c r="B295" s="38"/>
+      <c r="C295" s="38"/>
+      <c r="E295" s="38"/>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B296" s="39"/>
-      <c r="C296" s="39"/>
-      <c r="E296" s="39"/>
+      <c r="B296" s="38"/>
+      <c r="C296" s="38"/>
+      <c r="E296" s="38"/>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B297" s="39"/>
-      <c r="C297" s="39"/>
-      <c r="E297" s="39"/>
+      <c r="B297" s="38"/>
+      <c r="C297" s="38"/>
+      <c r="E297" s="38"/>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B298" s="39"/>
-      <c r="C298" s="39"/>
-      <c r="E298" s="39"/>
+      <c r="B298" s="38"/>
+      <c r="C298" s="38"/>
+      <c r="E298" s="38"/>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B299" s="39"/>
-      <c r="C299" s="39"/>
-      <c r="E299" s="39"/>
+      <c r="B299" s="38"/>
+      <c r="C299" s="38"/>
+      <c r="E299" s="38"/>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B300" s="39"/>
-      <c r="C300" s="39"/>
-      <c r="E300" s="39"/>
+      <c r="B300" s="38"/>
+      <c r="C300" s="38"/>
+      <c r="E300" s="38"/>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B301" s="39"/>
-      <c r="C301" s="39"/>
-      <c r="E301" s="39"/>
+      <c r="B301" s="38"/>
+      <c r="C301" s="38"/>
+      <c r="E301" s="38"/>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B302" s="39"/>
-      <c r="C302" s="39"/>
-      <c r="E302" s="39"/>
+      <c r="B302" s="38"/>
+      <c r="C302" s="38"/>
+      <c r="E302" s="38"/>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B303" s="39"/>
-      <c r="C303" s="39"/>
-      <c r="E303" s="39"/>
+      <c r="B303" s="38"/>
+      <c r="C303" s="38"/>
+      <c r="E303" s="38"/>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B304" s="39"/>
-      <c r="C304" s="39"/>
-      <c r="E304" s="39"/>
+      <c r="B304" s="38"/>
+      <c r="C304" s="38"/>
+      <c r="E304" s="38"/>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B305" s="39"/>
-      <c r="C305" s="39"/>
-      <c r="E305" s="39"/>
+      <c r="B305" s="38"/>
+      <c r="C305" s="38"/>
+      <c r="E305" s="38"/>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B306" s="39"/>
-      <c r="C306" s="39"/>
-      <c r="E306" s="39"/>
+      <c r="B306" s="38"/>
+      <c r="C306" s="38"/>
+      <c r="E306" s="38"/>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B307" s="39"/>
-      <c r="C307" s="39"/>
-      <c r="E307" s="39"/>
+      <c r="B307" s="38"/>
+      <c r="C307" s="38"/>
+      <c r="E307" s="38"/>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B308" s="39"/>
-      <c r="C308" s="39"/>
-      <c r="E308" s="39"/>
+      <c r="B308" s="38"/>
+      <c r="C308" s="38"/>
+      <c r="E308" s="38"/>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B309" s="39"/>
-      <c r="C309" s="39"/>
-      <c r="E309" s="39"/>
+      <c r="B309" s="38"/>
+      <c r="C309" s="38"/>
+      <c r="E309" s="38"/>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B310" s="39"/>
-      <c r="C310" s="39"/>
-      <c r="E310" s="39"/>
+      <c r="B310" s="38"/>
+      <c r="C310" s="38"/>
+      <c r="E310" s="38"/>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B311" s="39"/>
-      <c r="C311" s="39"/>
-      <c r="E311" s="39"/>
+      <c r="B311" s="38"/>
+      <c r="C311" s="38"/>
+      <c r="E311" s="38"/>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B312" s="39"/>
-      <c r="C312" s="39"/>
-      <c r="E312" s="39"/>
+      <c r="B312" s="38"/>
+      <c r="C312" s="38"/>
+      <c r="E312" s="38"/>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B313" s="39"/>
-      <c r="C313" s="39"/>
-      <c r="E313" s="39"/>
+      <c r="B313" s="38"/>
+      <c r="C313" s="38"/>
+      <c r="E313" s="38"/>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B314" s="39"/>
-      <c r="C314" s="39"/>
-      <c r="E314" s="39"/>
+      <c r="B314" s="38"/>
+      <c r="C314" s="38"/>
+      <c r="E314" s="38"/>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B315" s="39"/>
-      <c r="C315" s="39"/>
-      <c r="E315" s="39"/>
+      <c r="B315" s="38"/>
+      <c r="C315" s="38"/>
+      <c r="E315" s="38"/>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B316" s="39"/>
-      <c r="C316" s="39"/>
-      <c r="E316" s="39"/>
+      <c r="B316" s="38"/>
+      <c r="C316" s="38"/>
+      <c r="E316" s="38"/>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B317" s="39"/>
-      <c r="C317" s="39"/>
-      <c r="E317" s="39"/>
+      <c r="B317" s="38"/>
+      <c r="C317" s="38"/>
+      <c r="E317" s="38"/>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B318" s="39"/>
-      <c r="C318" s="39"/>
-      <c r="E318" s="39"/>
+      <c r="B318" s="38"/>
+      <c r="C318" s="38"/>
+      <c r="E318" s="38"/>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B319" s="39"/>
-      <c r="C319" s="39"/>
-      <c r="E319" s="39"/>
+      <c r="B319" s="38"/>
+      <c r="C319" s="38"/>
+      <c r="E319" s="38"/>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B320" s="39"/>
-      <c r="C320" s="39"/>
-      <c r="E320" s="39"/>
+      <c r="B320" s="38"/>
+      <c r="C320" s="38"/>
+      <c r="E320" s="38"/>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B321" s="39"/>
-      <c r="C321" s="39"/>
-      <c r="E321" s="39"/>
+      <c r="B321" s="38"/>
+      <c r="C321" s="38"/>
+      <c r="E321" s="38"/>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B322" s="39"/>
-      <c r="C322" s="39"/>
-      <c r="E322" s="39"/>
+      <c r="B322" s="38"/>
+      <c r="C322" s="38"/>
+      <c r="E322" s="38"/>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B323" s="39"/>
-      <c r="C323" s="39"/>
-      <c r="E323" s="39"/>
+      <c r="B323" s="38"/>
+      <c r="C323" s="38"/>
+      <c r="E323" s="38"/>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B324" s="39"/>
-      <c r="C324" s="39"/>
-      <c r="E324" s="39"/>
+      <c r="B324" s="38"/>
+      <c r="C324" s="38"/>
+      <c r="E324" s="38"/>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B325" s="39"/>
-      <c r="C325" s="39"/>
-      <c r="E325" s="39"/>
+      <c r="B325" s="38"/>
+      <c r="C325" s="38"/>
+      <c r="E325" s="38"/>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B326" s="39"/>
-      <c r="C326" s="39"/>
-      <c r="E326" s="39"/>
+      <c r="B326" s="38"/>
+      <c r="C326" s="38"/>
+      <c r="E326" s="38"/>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B327" s="39"/>
-      <c r="C327" s="39"/>
-      <c r="E327" s="39"/>
+      <c r="B327" s="38"/>
+      <c r="C327" s="38"/>
+      <c r="E327" s="38"/>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B328" s="39"/>
-      <c r="C328" s="39"/>
-      <c r="E328" s="39"/>
+      <c r="B328" s="38"/>
+      <c r="C328" s="38"/>
+      <c r="E328" s="38"/>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B329" s="39"/>
-      <c r="C329" s="39"/>
-      <c r="E329" s="39"/>
+      <c r="B329" s="38"/>
+      <c r="C329" s="38"/>
+      <c r="E329" s="38"/>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B330" s="39"/>
-      <c r="C330" s="39"/>
-      <c r="E330" s="39"/>
+      <c r="B330" s="38"/>
+      <c r="C330" s="38"/>
+      <c r="E330" s="38"/>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B331" s="39"/>
-      <c r="C331" s="39"/>
-      <c r="E331" s="39"/>
+      <c r="B331" s="38"/>
+      <c r="C331" s="38"/>
+      <c r="E331" s="38"/>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B332" s="39"/>
-      <c r="C332" s="39"/>
-      <c r="E332" s="39"/>
+      <c r="B332" s="38"/>
+      <c r="C332" s="38"/>
+      <c r="E332" s="38"/>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B333" s="39"/>
-      <c r="C333" s="39"/>
-      <c r="E333" s="39"/>
+      <c r="B333" s="38"/>
+      <c r="C333" s="38"/>
+      <c r="E333" s="38"/>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B334" s="39"/>
-      <c r="C334" s="39"/>
-      <c r="E334" s="39"/>
+      <c r="B334" s="38"/>
+      <c r="C334" s="38"/>
+      <c r="E334" s="38"/>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B335" s="39"/>
-      <c r="C335" s="39"/>
-      <c r="E335" s="39"/>
+      <c r="B335" s="38"/>
+      <c r="C335" s="38"/>
+      <c r="E335" s="38"/>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B336" s="39"/>
-      <c r="C336" s="39"/>
-      <c r="E336" s="39"/>
+      <c r="B336" s="38"/>
+      <c r="C336" s="38"/>
+      <c r="E336" s="38"/>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B337" s="39"/>
-      <c r="C337" s="39"/>
-      <c r="E337" s="39"/>
+      <c r="B337" s="38"/>
+      <c r="C337" s="38"/>
+      <c r="E337" s="38"/>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B338" s="39"/>
-      <c r="C338" s="39"/>
-      <c r="E338" s="39"/>
+      <c r="B338" s="38"/>
+      <c r="C338" s="38"/>
+      <c r="E338" s="38"/>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B339" s="39"/>
-      <c r="C339" s="39"/>
-      <c r="E339" s="39"/>
+      <c r="B339" s="38"/>
+      <c r="C339" s="38"/>
+      <c r="E339" s="38"/>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B340" s="39"/>
-      <c r="C340" s="39"/>
-      <c r="E340" s="39"/>
+      <c r="B340" s="38"/>
+      <c r="C340" s="38"/>
+      <c r="E340" s="38"/>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B341" s="39"/>
-      <c r="C341" s="39"/>
-      <c r="E341" s="39"/>
+      <c r="B341" s="38"/>
+      <c r="C341" s="38"/>
+      <c r="E341" s="38"/>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B342" s="39"/>
-      <c r="C342" s="39"/>
-      <c r="E342" s="39"/>
+      <c r="B342" s="38"/>
+      <c r="C342" s="38"/>
+      <c r="E342" s="38"/>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B343" s="39"/>
-      <c r="C343" s="39"/>
-      <c r="E343" s="39"/>
+      <c r="B343" s="38"/>
+      <c r="C343" s="38"/>
+      <c r="E343" s="38"/>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B344" s="39"/>
-      <c r="C344" s="39"/>
-      <c r="E344" s="39"/>
+      <c r="B344" s="38"/>
+      <c r="C344" s="38"/>
+      <c r="E344" s="38"/>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B345" s="39"/>
-      <c r="C345" s="39"/>
-      <c r="E345" s="39"/>
+      <c r="B345" s="38"/>
+      <c r="C345" s="38"/>
+      <c r="E345" s="38"/>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B346" s="39"/>
-      <c r="C346" s="39"/>
-      <c r="E346" s="39"/>
+      <c r="B346" s="38"/>
+      <c r="C346" s="38"/>
+      <c r="E346" s="38"/>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B347" s="39"/>
-      <c r="C347" s="39"/>
-      <c r="E347" s="39"/>
+      <c r="B347" s="38"/>
+      <c r="C347" s="38"/>
+      <c r="E347" s="38"/>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B348" s="39"/>
-      <c r="C348" s="39"/>
-      <c r="E348" s="39"/>
+      <c r="B348" s="38"/>
+      <c r="C348" s="38"/>
+      <c r="E348" s="38"/>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B349" s="39"/>
-      <c r="C349" s="39"/>
-      <c r="E349" s="39"/>
+      <c r="B349" s="38"/>
+      <c r="C349" s="38"/>
+      <c r="E349" s="38"/>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B350" s="39"/>
-      <c r="C350" s="39"/>
-      <c r="E350" s="39"/>
+      <c r="B350" s="38"/>
+      <c r="C350" s="38"/>
+      <c r="E350" s="38"/>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B351" s="39"/>
-      <c r="C351" s="39"/>
-      <c r="E351" s="39"/>
+      <c r="B351" s="38"/>
+      <c r="C351" s="38"/>
+      <c r="E351" s="38"/>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B352" s="39"/>
-      <c r="C352" s="39"/>
-      <c r="E352" s="39"/>
+      <c r="B352" s="38"/>
+      <c r="C352" s="38"/>
+      <c r="E352" s="38"/>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B353" s="39"/>
-      <c r="C353" s="39"/>
-      <c r="E353" s="39"/>
+      <c r="B353" s="38"/>
+      <c r="C353" s="38"/>
+      <c r="E353" s="38"/>
     </row>
     <row r="354" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B354" s="39"/>
-      <c r="C354" s="39"/>
-      <c r="E354" s="39"/>
+      <c r="B354" s="38"/>
+      <c r="C354" s="38"/>
+      <c r="E354" s="38"/>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B355" s="39"/>
-      <c r="C355" s="39"/>
-      <c r="E355" s="39"/>
+      <c r="B355" s="38"/>
+      <c r="C355" s="38"/>
+      <c r="E355" s="38"/>
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B356" s="39"/>
-      <c r="C356" s="39"/>
-      <c r="E356" s="39"/>
+      <c r="B356" s="38"/>
+      <c r="C356" s="38"/>
+      <c r="E356" s="38"/>
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B357" s="39"/>
-      <c r="C357" s="39"/>
-      <c r="E357" s="39"/>
+      <c r="B357" s="38"/>
+      <c r="C357" s="38"/>
+      <c r="E357" s="38"/>
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B358" s="39"/>
-      <c r="C358" s="39"/>
-      <c r="E358" s="39"/>
+      <c r="B358" s="38"/>
+      <c r="C358" s="38"/>
+      <c r="E358" s="38"/>
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B359" s="39"/>
-      <c r="C359" s="39"/>
-      <c r="E359" s="39"/>
+      <c r="B359" s="38"/>
+      <c r="C359" s="38"/>
+      <c r="E359" s="38"/>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B360" s="39"/>
-      <c r="C360" s="39"/>
-      <c r="E360" s="39"/>
+      <c r="B360" s="38"/>
+      <c r="C360" s="38"/>
+      <c r="E360" s="38"/>
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B361" s="39"/>
-      <c r="C361" s="39"/>
-      <c r="E361" s="39"/>
+      <c r="B361" s="38"/>
+      <c r="C361" s="38"/>
+      <c r="E361" s="38"/>
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B362" s="39"/>
-      <c r="C362" s="39"/>
-      <c r="E362" s="39"/>
+      <c r="B362" s="38"/>
+      <c r="C362" s="38"/>
+      <c r="E362" s="38"/>
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B363" s="39"/>
-      <c r="C363" s="39"/>
-      <c r="E363" s="39"/>
+      <c r="B363" s="38"/>
+      <c r="C363" s="38"/>
+      <c r="E363" s="38"/>
     </row>
     <row r="364" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B364" s="39"/>
-      <c r="C364" s="39"/>
-      <c r="E364" s="39"/>
+      <c r="B364" s="38"/>
+      <c r="C364" s="38"/>
+      <c r="E364" s="38"/>
     </row>
     <row r="365" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B365" s="39"/>
-      <c r="C365" s="39"/>
-      <c r="E365" s="39"/>
+      <c r="B365" s="38"/>
+      <c r="C365" s="38"/>
+      <c r="E365" s="38"/>
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B366" s="39"/>
-      <c r="C366" s="39"/>
-      <c r="E366" s="39"/>
+      <c r="B366" s="38"/>
+      <c r="C366" s="38"/>
+      <c r="E366" s="38"/>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B367" s="39"/>
-      <c r="C367" s="39"/>
-      <c r="E367" s="39"/>
+      <c r="B367" s="38"/>
+      <c r="C367" s="38"/>
+      <c r="E367" s="38"/>
     </row>
     <row r="368" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B368" s="39"/>
-      <c r="C368" s="39"/>
-      <c r="E368" s="39"/>
+      <c r="B368" s="38"/>
+      <c r="C368" s="38"/>
+      <c r="E368" s="38"/>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B369" s="39"/>
-      <c r="C369" s="39"/>
-      <c r="E369" s="39"/>
+      <c r="B369" s="38"/>
+      <c r="C369" s="38"/>
+      <c r="E369" s="38"/>
     </row>
     <row r="370" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B370" s="39"/>
-      <c r="C370" s="39"/>
-      <c r="E370" s="39"/>
+      <c r="B370" s="38"/>
+      <c r="C370" s="38"/>
+      <c r="E370" s="38"/>
     </row>
     <row r="371" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B371" s="39"/>
-      <c r="C371" s="39"/>
-      <c r="E371" s="39"/>
+      <c r="B371" s="38"/>
+      <c r="C371" s="38"/>
+      <c r="E371" s="38"/>
     </row>
     <row r="372" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B372" s="39"/>
-      <c r="C372" s="39"/>
-      <c r="E372" s="39"/>
+      <c r="B372" s="38"/>
+      <c r="C372" s="38"/>
+      <c r="E372" s="38"/>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B373" s="39"/>
-      <c r="C373" s="39"/>
-      <c r="E373" s="39"/>
+      <c r="B373" s="38"/>
+      <c r="C373" s="38"/>
+      <c r="E373" s="38"/>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B374" s="39"/>
-      <c r="C374" s="39"/>
-      <c r="E374" s="39"/>
+      <c r="B374" s="38"/>
+      <c r="C374" s="38"/>
+      <c r="E374" s="38"/>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B375" s="39"/>
-      <c r="C375" s="39"/>
-      <c r="E375" s="39"/>
+      <c r="B375" s="38"/>
+      <c r="C375" s="38"/>
+      <c r="E375" s="38"/>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B376" s="39"/>
-      <c r="C376" s="39"/>
-      <c r="E376" s="39"/>
+      <c r="B376" s="38"/>
+      <c r="C376" s="38"/>
+      <c r="E376" s="38"/>
     </row>
     <row r="377" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B377" s="39"/>
-      <c r="C377" s="39"/>
-      <c r="E377" s="39"/>
+      <c r="B377" s="38"/>
+      <c r="C377" s="38"/>
+      <c r="E377" s="38"/>
     </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B378" s="39"/>
-      <c r="C378" s="39"/>
-      <c r="E378" s="39"/>
+      <c r="B378" s="38"/>
+      <c r="C378" s="38"/>
+      <c r="E378" s="38"/>
     </row>
     <row r="379" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B379" s="39"/>
-      <c r="C379" s="39"/>
-      <c r="E379" s="39"/>
+      <c r="B379" s="38"/>
+      <c r="C379" s="38"/>
+      <c r="E379" s="38"/>
     </row>
     <row r="380" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B380" s="39"/>
-      <c r="C380" s="39"/>
-      <c r="E380" s="39"/>
+      <c r="B380" s="38"/>
+      <c r="C380" s="38"/>
+      <c r="E380" s="38"/>
     </row>
     <row r="381" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B381" s="39"/>
-      <c r="C381" s="39"/>
-      <c r="E381" s="39"/>
+      <c r="B381" s="38"/>
+      <c r="C381" s="38"/>
+      <c r="E381" s="38"/>
     </row>
     <row r="382" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B382" s="39"/>
-      <c r="C382" s="39"/>
-      <c r="E382" s="39"/>
+      <c r="B382" s="38"/>
+      <c r="C382" s="38"/>
+      <c r="E382" s="38"/>
     </row>
     <row r="383" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B383" s="39"/>
-      <c r="C383" s="39"/>
-      <c r="E383" s="39"/>
+      <c r="B383" s="38"/>
+      <c r="C383" s="38"/>
+      <c r="E383" s="38"/>
     </row>
     <row r="384" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B384" s="39"/>
-      <c r="C384" s="39"/>
-      <c r="E384" s="39"/>
+      <c r="B384" s="38"/>
+      <c r="C384" s="38"/>
+      <c r="E384" s="38"/>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B385" s="39"/>
-      <c r="C385" s="39"/>
-      <c r="E385" s="39"/>
+      <c r="B385" s="38"/>
+      <c r="C385" s="38"/>
+      <c r="E385" s="38"/>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B386" s="39"/>
-      <c r="C386" s="39"/>
-      <c r="E386" s="39"/>
+      <c r="B386" s="38"/>
+      <c r="C386" s="38"/>
+      <c r="E386" s="38"/>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B387" s="39"/>
-      <c r="C387" s="39"/>
-      <c r="E387" s="39"/>
+      <c r="B387" s="38"/>
+      <c r="C387" s="38"/>
+      <c r="E387" s="38"/>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B388" s="39"/>
-      <c r="C388" s="39"/>
-      <c r="E388" s="39"/>
+      <c r="B388" s="38"/>
+      <c r="C388" s="38"/>
+      <c r="E388" s="38"/>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B389" s="39"/>
-      <c r="C389" s="39"/>
-      <c r="E389" s="39"/>
+      <c r="B389" s="38"/>
+      <c r="C389" s="38"/>
+      <c r="E389" s="38"/>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B390" s="39"/>
-      <c r="C390" s="39"/>
-      <c r="E390" s="39"/>
+      <c r="B390" s="38"/>
+      <c r="C390" s="38"/>
+      <c r="E390" s="38"/>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B391" s="39"/>
-      <c r="C391" s="39"/>
-      <c r="E391" s="39"/>
+      <c r="B391" s="38"/>
+      <c r="C391" s="38"/>
+      <c r="E391" s="38"/>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B392" s="39"/>
-      <c r="C392" s="39"/>
-      <c r="E392" s="39"/>
+      <c r="B392" s="38"/>
+      <c r="C392" s="38"/>
+      <c r="E392" s="38"/>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B393" s="39"/>
-      <c r="C393" s="39"/>
-      <c r="E393" s="39"/>
+      <c r="B393" s="38"/>
+      <c r="C393" s="38"/>
+      <c r="E393" s="38"/>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B394" s="39"/>
-      <c r="C394" s="39"/>
-      <c r="E394" s="39"/>
+      <c r="B394" s="38"/>
+      <c r="C394" s="38"/>
+      <c r="E394" s="38"/>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B395" s="39"/>
-      <c r="C395" s="39"/>
-      <c r="E395" s="39"/>
+      <c r="B395" s="38"/>
+      <c r="C395" s="38"/>
+      <c r="E395" s="38"/>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B396" s="39"/>
-      <c r="C396" s="39"/>
-      <c r="E396" s="39"/>
+      <c r="B396" s="38"/>
+      <c r="C396" s="38"/>
+      <c r="E396" s="38"/>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B397" s="39"/>
-      <c r="C397" s="39"/>
-      <c r="E397" s="39"/>
+      <c r="B397" s="38"/>
+      <c r="C397" s="38"/>
+      <c r="E397" s="38"/>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B398" s="39"/>
-      <c r="C398" s="39"/>
-      <c r="E398" s="39"/>
+      <c r="B398" s="38"/>
+      <c r="C398" s="38"/>
+      <c r="E398" s="38"/>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B399" s="39"/>
-      <c r="C399" s="39"/>
-      <c r="E399" s="39"/>
+      <c r="B399" s="38"/>
+      <c r="C399" s="38"/>
+      <c r="E399" s="38"/>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B400" s="39"/>
-      <c r="C400" s="39"/>
-      <c r="E400" s="39"/>
+      <c r="B400" s="38"/>
+      <c r="C400" s="38"/>
+      <c r="E400" s="38"/>
     </row>
     <row r="401" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B401" s="39"/>
-      <c r="C401" s="39"/>
-      <c r="E401" s="39"/>
+      <c r="B401" s="38"/>
+      <c r="C401" s="38"/>
+      <c r="E401" s="38"/>
     </row>
     <row r="402" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B402" s="39"/>
-      <c r="C402" s="39"/>
-      <c r="E402" s="39"/>
+      <c r="B402" s="38"/>
+      <c r="C402" s="38"/>
+      <c r="E402" s="38"/>
     </row>
     <row r="403" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B403" s="39"/>
-      <c r="C403" s="39"/>
-      <c r="E403" s="39"/>
+      <c r="B403" s="38"/>
+      <c r="C403" s="38"/>
+      <c r="E403" s="38"/>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B404" s="39"/>
-      <c r="C404" s="39"/>
-      <c r="E404" s="39"/>
+      <c r="B404" s="38"/>
+      <c r="C404" s="38"/>
+      <c r="E404" s="38"/>
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B405" s="39"/>
-      <c r="C405" s="39"/>
-      <c r="E405" s="39"/>
+      <c r="B405" s="38"/>
+      <c r="C405" s="38"/>
+      <c r="E405" s="38"/>
     </row>
     <row r="406" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B406" s="39"/>
-      <c r="C406" s="39"/>
-      <c r="E406" s="39"/>
+      <c r="B406" s="38"/>
+      <c r="C406" s="38"/>
+      <c r="E406" s="38"/>
     </row>
     <row r="407" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B407" s="39"/>
-      <c r="C407" s="39"/>
-      <c r="E407" s="39"/>
+      <c r="B407" s="38"/>
+      <c r="C407" s="38"/>
+      <c r="E407" s="38"/>
     </row>
     <row r="408" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B408" s="39"/>
-      <c r="C408" s="39"/>
-      <c r="E408" s="39"/>
+      <c r="B408" s="38"/>
+      <c r="C408" s="38"/>
+      <c r="E408" s="38"/>
     </row>
     <row r="409" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B409" s="39"/>
-      <c r="C409" s="39"/>
-      <c r="E409" s="39"/>
+      <c r="B409" s="38"/>
+      <c r="C409" s="38"/>
+      <c r="E409" s="38"/>
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B410" s="39"/>
-      <c r="C410" s="39"/>
-      <c r="E410" s="39"/>
+      <c r="B410" s="38"/>
+      <c r="C410" s="38"/>
+      <c r="E410" s="38"/>
     </row>
     <row r="411" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B411" s="39"/>
-      <c r="C411" s="39"/>
-      <c r="E411" s="39"/>
+      <c r="B411" s="38"/>
+      <c r="C411" s="38"/>
+      <c r="E411" s="38"/>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B412" s="39"/>
-      <c r="C412" s="39"/>
-      <c r="E412" s="39"/>
+      <c r="B412" s="38"/>
+      <c r="C412" s="38"/>
+      <c r="E412" s="38"/>
     </row>
     <row r="413" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B413" s="39"/>
-      <c r="C413" s="39"/>
-      <c r="E413" s="39"/>
+      <c r="B413" s="38"/>
+      <c r="C413" s="38"/>
+      <c r="E413" s="38"/>
     </row>
     <row r="414" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B414" s="39"/>
-      <c r="C414" s="39"/>
-      <c r="E414" s="39"/>
+      <c r="B414" s="38"/>
+      <c r="C414" s="38"/>
+      <c r="E414" s="38"/>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B415" s="39"/>
-      <c r="C415" s="39"/>
-      <c r="E415" s="39"/>
+      <c r="B415" s="38"/>
+      <c r="C415" s="38"/>
+      <c r="E415" s="38"/>
     </row>
     <row r="416" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B416" s="39"/>
-      <c r="C416" s="39"/>
-      <c r="E416" s="39"/>
+      <c r="B416" s="38"/>
+      <c r="C416" s="38"/>
+      <c r="E416" s="38"/>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B417" s="39"/>
-      <c r="C417" s="39"/>
-      <c r="E417" s="39"/>
+      <c r="B417" s="38"/>
+      <c r="C417" s="38"/>
+      <c r="E417" s="38"/>
     </row>
     <row r="418" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B418" s="39"/>
-      <c r="C418" s="39"/>
-      <c r="E418" s="39"/>
+      <c r="B418" s="38"/>
+      <c r="C418" s="38"/>
+      <c r="E418" s="38"/>
     </row>
     <row r="419" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B419" s="39"/>
-      <c r="C419" s="39"/>
-      <c r="E419" s="39"/>
+      <c r="B419" s="38"/>
+      <c r="C419" s="38"/>
+      <c r="E419" s="38"/>
     </row>
     <row r="420" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B420" s="39"/>
-      <c r="C420" s="39"/>
-      <c r="E420" s="39"/>
+      <c r="B420" s="38"/>
+      <c r="C420" s="38"/>
+      <c r="E420" s="38"/>
     </row>
     <row r="421" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B421" s="39"/>
-      <c r="C421" s="39"/>
-      <c r="E421" s="39"/>
+      <c r="B421" s="38"/>
+      <c r="C421" s="38"/>
+      <c r="E421" s="38"/>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B422" s="39"/>
-      <c r="C422" s="39"/>
-      <c r="E422" s="39"/>
+      <c r="B422" s="38"/>
+      <c r="C422" s="38"/>
+      <c r="E422" s="38"/>
     </row>
     <row r="423" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B423" s="39"/>
-      <c r="C423" s="39"/>
-      <c r="E423" s="39"/>
+      <c r="B423" s="38"/>
+      <c r="C423" s="38"/>
+      <c r="E423" s="38"/>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B424" s="39"/>
-      <c r="C424" s="39"/>
-      <c r="E424" s="39"/>
+      <c r="B424" s="38"/>
+      <c r="C424" s="38"/>
+      <c r="E424" s="38"/>
     </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B425" s="39"/>
-      <c r="C425" s="39"/>
-      <c r="E425" s="39"/>
+      <c r="B425" s="38"/>
+      <c r="C425" s="38"/>
+      <c r="E425" s="38"/>
     </row>
     <row r="426" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B426" s="39"/>
-      <c r="C426" s="39"/>
-      <c r="E426" s="39"/>
+      <c r="B426" s="38"/>
+      <c r="C426" s="38"/>
+      <c r="E426" s="38"/>
     </row>
     <row r="427" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B427" s="39"/>
-      <c r="C427" s="39"/>
-      <c r="E427" s="39"/>
+      <c r="B427" s="38"/>
+      <c r="C427" s="38"/>
+      <c r="E427" s="38"/>
     </row>
     <row r="428" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B428" s="39"/>
-      <c r="C428" s="39"/>
-      <c r="E428" s="39"/>
+      <c r="B428" s="38"/>
+      <c r="C428" s="38"/>
+      <c r="E428" s="38"/>
     </row>
     <row r="429" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B429" s="39"/>
-      <c r="C429" s="39"/>
-      <c r="E429" s="39"/>
+      <c r="B429" s="38"/>
+      <c r="C429" s="38"/>
+      <c r="E429" s="38"/>
     </row>
     <row r="430" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B430" s="39"/>
-      <c r="C430" s="39"/>
-      <c r="E430" s="39"/>
+      <c r="B430" s="38"/>
+      <c r="C430" s="38"/>
+      <c r="E430" s="38"/>
     </row>
     <row r="431" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B431" s="39"/>
-      <c r="C431" s="39"/>
-      <c r="E431" s="39"/>
+      <c r="B431" s="38"/>
+      <c r="C431" s="38"/>
+      <c r="E431" s="38"/>
     </row>
     <row r="432" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B432" s="39"/>
-      <c r="C432" s="39"/>
-      <c r="E432" s="39"/>
+      <c r="B432" s="38"/>
+      <c r="C432" s="38"/>
+      <c r="E432" s="38"/>
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B433" s="39"/>
-      <c r="C433" s="39"/>
-      <c r="E433" s="39"/>
+      <c r="B433" s="38"/>
+      <c r="C433" s="38"/>
+      <c r="E433" s="38"/>
     </row>
     <row r="434" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B434" s="39"/>
-      <c r="C434" s="39"/>
-      <c r="E434" s="39"/>
+      <c r="B434" s="38"/>
+      <c r="C434" s="38"/>
+      <c r="E434" s="38"/>
     </row>
     <row r="435" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B435" s="39"/>
-      <c r="C435" s="39"/>
-      <c r="E435" s="39"/>
+      <c r="B435" s="38"/>
+      <c r="C435" s="38"/>
+      <c r="E435" s="38"/>
     </row>
     <row r="436" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B436" s="39"/>
-      <c r="C436" s="39"/>
-      <c r="E436" s="39"/>
+      <c r="B436" s="38"/>
+      <c r="C436" s="38"/>
+      <c r="E436" s="38"/>
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B437" s="39"/>
-      <c r="C437" s="39"/>
-      <c r="E437" s="39"/>
+      <c r="B437" s="38"/>
+      <c r="C437" s="38"/>
+      <c r="E437" s="38"/>
     </row>
     <row r="438" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B438" s="39"/>
-      <c r="C438" s="39"/>
-      <c r="E438" s="39"/>
+      <c r="B438" s="38"/>
+      <c r="C438" s="38"/>
+      <c r="E438" s="38"/>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B439" s="39"/>
-      <c r="C439" s="39"/>
-      <c r="E439" s="39"/>
+      <c r="B439" s="38"/>
+      <c r="C439" s="38"/>
+      <c r="E439" s="38"/>
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B440" s="39"/>
-      <c r="C440" s="39"/>
-      <c r="E440" s="39"/>
+      <c r="B440" s="38"/>
+      <c r="C440" s="38"/>
+      <c r="E440" s="38"/>
     </row>
     <row r="441" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B441" s="39"/>
-      <c r="C441" s="39"/>
-      <c r="E441" s="39"/>
+      <c r="B441" s="38"/>
+      <c r="C441" s="38"/>
+      <c r="E441" s="38"/>
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B442" s="39"/>
-      <c r="C442" s="39"/>
-      <c r="E442" s="39"/>
+      <c r="B442" s="38"/>
+      <c r="C442" s="38"/>
+      <c r="E442" s="38"/>
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B443" s="39"/>
-      <c r="C443" s="39"/>
-      <c r="E443" s="39"/>
+      <c r="B443" s="38"/>
+      <c r="C443" s="38"/>
+      <c r="E443" s="38"/>
     </row>
     <row r="444" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B444" s="39"/>
-      <c r="C444" s="39"/>
-      <c r="E444" s="39"/>
+      <c r="B444" s="38"/>
+      <c r="C444" s="38"/>
+      <c r="E444" s="38"/>
     </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B445" s="39"/>
-      <c r="C445" s="39"/>
-      <c r="E445" s="39"/>
+      <c r="B445" s="38"/>
+      <c r="C445" s="38"/>
+      <c r="E445" s="38"/>
     </row>
     <row r="446" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B446" s="39"/>
-      <c r="C446" s="39"/>
-      <c r="E446" s="39"/>
+      <c r="B446" s="38"/>
+      <c r="C446" s="38"/>
+      <c r="E446" s="38"/>
     </row>
     <row r="447" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B447" s="39"/>
-      <c r="C447" s="39"/>
-      <c r="E447" s="39"/>
+      <c r="B447" s="38"/>
+      <c r="C447" s="38"/>
+      <c r="E447" s="38"/>
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B448" s="39"/>
-      <c r="C448" s="39"/>
-      <c r="E448" s="39"/>
+      <c r="B448" s="38"/>
+      <c r="C448" s="38"/>
+      <c r="E448" s="38"/>
     </row>
     <row r="449" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B449" s="39"/>
-      <c r="C449" s="39"/>
-      <c r="E449" s="39"/>
+      <c r="B449" s="38"/>
+      <c r="C449" s="38"/>
+      <c r="E449" s="38"/>
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B450" s="39"/>
-      <c r="C450" s="39"/>
-      <c r="E450" s="39"/>
+      <c r="B450" s="38"/>
+      <c r="C450" s="38"/>
+      <c r="E450" s="38"/>
     </row>
     <row r="451" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B451" s="39"/>
-      <c r="C451" s="39"/>
-      <c r="E451" s="39"/>
+      <c r="B451" s="38"/>
+      <c r="C451" s="38"/>
+      <c r="E451" s="38"/>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B452" s="39"/>
-      <c r="C452" s="39"/>
-      <c r="E452" s="39"/>
+      <c r="B452" s="38"/>
+      <c r="C452" s="38"/>
+      <c r="E452" s="38"/>
     </row>
     <row r="453" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B453" s="39"/>
-      <c r="C453" s="39"/>
-      <c r="E453" s="39"/>
+      <c r="B453" s="38"/>
+      <c r="C453" s="38"/>
+      <c r="E453" s="38"/>
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B454" s="39"/>
-      <c r="C454" s="39"/>
-      <c r="E454" s="39"/>
+      <c r="B454" s="38"/>
+      <c r="C454" s="38"/>
+      <c r="E454" s="38"/>
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B455" s="39"/>
-      <c r="C455" s="39"/>
-      <c r="E455" s="39"/>
+      <c r="B455" s="38"/>
+      <c r="C455" s="38"/>
+      <c r="E455" s="38"/>
     </row>
     <row r="456" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B456" s="39"/>
-      <c r="C456" s="39"/>
-      <c r="E456" s="39"/>
+      <c r="B456" s="38"/>
+      <c r="C456" s="38"/>
+      <c r="E456" s="38"/>
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B457" s="39"/>
-      <c r="C457" s="39"/>
-      <c r="E457" s="39"/>
+      <c r="B457" s="38"/>
+      <c r="C457" s="38"/>
+      <c r="E457" s="38"/>
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B458" s="39"/>
-      <c r="C458" s="39"/>
-      <c r="E458" s="39"/>
+      <c r="B458" s="38"/>
+      <c r="C458" s="38"/>
+      <c r="E458" s="38"/>
     </row>
     <row r="459" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B459" s="39"/>
-      <c r="C459" s="39"/>
-      <c r="E459" s="39"/>
+      <c r="B459" s="38"/>
+      <c r="C459" s="38"/>
+      <c r="E459" s="38"/>
     </row>
     <row r="460" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B460" s="39"/>
-      <c r="C460" s="39"/>
-      <c r="E460" s="39"/>
+      <c r="B460" s="38"/>
+      <c r="C460" s="38"/>
+      <c r="E460" s="38"/>
     </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B461" s="39"/>
-      <c r="C461" s="39"/>
-      <c r="E461" s="39"/>
+      <c r="B461" s="38"/>
+      <c r="C461" s="38"/>
+      <c r="E461" s="38"/>
     </row>
     <row r="462" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B462" s="39"/>
-      <c r="C462" s="39"/>
-      <c r="E462" s="39"/>
+      <c r="B462" s="38"/>
+      <c r="C462" s="38"/>
+      <c r="E462" s="38"/>
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B463" s="39"/>
-      <c r="C463" s="39"/>
-      <c r="E463" s="39"/>
+      <c r="B463" s="38"/>
+      <c r="C463" s="38"/>
+      <c r="E463" s="38"/>
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B464" s="39"/>
-      <c r="C464" s="39"/>
-      <c r="E464" s="39"/>
+      <c r="B464" s="38"/>
+      <c r="C464" s="38"/>
+      <c r="E464" s="38"/>
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B465" s="39"/>
-      <c r="C465" s="39"/>
-      <c r="E465" s="39"/>
+      <c r="B465" s="38"/>
+      <c r="C465" s="38"/>
+      <c r="E465" s="38"/>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B466" s="39"/>
-      <c r="C466" s="39"/>
-      <c r="E466" s="39"/>
+      <c r="B466" s="38"/>
+      <c r="C466" s="38"/>
+      <c r="E466" s="38"/>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B467" s="39"/>
-      <c r="C467" s="39"/>
-      <c r="E467" s="39"/>
+      <c r="B467" s="38"/>
+      <c r="C467" s="38"/>
+      <c r="E467" s="38"/>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B468" s="39"/>
-      <c r="C468" s="39"/>
-      <c r="E468" s="39"/>
+      <c r="B468" s="38"/>
+      <c r="C468" s="38"/>
+      <c r="E468" s="38"/>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B469" s="39"/>
-      <c r="C469" s="39"/>
-      <c r="E469" s="39"/>
+      <c r="B469" s="38"/>
+      <c r="C469" s="38"/>
+      <c r="E469" s="38"/>
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B470" s="39"/>
-      <c r="C470" s="39"/>
-      <c r="E470" s="39"/>
+      <c r="B470" s="38"/>
+      <c r="C470" s="38"/>
+      <c r="E470" s="38"/>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B471" s="39"/>
-      <c r="C471" s="39"/>
-      <c r="E471" s="39"/>
+      <c r="B471" s="38"/>
+      <c r="C471" s="38"/>
+      <c r="E471" s="38"/>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B472" s="39"/>
-      <c r="C472" s="39"/>
-      <c r="E472" s="39"/>
+      <c r="B472" s="38"/>
+      <c r="C472" s="38"/>
+      <c r="E472" s="38"/>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B473" s="39"/>
-      <c r="C473" s="39"/>
-      <c r="E473" s="39"/>
+      <c r="B473" s="38"/>
+      <c r="C473" s="38"/>
+      <c r="E473" s="38"/>
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B474" s="39"/>
-      <c r="C474" s="39"/>
-      <c r="E474" s="39"/>
+      <c r="B474" s="38"/>
+      <c r="C474" s="38"/>
+      <c r="E474" s="38"/>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B475" s="39"/>
-      <c r="C475" s="39"/>
-      <c r="E475" s="39"/>
+      <c r="B475" s="38"/>
+      <c r="C475" s="38"/>
+      <c r="E475" s="38"/>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B476" s="39"/>
-      <c r="C476" s="39"/>
-      <c r="E476" s="39"/>
+      <c r="B476" s="38"/>
+      <c r="C476" s="38"/>
+      <c r="E476" s="38"/>
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B477" s="39"/>
-      <c r="C477" s="39"/>
-      <c r="E477" s="39"/>
+      <c r="B477" s="38"/>
+      <c r="C477" s="38"/>
+      <c r="E477" s="38"/>
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B478" s="39"/>
-      <c r="C478" s="39"/>
-      <c r="E478" s="39"/>
+      <c r="B478" s="38"/>
+      <c r="C478" s="38"/>
+      <c r="E478" s="38"/>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B479" s="39"/>
-      <c r="C479" s="39"/>
-      <c r="E479" s="39"/>
+      <c r="B479" s="38"/>
+      <c r="C479" s="38"/>
+      <c r="E479" s="38"/>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B480" s="39"/>
-      <c r="C480" s="39"/>
-      <c r="E480" s="39"/>
+      <c r="B480" s="38"/>
+      <c r="C480" s="38"/>
+      <c r="E480" s="38"/>
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B481" s="39"/>
-      <c r="C481" s="39"/>
-      <c r="E481" s="39"/>
+      <c r="B481" s="38"/>
+      <c r="C481" s="38"/>
+      <c r="E481" s="38"/>
     </row>
     <row r="482" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B482" s="39"/>
-      <c r="C482" s="39"/>
-      <c r="E482" s="39"/>
+      <c r="B482" s="38"/>
+      <c r="C482" s="38"/>
+      <c r="E482" s="38"/>
     </row>
     <row r="483" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B483" s="39"/>
-      <c r="C483" s="39"/>
-      <c r="E483" s="39"/>
+      <c r="B483" s="38"/>
+      <c r="C483" s="38"/>
+      <c r="E483" s="38"/>
     </row>
     <row r="484" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B484" s="39"/>
-      <c r="C484" s="39"/>
-      <c r="E484" s="39"/>
+      <c r="B484" s="38"/>
+      <c r="C484" s="38"/>
+      <c r="E484" s="38"/>
     </row>
     <row r="485" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B485" s="39"/>
-      <c r="C485" s="39"/>
-      <c r="E485" s="39"/>
+      <c r="B485" s="38"/>
+      <c r="C485" s="38"/>
+      <c r="E485" s="38"/>
     </row>
     <row r="486" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B486" s="39"/>
-      <c r="C486" s="39"/>
-      <c r="E486" s="39"/>
+      <c r="B486" s="38"/>
+      <c r="C486" s="38"/>
+      <c r="E486" s="38"/>
     </row>
     <row r="487" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B487" s="39"/>
-      <c r="C487" s="39"/>
-      <c r="E487" s="39"/>
+      <c r="B487" s="38"/>
+      <c r="C487" s="38"/>
+      <c r="E487" s="38"/>
     </row>
     <row r="488" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B488" s="39"/>
-      <c r="C488" s="39"/>
-      <c r="E488" s="39"/>
+      <c r="B488" s="38"/>
+      <c r="C488" s="38"/>
+      <c r="E488" s="38"/>
     </row>
     <row r="489" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B489" s="39"/>
-      <c r="C489" s="39"/>
-      <c r="E489" s="39"/>
+      <c r="B489" s="38"/>
+      <c r="C489" s="38"/>
+      <c r="E489" s="38"/>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B490" s="39"/>
-      <c r="C490" s="39"/>
-      <c r="E490" s="39"/>
+      <c r="B490" s="38"/>
+      <c r="C490" s="38"/>
+      <c r="E490" s="38"/>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B491" s="39"/>
-      <c r="C491" s="39"/>
-      <c r="E491" s="39"/>
+      <c r="B491" s="38"/>
+      <c r="C491" s="38"/>
+      <c r="E491" s="38"/>
     </row>
     <row r="492" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B492" s="39"/>
-      <c r="C492" s="39"/>
-      <c r="E492" s="39"/>
+      <c r="B492" s="38"/>
+      <c r="C492" s="38"/>
+      <c r="E492" s="38"/>
     </row>
     <row r="493" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B493" s="39"/>
-      <c r="C493" s="39"/>
-      <c r="E493" s="39"/>
+      <c r="B493" s="38"/>
+      <c r="C493" s="38"/>
+      <c r="E493" s="38"/>
     </row>
     <row r="494" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B494" s="39"/>
-      <c r="C494" s="39"/>
-      <c r="E494" s="39"/>
+      <c r="B494" s="38"/>
+      <c r="C494" s="38"/>
+      <c r="E494" s="38"/>
     </row>
     <row r="495" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B495" s="39"/>
-      <c r="C495" s="39"/>
-      <c r="E495" s="39"/>
+      <c r="B495" s="38"/>
+      <c r="C495" s="38"/>
+      <c r="E495" s="38"/>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B496" s="39"/>
-      <c r="C496" s="39"/>
-      <c r="E496" s="39"/>
+      <c r="B496" s="38"/>
+      <c r="C496" s="38"/>
+      <c r="E496" s="38"/>
     </row>
     <row r="497" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B497" s="39"/>
-      <c r="C497" s="39"/>
-      <c r="E497" s="39"/>
+      <c r="B497" s="38"/>
+      <c r="C497" s="38"/>
+      <c r="E497" s="38"/>
     </row>
     <row r="498" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B498" s="39"/>
-      <c r="C498" s="39"/>
-      <c r="E498" s="39"/>
+      <c r="B498" s="38"/>
+      <c r="C498" s="38"/>
+      <c r="E498" s="38"/>
     </row>
     <row r="499" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B499" s="39"/>
-      <c r="C499" s="39"/>
-      <c r="E499" s="39"/>
+      <c r="B499" s="38"/>
+      <c r="C499" s="38"/>
+      <c r="E499" s="38"/>
     </row>
     <row r="500" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B500" s="39"/>
-      <c r="C500" s="39"/>
-      <c r="E500" s="39"/>
+      <c r="B500" s="38"/>
+      <c r="C500" s="38"/>
+      <c r="E500" s="38"/>
     </row>
     <row r="501" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B501" s="39"/>
-      <c r="C501" s="39"/>
-      <c r="E501" s="39"/>
+      <c r="B501" s="38"/>
+      <c r="C501" s="38"/>
+      <c r="E501" s="38"/>
     </row>
     <row r="502" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B502" s="39"/>
-      <c r="C502" s="39"/>
-      <c r="E502" s="39"/>
+      <c r="B502" s="38"/>
+      <c r="C502" s="38"/>
+      <c r="E502" s="38"/>
     </row>
     <row r="503" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B503" s="39"/>
-      <c r="C503" s="39"/>
-      <c r="E503" s="39"/>
+      <c r="B503" s="38"/>
+      <c r="C503" s="38"/>
+      <c r="E503" s="38"/>
     </row>
     <row r="504" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B504" s="39"/>
-      <c r="C504" s="39"/>
-      <c r="E504" s="39"/>
+      <c r="B504" s="38"/>
+      <c r="C504" s="38"/>
+      <c r="E504" s="38"/>
     </row>
     <row r="505" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B505" s="39"/>
-      <c r="C505" s="39"/>
-      <c r="E505" s="39"/>
+      <c r="B505" s="38"/>
+      <c r="C505" s="38"/>
+      <c r="E505" s="38"/>
     </row>
     <row r="506" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B506" s="39"/>
-      <c r="C506" s="39"/>
-      <c r="E506" s="39"/>
+      <c r="B506" s="38"/>
+      <c r="C506" s="38"/>
+      <c r="E506" s="38"/>
     </row>
     <row r="507" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B507" s="39"/>
-      <c r="C507" s="39"/>
-      <c r="E507" s="39"/>
+      <c r="B507" s="38"/>
+      <c r="C507" s="38"/>
+      <c r="E507" s="38"/>
     </row>
     <row r="508" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B508" s="39"/>
-      <c r="C508" s="39"/>
-      <c r="E508" s="39"/>
+      <c r="B508" s="38"/>
+      <c r="C508" s="38"/>
+      <c r="E508" s="38"/>
     </row>
     <row r="509" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B509" s="39"/>
-      <c r="C509" s="39"/>
-      <c r="E509" s="39"/>
+      <c r="B509" s="38"/>
+      <c r="C509" s="38"/>
+      <c r="E509" s="38"/>
     </row>
     <row r="510" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B510" s="39"/>
-      <c r="C510" s="39"/>
-      <c r="E510" s="39"/>
+      <c r="B510" s="38"/>
+      <c r="C510" s="38"/>
+      <c r="E510" s="38"/>
     </row>
     <row r="511" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B511" s="39"/>
-      <c r="C511" s="39"/>
-      <c r="E511" s="39"/>
+      <c r="B511" s="38"/>
+      <c r="C511" s="38"/>
+      <c r="E511" s="38"/>
     </row>
     <row r="512" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B512" s="39"/>
-      <c r="C512" s="39"/>
-      <c r="E512" s="39"/>
+      <c r="B512" s="38"/>
+      <c r="C512" s="38"/>
+      <c r="E512" s="38"/>
     </row>
     <row r="513" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B513" s="39"/>
-      <c r="C513" s="39"/>
-      <c r="E513" s="39"/>
+      <c r="B513" s="38"/>
+      <c r="C513" s="38"/>
+      <c r="E513" s="38"/>
     </row>
     <row r="514" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B514" s="39"/>
-      <c r="C514" s="39"/>
-      <c r="E514" s="39"/>
+      <c r="B514" s="38"/>
+      <c r="C514" s="38"/>
+      <c r="E514" s="38"/>
     </row>
     <row r="515" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B515" s="39"/>
-      <c r="C515" s="39"/>
-      <c r="E515" s="39"/>
+      <c r="B515" s="38"/>
+      <c r="C515" s="38"/>
+      <c r="E515" s="38"/>
     </row>
     <row r="516" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B516" s="39"/>
-      <c r="C516" s="39"/>
-      <c r="E516" s="39"/>
+      <c r="B516" s="38"/>
+      <c r="C516" s="38"/>
+      <c r="E516" s="38"/>
     </row>
     <row r="517" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B517" s="39"/>
-      <c r="C517" s="39"/>
-      <c r="E517" s="39"/>
+      <c r="B517" s="38"/>
+      <c r="C517" s="38"/>
+      <c r="E517" s="38"/>
     </row>
     <row r="518" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B518" s="39"/>
-      <c r="C518" s="39"/>
-      <c r="E518" s="39"/>
+      <c r="B518" s="38"/>
+      <c r="C518" s="38"/>
+      <c r="E518" s="38"/>
     </row>
     <row r="519" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B519" s="39"/>
-      <c r="C519" s="39"/>
-      <c r="E519" s="39"/>
+      <c r="B519" s="38"/>
+      <c r="C519" s="38"/>
+      <c r="E519" s="38"/>
     </row>
     <row r="520" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B520" s="39"/>
-      <c r="C520" s="39"/>
-      <c r="E520" s="39"/>
+      <c r="B520" s="38"/>
+      <c r="C520" s="38"/>
+      <c r="E520" s="38"/>
     </row>
     <row r="521" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B521" s="39"/>
-      <c r="C521" s="39"/>
-      <c r="E521" s="39"/>
+      <c r="B521" s="38"/>
+      <c r="C521" s="38"/>
+      <c r="E521" s="38"/>
     </row>
     <row r="522" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B522" s="39"/>
-      <c r="C522" s="39"/>
-      <c r="E522" s="39"/>
+      <c r="B522" s="38"/>
+      <c r="C522" s="38"/>
+      <c r="E522" s="38"/>
     </row>
     <row r="523" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B523" s="39"/>
-      <c r="C523" s="39"/>
-      <c r="E523" s="39"/>
+      <c r="B523" s="38"/>
+      <c r="C523" s="38"/>
+      <c r="E523" s="38"/>
     </row>
     <row r="524" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B524" s="39"/>
-      <c r="C524" s="39"/>
-      <c r="E524" s="39"/>
+      <c r="B524" s="38"/>
+      <c r="C524" s="38"/>
+      <c r="E524" s="38"/>
     </row>
     <row r="525" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B525" s="39"/>
-      <c r="C525" s="39"/>
-      <c r="E525" s="39"/>
+      <c r="B525" s="38"/>
+      <c r="C525" s="38"/>
+      <c r="E525" s="38"/>
     </row>
     <row r="526" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B526" s="39"/>
-      <c r="C526" s="39"/>
-      <c r="E526" s="39"/>
+      <c r="B526" s="38"/>
+      <c r="C526" s="38"/>
+      <c r="E526" s="38"/>
     </row>
     <row r="527" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B527" s="39"/>
-      <c r="C527" s="39"/>
-      <c r="E527" s="39"/>
+      <c r="B527" s="38"/>
+      <c r="C527" s="38"/>
+      <c r="E527" s="38"/>
     </row>
     <row r="528" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B528" s="39"/>
-      <c r="C528" s="39"/>
-      <c r="E528" s="39"/>
+      <c r="B528" s="38"/>
+      <c r="C528" s="38"/>
+      <c r="E528" s="38"/>
     </row>
     <row r="529" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B529" s="39"/>
-      <c r="C529" s="39"/>
-      <c r="E529" s="39"/>
+      <c r="B529" s="38"/>
+      <c r="C529" s="38"/>
+      <c r="E529" s="38"/>
     </row>
     <row r="530" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B530" s="39"/>
-      <c r="C530" s="39"/>
-      <c r="E530" s="39"/>
+      <c r="B530" s="38"/>
+      <c r="C530" s="38"/>
+      <c r="E530" s="38"/>
     </row>
     <row r="531" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B531" s="39"/>
-      <c r="C531" s="39"/>
-      <c r="E531" s="39"/>
+      <c r="B531" s="38"/>
+      <c r="C531" s="38"/>
+      <c r="E531" s="38"/>
     </row>
     <row r="532" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B532" s="39"/>
-      <c r="C532" s="39"/>
-      <c r="E532" s="39"/>
+      <c r="B532" s="38"/>
+      <c r="C532" s="38"/>
+      <c r="E532" s="38"/>
     </row>
     <row r="533" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B533" s="39"/>
-      <c r="C533" s="39"/>
-      <c r="E533" s="39"/>
+      <c r="B533" s="38"/>
+      <c r="C533" s="38"/>
+      <c r="E533" s="38"/>
     </row>
     <row r="534" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B534" s="39"/>
-      <c r="C534" s="39"/>
-      <c r="E534" s="39"/>
+      <c r="B534" s="38"/>
+      <c r="C534" s="38"/>
+      <c r="E534" s="38"/>
     </row>
     <row r="535" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B535" s="39"/>
-      <c r="C535" s="39"/>
-      <c r="E535" s="39"/>
+      <c r="B535" s="38"/>
+      <c r="C535" s="38"/>
+      <c r="E535" s="38"/>
     </row>
     <row r="536" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B536" s="39"/>
-      <c r="C536" s="39"/>
-      <c r="E536" s="39"/>
+      <c r="B536" s="38"/>
+      <c r="C536" s="38"/>
+      <c r="E536" s="38"/>
     </row>
     <row r="537" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B537" s="39"/>
-      <c r="C537" s="39"/>
-      <c r="E537" s="39"/>
+      <c r="B537" s="38"/>
+      <c r="C537" s="38"/>
+      <c r="E537" s="38"/>
     </row>
     <row r="538" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B538" s="39"/>
-      <c r="C538" s="39"/>
-      <c r="E538" s="39"/>
+      <c r="B538" s="38"/>
+      <c r="C538" s="38"/>
+      <c r="E538" s="38"/>
     </row>
     <row r="539" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B539" s="39"/>
-      <c r="C539" s="39"/>
-      <c r="E539" s="39"/>
+      <c r="B539" s="38"/>
+      <c r="C539" s="38"/>
+      <c r="E539" s="38"/>
     </row>
     <row r="540" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B540" s="39"/>
-      <c r="C540" s="39"/>
-      <c r="E540" s="39"/>
+      <c r="B540" s="38"/>
+      <c r="C540" s="38"/>
+      <c r="E540" s="38"/>
     </row>
     <row r="541" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B541" s="39"/>
-      <c r="C541" s="39"/>
-      <c r="E541" s="39"/>
+      <c r="B541" s="38"/>
+      <c r="C541" s="38"/>
+      <c r="E541" s="38"/>
     </row>
     <row r="542" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B542" s="39"/>
-      <c r="C542" s="39"/>
-      <c r="E542" s="39"/>
+      <c r="B542" s="38"/>
+      <c r="C542" s="38"/>
+      <c r="E542" s="38"/>
     </row>
     <row r="543" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B543" s="39"/>
-      <c r="C543" s="39"/>
-      <c r="E543" s="39"/>
+      <c r="B543" s="38"/>
+      <c r="C543" s="38"/>
+      <c r="E543" s="38"/>
     </row>
     <row r="544" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B544" s="39"/>
-      <c r="C544" s="39"/>
-      <c r="E544" s="39"/>
+      <c r="B544" s="38"/>
+      <c r="C544" s="38"/>
+      <c r="E544" s="38"/>
     </row>
     <row r="545" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B545" s="39"/>
-      <c r="C545" s="39"/>
-      <c r="E545" s="39"/>
+      <c r="B545" s="38"/>
+      <c r="C545" s="38"/>
+      <c r="E545" s="38"/>
     </row>
     <row r="546" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B546" s="39"/>
-      <c r="C546" s="39"/>
-      <c r="E546" s="39"/>
+      <c r="B546" s="38"/>
+      <c r="C546" s="38"/>
+      <c r="E546" s="38"/>
     </row>
     <row r="547" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B547" s="39"/>
-      <c r="C547" s="39"/>
-      <c r="E547" s="39"/>
+      <c r="B547" s="38"/>
+      <c r="C547" s="38"/>
+      <c r="E547" s="38"/>
     </row>
     <row r="548" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B548" s="39"/>
-      <c r="C548" s="39"/>
-      <c r="E548" s="39"/>
+      <c r="B548" s="38"/>
+      <c r="C548" s="38"/>
+      <c r="E548" s="38"/>
     </row>
     <row r="549" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B549" s="39"/>
-      <c r="C549" s="39"/>
-      <c r="E549" s="39"/>
+      <c r="B549" s="38"/>
+      <c r="C549" s="38"/>
+      <c r="E549" s="38"/>
     </row>
     <row r="550" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B550" s="39"/>
-      <c r="C550" s="39"/>
-      <c r="E550" s="39"/>
+      <c r="B550" s="38"/>
+      <c r="C550" s="38"/>
+      <c r="E550" s="38"/>
     </row>
     <row r="551" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B551" s="39"/>
-      <c r="C551" s="39"/>
-      <c r="E551" s="39"/>
+      <c r="B551" s="38"/>
+      <c r="C551" s="38"/>
+      <c r="E551" s="38"/>
     </row>
     <row r="552" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B552" s="39"/>
-      <c r="C552" s="39"/>
-      <c r="E552" s="39"/>
+      <c r="B552" s="38"/>
+      <c r="C552" s="38"/>
+      <c r="E552" s="38"/>
     </row>
     <row r="553" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B553" s="39"/>
-      <c r="C553" s="39"/>
-      <c r="E553" s="39"/>
+      <c r="B553" s="38"/>
+      <c r="C553" s="38"/>
+      <c r="E553" s="38"/>
     </row>
     <row r="554" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B554" s="39"/>
-      <c r="C554" s="39"/>
-      <c r="E554" s="39"/>
+      <c r="B554" s="38"/>
+      <c r="C554" s="38"/>
+      <c r="E554" s="38"/>
     </row>
     <row r="555" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B555" s="39"/>
-      <c r="C555" s="39"/>
-      <c r="E555" s="39"/>
+      <c r="B555" s="38"/>
+      <c r="C555" s="38"/>
+      <c r="E555" s="38"/>
     </row>
     <row r="556" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B556" s="39"/>
-      <c r="C556" s="39"/>
-      <c r="E556" s="39"/>
+      <c r="B556" s="38"/>
+      <c r="C556" s="38"/>
+      <c r="E556" s="38"/>
     </row>
     <row r="557" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B557" s="39"/>
-      <c r="C557" s="39"/>
-      <c r="E557" s="39"/>
+      <c r="B557" s="38"/>
+      <c r="C557" s="38"/>
+      <c r="E557" s="38"/>
     </row>
     <row r="558" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B558" s="39"/>
-      <c r="C558" s="39"/>
-      <c r="E558" s="39"/>
+      <c r="B558" s="38"/>
+      <c r="C558" s="38"/>
+      <c r="E558" s="38"/>
     </row>
     <row r="559" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B559" s="39"/>
-      <c r="C559" s="39"/>
-      <c r="E559" s="39"/>
+      <c r="B559" s="38"/>
+      <c r="C559" s="38"/>
+      <c r="E559" s="38"/>
     </row>
     <row r="560" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B560" s="39"/>
-      <c r="C560" s="39"/>
-      <c r="E560" s="39"/>
+      <c r="B560" s="38"/>
+      <c r="C560" s="38"/>
+      <c r="E560" s="38"/>
     </row>
     <row r="561" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B561" s="39"/>
-      <c r="C561" s="39"/>
-      <c r="E561" s="39"/>
+      <c r="B561" s="38"/>
+      <c r="C561" s="38"/>
+      <c r="E561" s="38"/>
     </row>
     <row r="562" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B562" s="39"/>
-      <c r="C562" s="39"/>
-      <c r="E562" s="39"/>
+      <c r="B562" s="38"/>
+      <c r="C562" s="38"/>
+      <c r="E562" s="38"/>
     </row>
     <row r="563" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B563" s="39"/>
-      <c r="C563" s="39"/>
-      <c r="E563" s="39"/>
+      <c r="B563" s="38"/>
+      <c r="C563" s="38"/>
+      <c r="E563" s="38"/>
     </row>
     <row r="564" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B564" s="39"/>
-      <c r="C564" s="39"/>
-      <c r="E564" s="39"/>
+      <c r="B564" s="38"/>
+      <c r="C564" s="38"/>
+      <c r="E564" s="38"/>
     </row>
     <row r="565" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B565" s="39"/>
-      <c r="C565" s="39"/>
-      <c r="E565" s="39"/>
+      <c r="B565" s="38"/>
+      <c r="C565" s="38"/>
+      <c r="E565" s="38"/>
     </row>
     <row r="566" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B566" s="39"/>
-      <c r="C566" s="39"/>
-      <c r="E566" s="39"/>
+      <c r="B566" s="38"/>
+      <c r="C566" s="38"/>
+      <c r="E566" s="38"/>
     </row>
     <row r="567" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B567" s="39"/>
-      <c r="C567" s="39"/>
-      <c r="E567" s="39"/>
+      <c r="B567" s="38"/>
+      <c r="C567" s="38"/>
+      <c r="E567" s="38"/>
     </row>
     <row r="568" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B568" s="39"/>
-      <c r="C568" s="39"/>
-      <c r="E568" s="39"/>
+      <c r="B568" s="38"/>
+      <c r="C568" s="38"/>
+      <c r="E568" s="38"/>
     </row>
     <row r="569" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B569" s="39"/>
-      <c r="C569" s="39"/>
-      <c r="E569" s="39"/>
+      <c r="B569" s="38"/>
+      <c r="C569" s="38"/>
+      <c r="E569" s="38"/>
     </row>
     <row r="570" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B570" s="39"/>
-      <c r="C570" s="39"/>
-      <c r="E570" s="39"/>
+      <c r="B570" s="38"/>
+      <c r="C570" s="38"/>
+      <c r="E570" s="38"/>
     </row>
     <row r="571" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B571" s="39"/>
-      <c r="C571" s="39"/>
-      <c r="E571" s="39"/>
+      <c r="B571" s="38"/>
+      <c r="C571" s="38"/>
+      <c r="E571" s="38"/>
     </row>
     <row r="572" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B572" s="39"/>
-      <c r="C572" s="39"/>
-      <c r="E572" s="39"/>
+      <c r="B572" s="38"/>
+      <c r="C572" s="38"/>
+      <c r="E572" s="38"/>
     </row>
     <row r="573" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B573" s="39"/>
-      <c r="C573" s="39"/>
-      <c r="E573" s="39"/>
+      <c r="B573" s="38"/>
+      <c r="C573" s="38"/>
+      <c r="E573" s="38"/>
     </row>
     <row r="574" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B574" s="39"/>
-      <c r="C574" s="39"/>
-      <c r="E574" s="39"/>
+      <c r="B574" s="38"/>
+      <c r="C574" s="38"/>
+      <c r="E574" s="38"/>
     </row>
     <row r="575" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B575" s="39"/>
-      <c r="C575" s="39"/>
-      <c r="E575" s="39"/>
+      <c r="B575" s="38"/>
+      <c r="C575" s="38"/>
+      <c r="E575" s="38"/>
     </row>
     <row r="576" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B576" s="39"/>
-      <c r="C576" s="39"/>
-      <c r="E576" s="39"/>
+      <c r="B576" s="38"/>
+      <c r="C576" s="38"/>
+      <c r="E576" s="38"/>
     </row>
     <row r="577" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B577" s="39"/>
-      <c r="C577" s="39"/>
-      <c r="E577" s="39"/>
+      <c r="B577" s="38"/>
+      <c r="C577" s="38"/>
+      <c r="E577" s="38"/>
     </row>
     <row r="578" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B578" s="39"/>
-      <c r="C578" s="39"/>
-      <c r="E578" s="39"/>
+      <c r="B578" s="38"/>
+      <c r="C578" s="38"/>
+      <c r="E578" s="38"/>
     </row>
     <row r="579" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B579" s="39"/>
-      <c r="C579" s="39"/>
-      <c r="E579" s="39"/>
+      <c r="B579" s="38"/>
+      <c r="C579" s="38"/>
+      <c r="E579" s="38"/>
     </row>
     <row r="580" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B580" s="39"/>
-      <c r="C580" s="39"/>
-      <c r="E580" s="39"/>
+      <c r="B580" s="38"/>
+      <c r="C580" s="38"/>
+      <c r="E580" s="38"/>
     </row>
     <row r="581" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B581" s="39"/>
-      <c r="C581" s="39"/>
-      <c r="E581" s="39"/>
+      <c r="B581" s="38"/>
+      <c r="C581" s="38"/>
+      <c r="E581" s="38"/>
     </row>
     <row r="582" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B582" s="39"/>
-      <c r="C582" s="39"/>
-      <c r="E582" s="39"/>
+      <c r="B582" s="38"/>
+      <c r="C582" s="38"/>
+      <c r="E582" s="38"/>
     </row>
     <row r="583" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B583" s="39"/>
-      <c r="C583" s="39"/>
-      <c r="E583" s="39"/>
+      <c r="B583" s="38"/>
+      <c r="C583" s="38"/>
+      <c r="E583" s="38"/>
     </row>
     <row r="584" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B584" s="39"/>
-      <c r="C584" s="39"/>
-      <c r="E584" s="39"/>
+      <c r="B584" s="38"/>
+      <c r="C584" s="38"/>
+      <c r="E584" s="38"/>
     </row>
     <row r="585" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B585" s="39"/>
-      <c r="C585" s="39"/>
-      <c r="E585" s="39"/>
+      <c r="B585" s="38"/>
+      <c r="C585" s="38"/>
+      <c r="E585" s="38"/>
     </row>
     <row r="586" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B586" s="39"/>
-      <c r="C586" s="39"/>
-      <c r="E586" s="39"/>
+      <c r="B586" s="38"/>
+      <c r="C586" s="38"/>
+      <c r="E586" s="38"/>
     </row>
     <row r="587" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B587" s="39"/>
-      <c r="C587" s="39"/>
-      <c r="E587" s="39"/>
+      <c r="B587" s="38"/>
+      <c r="C587" s="38"/>
+      <c r="E587" s="38"/>
     </row>
     <row r="588" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B588" s="39"/>
-      <c r="C588" s="39"/>
-      <c r="E588" s="39"/>
+      <c r="B588" s="38"/>
+      <c r="C588" s="38"/>
+      <c r="E588" s="38"/>
     </row>
     <row r="589" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B589" s="39"/>
-      <c r="C589" s="39"/>
-      <c r="E589" s="39"/>
+      <c r="B589" s="38"/>
+      <c r="C589" s="38"/>
+      <c r="E589" s="38"/>
     </row>
     <row r="590" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B590" s="39"/>
-      <c r="C590" s="39"/>
-      <c r="E590" s="39"/>
+      <c r="B590" s="38"/>
+      <c r="C590" s="38"/>
+      <c r="E590" s="38"/>
     </row>
     <row r="591" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B591" s="39"/>
-      <c r="C591" s="39"/>
-      <c r="E591" s="39"/>
+      <c r="B591" s="38"/>
+      <c r="C591" s="38"/>
+      <c r="E591" s="38"/>
     </row>
     <row r="592" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B592" s="39"/>
-      <c r="C592" s="39"/>
-      <c r="E592" s="39"/>
+      <c r="B592" s="38"/>
+      <c r="C592" s="38"/>
+      <c r="E592" s="38"/>
     </row>
     <row r="593" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B593" s="39"/>
-      <c r="C593" s="39"/>
-      <c r="E593" s="39"/>
+      <c r="B593" s="38"/>
+      <c r="C593" s="38"/>
+      <c r="E593" s="38"/>
     </row>
     <row r="594" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B594" s="39"/>
-      <c r="C594" s="39"/>
-      <c r="E594" s="39"/>
+      <c r="B594" s="38"/>
+      <c r="C594" s="38"/>
+      <c r="E594" s="38"/>
     </row>
     <row r="595" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B595" s="39"/>
-      <c r="C595" s="39"/>
-      <c r="E595" s="39"/>
+      <c r="B595" s="38"/>
+      <c r="C595" s="38"/>
+      <c r="E595" s="38"/>
     </row>
     <row r="596" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B596" s="39"/>
-      <c r="C596" s="39"/>
-      <c r="E596" s="39"/>
+      <c r="B596" s="38"/>
+      <c r="C596" s="38"/>
+      <c r="E596" s="38"/>
     </row>
     <row r="597" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B597" s="39"/>
-      <c r="C597" s="39"/>
-      <c r="E597" s="39"/>
+      <c r="B597" s="38"/>
+      <c r="C597" s="38"/>
+      <c r="E597" s="38"/>
     </row>
     <row r="598" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B598" s="39"/>
-      <c r="C598" s="39"/>
-      <c r="E598" s="39"/>
+      <c r="B598" s="38"/>
+      <c r="C598" s="38"/>
+      <c r="E598" s="38"/>
     </row>
     <row r="599" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B599" s="39"/>
-      <c r="C599" s="39"/>
-      <c r="E599" s="39"/>
+      <c r="B599" s="38"/>
+      <c r="C599" s="38"/>
+      <c r="E599" s="38"/>
     </row>
     <row r="600" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B600" s="39"/>
-      <c r="C600" s="39"/>
-      <c r="E600" s="39"/>
+      <c r="B600" s="38"/>
+      <c r="C600" s="38"/>
+      <c r="E600" s="38"/>
     </row>
     <row r="601" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B601" s="39"/>
-      <c r="C601" s="39"/>
-      <c r="E601" s="39"/>
+      <c r="B601" s="38"/>
+      <c r="C601" s="38"/>
+      <c r="E601" s="38"/>
     </row>
     <row r="602" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B602" s="39"/>
-      <c r="C602" s="39"/>
-      <c r="E602" s="39"/>
+      <c r="B602" s="38"/>
+      <c r="C602" s="38"/>
+      <c r="E602" s="38"/>
     </row>
     <row r="603" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B603" s="39"/>
-      <c r="C603" s="39"/>
-      <c r="E603" s="39"/>
+      <c r="B603" s="38"/>
+      <c r="C603" s="38"/>
+      <c r="E603" s="38"/>
     </row>
     <row r="604" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B604" s="39"/>
-      <c r="C604" s="39"/>
-      <c r="E604" s="39"/>
+      <c r="B604" s="38"/>
+      <c r="C604" s="38"/>
+      <c r="E604" s="38"/>
     </row>
     <row r="605" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B605" s="39"/>
-      <c r="C605" s="39"/>
-      <c r="E605" s="39"/>
+      <c r="B605" s="38"/>
+      <c r="C605" s="38"/>
+      <c r="E605" s="38"/>
     </row>
     <row r="606" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B606" s="39"/>
-      <c r="C606" s="39"/>
-      <c r="E606" s="39"/>
+      <c r="B606" s="38"/>
+      <c r="C606" s="38"/>
+      <c r="E606" s="38"/>
     </row>
     <row r="607" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B607" s="39"/>
-      <c r="C607" s="39"/>
-      <c r="E607" s="39"/>
+      <c r="B607" s="38"/>
+      <c r="C607" s="38"/>
+      <c r="E607" s="38"/>
     </row>
     <row r="608" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B608" s="39"/>
-      <c r="C608" s="39"/>
-      <c r="E608" s="39"/>
+      <c r="B608" s="38"/>
+      <c r="C608" s="38"/>
+      <c r="E608" s="38"/>
     </row>
     <row r="609" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B609" s="39"/>
-      <c r="C609" s="39"/>
-      <c r="E609" s="39"/>
+      <c r="B609" s="38"/>
+      <c r="C609" s="38"/>
+      <c r="E609" s="38"/>
     </row>
     <row r="610" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B610" s="39"/>
-      <c r="C610" s="39"/>
-      <c r="E610" s="39"/>
+      <c r="B610" s="38"/>
+      <c r="C610" s="38"/>
+      <c r="E610" s="38"/>
     </row>
     <row r="611" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B611" s="39"/>
-      <c r="C611" s="39"/>
-      <c r="E611" s="39"/>
+      <c r="B611" s="38"/>
+      <c r="C611" s="38"/>
+      <c r="E611" s="38"/>
     </row>
     <row r="612" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B612" s="39"/>
-      <c r="C612" s="39"/>
-      <c r="E612" s="39"/>
+      <c r="B612" s="38"/>
+      <c r="C612" s="38"/>
+      <c r="E612" s="38"/>
     </row>
     <row r="613" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B613" s="39"/>
-      <c r="C613" s="39"/>
-      <c r="E613" s="39"/>
+      <c r="B613" s="38"/>
+      <c r="C613" s="38"/>
+      <c r="E613" s="38"/>
     </row>
     <row r="614" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B614" s="39"/>
-      <c r="C614" s="39"/>
-      <c r="E614" s="39"/>
+      <c r="B614" s="38"/>
+      <c r="C614" s="38"/>
+      <c r="E614" s="38"/>
     </row>
     <row r="615" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B615" s="39"/>
-      <c r="C615" s="39"/>
-      <c r="E615" s="39"/>
+      <c r="B615" s="38"/>
+      <c r="C615" s="38"/>
+      <c r="E615" s="38"/>
     </row>
     <row r="616" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B616" s="39"/>
-      <c r="C616" s="39"/>
-      <c r="E616" s="39"/>
+      <c r="B616" s="38"/>
+      <c r="C616" s="38"/>
+      <c r="E616" s="38"/>
     </row>
     <row r="617" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B617" s="39"/>
-      <c r="C617" s="39"/>
-      <c r="E617" s="39"/>
+      <c r="B617" s="38"/>
+      <c r="C617" s="38"/>
+      <c r="E617" s="38"/>
     </row>
     <row r="618" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B618" s="39"/>
-      <c r="C618" s="39"/>
-      <c r="E618" s="39"/>
+      <c r="B618" s="38"/>
+      <c r="C618" s="38"/>
+      <c r="E618" s="38"/>
     </row>
     <row r="619" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B619" s="39"/>
-      <c r="C619" s="39"/>
-      <c r="E619" s="39"/>
+      <c r="B619" s="38"/>
+      <c r="C619" s="38"/>
+      <c r="E619" s="38"/>
     </row>
     <row r="620" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B620" s="39"/>
-      <c r="C620" s="39"/>
-      <c r="E620" s="39"/>
+      <c r="B620" s="38"/>
+      <c r="C620" s="38"/>
+      <c r="E620" s="38"/>
     </row>
     <row r="621" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B621" s="39"/>
-      <c r="C621" s="39"/>
-      <c r="E621" s="39"/>
+      <c r="B621" s="38"/>
+      <c r="C621" s="38"/>
+      <c r="E621" s="38"/>
     </row>
     <row r="622" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B622" s="39"/>
-      <c r="C622" s="39"/>
-      <c r="E622" s="39"/>
+      <c r="B622" s="38"/>
+      <c r="C622" s="38"/>
+      <c r="E622" s="38"/>
     </row>
     <row r="623" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B623" s="39"/>
-      <c r="C623" s="39"/>
-      <c r="E623" s="39"/>
+      <c r="B623" s="38"/>
+      <c r="C623" s="38"/>
+      <c r="E623" s="38"/>
     </row>
     <row r="624" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B624" s="39"/>
-      <c r="C624" s="39"/>
-      <c r="E624" s="39"/>
+      <c r="B624" s="38"/>
+      <c r="C624" s="38"/>
+      <c r="E624" s="38"/>
     </row>
     <row r="625" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B625" s="39"/>
-      <c r="C625" s="39"/>
-      <c r="E625" s="39"/>
+      <c r="B625" s="38"/>
+      <c r="C625" s="38"/>
+      <c r="E625" s="38"/>
     </row>
     <row r="626" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B626" s="39"/>
-      <c r="C626" s="39"/>
-      <c r="E626" s="39"/>
+      <c r="B626" s="38"/>
+      <c r="C626" s="38"/>
+      <c r="E626" s="38"/>
     </row>
     <row r="627" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B627" s="39"/>
-      <c r="C627" s="39"/>
-      <c r="E627" s="39"/>
+      <c r="B627" s="38"/>
+      <c r="C627" s="38"/>
+      <c r="E627" s="38"/>
     </row>
     <row r="628" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B628" s="39"/>
-      <c r="C628" s="39"/>
-      <c r="E628" s="39"/>
+      <c r="B628" s="38"/>
+      <c r="C628" s="38"/>
+      <c r="E628" s="38"/>
     </row>
     <row r="629" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B629" s="39"/>
-      <c r="C629" s="39"/>
-      <c r="E629" s="39"/>
+      <c r="B629" s="38"/>
+      <c r="C629" s="38"/>
+      <c r="E629" s="38"/>
     </row>
     <row r="630" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B630" s="39"/>
-      <c r="C630" s="39"/>
-      <c r="E630" s="39"/>
+      <c r="B630" s="38"/>
+      <c r="C630" s="38"/>
+      <c r="E630" s="38"/>
     </row>
     <row r="631" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B631" s="39"/>
-      <c r="C631" s="39"/>
-      <c r="E631" s="39"/>
+      <c r="B631" s="38"/>
+      <c r="C631" s="38"/>
+      <c r="E631" s="38"/>
     </row>
     <row r="632" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B632" s="39"/>
-      <c r="C632" s="39"/>
-      <c r="E632" s="39"/>
+      <c r="B632" s="38"/>
+      <c r="C632" s="38"/>
+      <c r="E632" s="38"/>
     </row>
     <row r="633" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B633" s="39"/>
-      <c r="C633" s="39"/>
-      <c r="E633" s="39"/>
+      <c r="B633" s="38"/>
+      <c r="C633" s="38"/>
+      <c r="E633" s="38"/>
     </row>
     <row r="634" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B634" s="39"/>
-      <c r="C634" s="39"/>
-      <c r="E634" s="39"/>
+      <c r="B634" s="38"/>
+      <c r="C634" s="38"/>
+      <c r="E634" s="38"/>
     </row>
     <row r="635" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B635" s="39"/>
-      <c r="C635" s="39"/>
-      <c r="E635" s="39"/>
+      <c r="B635" s="38"/>
+      <c r="C635" s="38"/>
+      <c r="E635" s="38"/>
     </row>
     <row r="636" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B636" s="39"/>
-      <c r="C636" s="39"/>
-      <c r="E636" s="39"/>
+      <c r="B636" s="38"/>
+      <c r="C636" s="38"/>
+      <c r="E636" s="38"/>
     </row>
     <row r="637" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B637" s="39"/>
-      <c r="C637" s="39"/>
-      <c r="E637" s="39"/>
+      <c r="B637" s="38"/>
+      <c r="C637" s="38"/>
+      <c r="E637" s="38"/>
     </row>
     <row r="638" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B638" s="39"/>
-      <c r="C638" s="39"/>
-      <c r="E638" s="39"/>
+      <c r="B638" s="38"/>
+      <c r="C638" s="38"/>
+      <c r="E638" s="38"/>
     </row>
     <row r="639" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B639" s="39"/>
-      <c r="C639" s="39"/>
-      <c r="E639" s="39"/>
+      <c r="B639" s="38"/>
+      <c r="C639" s="38"/>
+      <c r="E639" s="38"/>
     </row>
     <row r="640" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B640" s="39"/>
-      <c r="C640" s="39"/>
-      <c r="E640" s="39"/>
+      <c r="B640" s="38"/>
+      <c r="C640" s="38"/>
+      <c r="E640" s="38"/>
     </row>
     <row r="641" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B641" s="39"/>
-      <c r="C641" s="39"/>
-      <c r="E641" s="39"/>
+      <c r="B641" s="38"/>
+      <c r="C641" s="38"/>
+      <c r="E641" s="38"/>
     </row>
     <row r="642" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B642" s="39"/>
-      <c r="C642" s="39"/>
-      <c r="E642" s="39"/>
+      <c r="B642" s="38"/>
+      <c r="C642" s="38"/>
+      <c r="E642" s="38"/>
     </row>
     <row r="643" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B643" s="39"/>
-      <c r="C643" s="39"/>
-      <c r="E643" s="39"/>
+      <c r="B643" s="38"/>
+      <c r="C643" s="38"/>
+      <c r="E643" s="38"/>
     </row>
     <row r="644" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B644" s="39"/>
-      <c r="C644" s="39"/>
-      <c r="E644" s="39"/>
+      <c r="B644" s="38"/>
+      <c r="C644" s="38"/>
+      <c r="E644" s="38"/>
     </row>
     <row r="645" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B645" s="39"/>
-      <c r="C645" s="39"/>
-      <c r="E645" s="39"/>
+      <c r="B645" s="38"/>
+      <c r="C645" s="38"/>
+      <c r="E645" s="38"/>
     </row>
     <row r="646" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B646" s="39"/>
-      <c r="C646" s="39"/>
-      <c r="E646" s="39"/>
+      <c r="B646" s="38"/>
+      <c r="C646" s="38"/>
+      <c r="E646" s="38"/>
     </row>
     <row r="647" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B647" s="39"/>
-      <c r="C647" s="39"/>
-      <c r="E647" s="39"/>
+      <c r="B647" s="38"/>
+      <c r="C647" s="38"/>
+      <c r="E647" s="38"/>
     </row>
     <row r="648" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B648" s="39"/>
-      <c r="C648" s="39"/>
-      <c r="E648" s="39"/>
+      <c r="B648" s="38"/>
+      <c r="C648" s="38"/>
+      <c r="E648" s="38"/>
     </row>
     <row r="649" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B649" s="39"/>
-      <c r="C649" s="39"/>
-      <c r="E649" s="39"/>
+      <c r="B649" s="38"/>
+      <c r="C649" s="38"/>
+      <c r="E649" s="38"/>
     </row>
     <row r="650" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B650" s="39"/>
-      <c r="C650" s="39"/>
-      <c r="E650" s="39"/>
+      <c r="B650" s="38"/>
+      <c r="C650" s="38"/>
+      <c r="E650" s="38"/>
     </row>
     <row r="651" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B651" s="39"/>
-      <c r="C651" s="39"/>
-      <c r="E651" s="39"/>
+      <c r="B651" s="38"/>
+      <c r="C651" s="38"/>
+      <c r="E651" s="38"/>
     </row>
     <row r="652" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B652" s="39"/>
-      <c r="C652" s="39"/>
-      <c r="E652" s="39"/>
+      <c r="B652" s="38"/>
+      <c r="C652" s="38"/>
+      <c r="E652" s="38"/>
     </row>
     <row r="653" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B653" s="39"/>
-      <c r="C653" s="39"/>
-      <c r="E653" s="39"/>
+      <c r="B653" s="38"/>
+      <c r="C653" s="38"/>
+      <c r="E653" s="38"/>
     </row>
     <row r="654" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B654" s="39"/>
-      <c r="C654" s="39"/>
-      <c r="E654" s="39"/>
+      <c r="B654" s="38"/>
+      <c r="C654" s="38"/>
+      <c r="E654" s="38"/>
     </row>
     <row r="655" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B655" s="39"/>
-      <c r="C655" s="39"/>
-      <c r="E655" s="39"/>
+      <c r="B655" s="38"/>
+      <c r="C655" s="38"/>
+      <c r="E655" s="38"/>
     </row>
     <row r="656" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B656" s="39"/>
-      <c r="C656" s="39"/>
-      <c r="E656" s="39"/>
+      <c r="B656" s="38"/>
+      <c r="C656" s="38"/>
+      <c r="E656" s="38"/>
     </row>
     <row r="657" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B657" s="39"/>
-      <c r="C657" s="39"/>
-      <c r="E657" s="39"/>
+      <c r="B657" s="38"/>
+      <c r="C657" s="38"/>
+      <c r="E657" s="38"/>
     </row>
     <row r="658" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B658" s="39"/>
-      <c r="C658" s="39"/>
-      <c r="E658" s="39"/>
+      <c r="B658" s="38"/>
+      <c r="C658" s="38"/>
+      <c r="E658" s="38"/>
     </row>
     <row r="659" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B659" s="39"/>
-      <c r="C659" s="39"/>
-      <c r="E659" s="39"/>
+      <c r="B659" s="38"/>
+      <c r="C659" s="38"/>
+      <c r="E659" s="38"/>
     </row>
     <row r="660" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B660" s="39"/>
-      <c r="C660" s="39"/>
-      <c r="E660" s="39"/>
+      <c r="B660" s="38"/>
+      <c r="C660" s="38"/>
+      <c r="E660" s="38"/>
     </row>
     <row r="661" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B661" s="39"/>
-      <c r="C661" s="39"/>
-      <c r="E661" s="39"/>
+      <c r="B661" s="38"/>
+      <c r="C661" s="38"/>
+      <c r="E661" s="38"/>
     </row>
     <row r="662" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B662" s="39"/>
-      <c r="C662" s="39"/>
-      <c r="E662" s="39"/>
+      <c r="B662" s="38"/>
+      <c r="C662" s="38"/>
+      <c r="E662" s="38"/>
     </row>
     <row r="663" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B663" s="39"/>
-      <c r="C663" s="39"/>
-      <c r="E663" s="39"/>
+      <c r="B663" s="38"/>
+      <c r="C663" s="38"/>
+      <c r="E663" s="38"/>
     </row>
     <row r="664" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B664" s="39"/>
-      <c r="C664" s="39"/>
-      <c r="E664" s="39"/>
+      <c r="B664" s="38"/>
+      <c r="C664" s="38"/>
+      <c r="E664" s="38"/>
     </row>
     <row r="665" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B665" s="39"/>
-      <c r="C665" s="39"/>
-      <c r="E665" s="39"/>
+      <c r="B665" s="38"/>
+      <c r="C665" s="38"/>
+      <c r="E665" s="38"/>
     </row>
     <row r="666" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B666" s="39"/>
-      <c r="C666" s="39"/>
-      <c r="E666" s="39"/>
+      <c r="B666" s="38"/>
+      <c r="C666" s="38"/>
+      <c r="E666" s="38"/>
     </row>
     <row r="667" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B667" s="39"/>
-      <c r="C667" s="39"/>
-      <c r="E667" s="39"/>
+      <c r="B667" s="38"/>
+      <c r="C667" s="38"/>
+      <c r="E667" s="38"/>
     </row>
     <row r="668" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B668" s="39"/>
-      <c r="C668" s="39"/>
-      <c r="E668" s="39"/>
+      <c r="B668" s="38"/>
+      <c r="C668" s="38"/>
+      <c r="E668" s="38"/>
     </row>
     <row r="669" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B669" s="39"/>
-      <c r="C669" s="39"/>
-      <c r="E669" s="39"/>
+      <c r="B669" s="38"/>
+      <c r="C669" s="38"/>
+      <c r="E669" s="38"/>
     </row>
     <row r="670" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B670" s="39"/>
-      <c r="C670" s="39"/>
-      <c r="E670" s="39"/>
+      <c r="B670" s="38"/>
+      <c r="C670" s="38"/>
+      <c r="E670" s="38"/>
     </row>
     <row r="671" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B671" s="39"/>
-      <c r="C671" s="39"/>
-      <c r="E671" s="39"/>
+      <c r="B671" s="38"/>
+      <c r="C671" s="38"/>
+      <c r="E671" s="38"/>
     </row>
     <row r="672" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B672" s="39"/>
-      <c r="C672" s="39"/>
-      <c r="E672" s="39"/>
+      <c r="B672" s="38"/>
+      <c r="C672" s="38"/>
+      <c r="E672" s="38"/>
     </row>
     <row r="673" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B673" s="39"/>
-      <c r="C673" s="39"/>
-      <c r="E673" s="39"/>
+      <c r="B673" s="38"/>
+      <c r="C673" s="38"/>
+      <c r="E673" s="38"/>
     </row>
     <row r="674" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B674" s="39"/>
-      <c r="C674" s="39"/>
-      <c r="E674" s="39"/>
+      <c r="B674" s="38"/>
+      <c r="C674" s="38"/>
+      <c r="E674" s="38"/>
     </row>
     <row r="675" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B675" s="39"/>
-      <c r="C675" s="39"/>
-      <c r="E675" s="39"/>
+      <c r="B675" s="38"/>
+      <c r="C675" s="38"/>
+      <c r="E675" s="38"/>
     </row>
     <row r="676" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B676" s="39"/>
-      <c r="C676" s="39"/>
-      <c r="E676" s="39"/>
+      <c r="B676" s="38"/>
+      <c r="C676" s="38"/>
+      <c r="E676" s="38"/>
     </row>
     <row r="677" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B677" s="39"/>
-      <c r="C677" s="39"/>
-      <c r="E677" s="39"/>
+      <c r="B677" s="38"/>
+      <c r="C677" s="38"/>
+      <c r="E677" s="38"/>
     </row>
     <row r="678" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B678" s="39"/>
-      <c r="C678" s="39"/>
-      <c r="E678" s="39"/>
+      <c r="B678" s="38"/>
+      <c r="C678" s="38"/>
+      <c r="E678" s="38"/>
     </row>
     <row r="679" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B679" s="39"/>
-      <c r="C679" s="39"/>
-      <c r="E679" s="39"/>
+      <c r="B679" s="38"/>
+      <c r="C679" s="38"/>
+      <c r="E679" s="38"/>
     </row>
     <row r="680" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B680" s="39"/>
-      <c r="C680" s="39"/>
-      <c r="E680" s="39"/>
+      <c r="B680" s="38"/>
+      <c r="C680" s="38"/>
+      <c r="E680" s="38"/>
     </row>
     <row r="681" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B681" s="39"/>
-      <c r="C681" s="39"/>
-      <c r="E681" s="39"/>
+      <c r="B681" s="38"/>
+      <c r="C681" s="38"/>
+      <c r="E681" s="38"/>
     </row>
     <row r="682" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B682" s="39"/>
-      <c r="C682" s="39"/>
-      <c r="E682" s="39"/>
+      <c r="B682" s="38"/>
+      <c r="C682" s="38"/>
+      <c r="E682" s="38"/>
     </row>
     <row r="683" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B683" s="39"/>
-      <c r="C683" s="39"/>
-      <c r="E683" s="39"/>
+      <c r="B683" s="38"/>
+      <c r="C683" s="38"/>
+      <c r="E683" s="38"/>
     </row>
     <row r="684" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B684" s="39"/>
-      <c r="C684" s="39"/>
-      <c r="E684" s="39"/>
+      <c r="B684" s="38"/>
+      <c r="C684" s="38"/>
+      <c r="E684" s="38"/>
     </row>
     <row r="685" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B685" s="39"/>
-      <c r="C685" s="39"/>
-      <c r="E685" s="39"/>
+      <c r="B685" s="38"/>
+      <c r="C685" s="38"/>
+      <c r="E685" s="38"/>
     </row>
     <row r="686" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B686" s="39"/>
-      <c r="C686" s="39"/>
-      <c r="E686" s="39"/>
+      <c r="B686" s="38"/>
+      <c r="C686" s="38"/>
+      <c r="E686" s="38"/>
     </row>
     <row r="687" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B687" s="39"/>
-      <c r="C687" s="39"/>
-      <c r="E687" s="39"/>
+      <c r="B687" s="38"/>
+      <c r="C687" s="38"/>
+      <c r="E687" s="38"/>
     </row>
     <row r="688" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B688" s="39"/>
-      <c r="C688" s="39"/>
-      <c r="E688" s="39"/>
+      <c r="B688" s="38"/>
+      <c r="C688" s="38"/>
+      <c r="E688" s="38"/>
     </row>
     <row r="689" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B689" s="39"/>
-      <c r="C689" s="39"/>
-      <c r="E689" s="39"/>
+      <c r="B689" s="38"/>
+      <c r="C689" s="38"/>
+      <c r="E689" s="38"/>
     </row>
     <row r="690" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B690" s="39"/>
-      <c r="C690" s="39"/>
-      <c r="E690" s="39"/>
+      <c r="B690" s="38"/>
+      <c r="C690" s="38"/>
+      <c r="E690" s="38"/>
     </row>
     <row r="691" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B691" s="39"/>
-      <c r="C691" s="39"/>
-      <c r="E691" s="39"/>
+      <c r="B691" s="38"/>
+      <c r="C691" s="38"/>
+      <c r="E691" s="38"/>
     </row>
     <row r="692" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B692" s="39"/>
-      <c r="C692" s="39"/>
-      <c r="E692" s="39"/>
+      <c r="B692" s="38"/>
+      <c r="C692" s="38"/>
+      <c r="E692" s="38"/>
     </row>
     <row r="693" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B693" s="39"/>
-      <c r="C693" s="39"/>
-      <c r="E693" s="39"/>
+      <c r="B693" s="38"/>
+      <c r="C693" s="38"/>
+      <c r="E693" s="38"/>
     </row>
     <row r="694" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B694" s="39"/>
-      <c r="C694" s="39"/>
-      <c r="E694" s="39"/>
+      <c r="B694" s="38"/>
+      <c r="C694" s="38"/>
+      <c r="E694" s="38"/>
     </row>
     <row r="695" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B695" s="39"/>
-      <c r="C695" s="39"/>
-      <c r="E695" s="39"/>
+      <c r="B695" s="38"/>
+      <c r="C695" s="38"/>
+      <c r="E695" s="38"/>
     </row>
     <row r="696" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B696" s="39"/>
-      <c r="C696" s="39"/>
-      <c r="E696" s="39"/>
+      <c r="B696" s="38"/>
+      <c r="C696" s="38"/>
+      <c r="E696" s="38"/>
     </row>
     <row r="697" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B697" s="39"/>
-      <c r="C697" s="39"/>
-      <c r="E697" s="39"/>
+      <c r="B697" s="38"/>
+      <c r="C697" s="38"/>
+      <c r="E697" s="38"/>
     </row>
     <row r="698" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B698" s="39"/>
-      <c r="C698" s="39"/>
-      <c r="E698" s="39"/>
+      <c r="B698" s="38"/>
+      <c r="C698" s="38"/>
+      <c r="E698" s="38"/>
     </row>
     <row r="699" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B699" s="39"/>
-      <c r="C699" s="39"/>
-      <c r="E699" s="39"/>
+      <c r="B699" s="38"/>
+      <c r="C699" s="38"/>
+      <c r="E699" s="38"/>
     </row>
     <row r="700" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B700" s="39"/>
-      <c r="C700" s="39"/>
-      <c r="E700" s="39"/>
+      <c r="B700" s="38"/>
+      <c r="C700" s="38"/>
+      <c r="E700" s="38"/>
     </row>
     <row r="701" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B701" s="39"/>
-      <c r="C701" s="39"/>
-      <c r="E701" s="39"/>
+      <c r="B701" s="38"/>
+      <c r="C701" s="38"/>
+      <c r="E701" s="38"/>
     </row>
     <row r="702" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B702" s="39"/>
-      <c r="C702" s="39"/>
-      <c r="E702" s="39"/>
+      <c r="B702" s="38"/>
+      <c r="C702" s="38"/>
+      <c r="E702" s="38"/>
     </row>
     <row r="703" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B703" s="39"/>
-      <c r="C703" s="39"/>
-      <c r="E703" s="39"/>
+      <c r="B703" s="38"/>
+      <c r="C703" s="38"/>
+      <c r="E703" s="38"/>
     </row>
     <row r="704" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B704" s="39"/>
-      <c r="C704" s="39"/>
-      <c r="E704" s="39"/>
+      <c r="B704" s="38"/>
+      <c r="C704" s="38"/>
+      <c r="E704" s="38"/>
     </row>
     <row r="705" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B705" s="39"/>
-      <c r="C705" s="39"/>
-      <c r="E705" s="39"/>
+      <c r="B705" s="38"/>
+      <c r="C705" s="38"/>
+      <c r="E705" s="38"/>
     </row>
     <row r="706" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B706" s="39"/>
-      <c r="C706" s="39"/>
-      <c r="E706" s="39"/>
+      <c r="B706" s="38"/>
+      <c r="C706" s="38"/>
+      <c r="E706" s="38"/>
     </row>
     <row r="707" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B707" s="39"/>
-      <c r="C707" s="39"/>
-      <c r="E707" s="39"/>
+      <c r="B707" s="38"/>
+      <c r="C707" s="38"/>
+      <c r="E707" s="38"/>
     </row>
     <row r="708" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B708" s="39"/>
-      <c r="C708" s="39"/>
-      <c r="E708" s="39"/>
+      <c r="B708" s="38"/>
+      <c r="C708" s="38"/>
+      <c r="E708" s="38"/>
     </row>
     <row r="709" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B709" s="39"/>
-      <c r="C709" s="39"/>
-      <c r="E709" s="39"/>
+      <c r="B709" s="38"/>
+      <c r="C709" s="38"/>
+      <c r="E709" s="38"/>
     </row>
     <row r="710" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B710" s="39"/>
-      <c r="C710" s="39"/>
-      <c r="E710" s="39"/>
+      <c r="B710" s="38"/>
+      <c r="C710" s="38"/>
+      <c r="E710" s="38"/>
     </row>
     <row r="711" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B711" s="39"/>
-      <c r="C711" s="39"/>
-      <c r="E711" s="39"/>
+      <c r="B711" s="38"/>
+      <c r="C711" s="38"/>
+      <c r="E711" s="38"/>
     </row>
     <row r="712" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B712" s="39"/>
-      <c r="C712" s="39"/>
-      <c r="E712" s="39"/>
+      <c r="B712" s="38"/>
+      <c r="C712" s="38"/>
+      <c r="E712" s="38"/>
     </row>
     <row r="713" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B713" s="39"/>
-      <c r="C713" s="39"/>
-      <c r="E713" s="39"/>
+      <c r="B713" s="38"/>
+      <c r="C713" s="38"/>
+      <c r="E713" s="38"/>
     </row>
     <row r="714" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B714" s="39"/>
-      <c r="C714" s="39"/>
-      <c r="E714" s="39"/>
+      <c r="B714" s="38"/>
+      <c r="C714" s="38"/>
+      <c r="E714" s="38"/>
     </row>
     <row r="715" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B715" s="39"/>
-      <c r="C715" s="39"/>
-      <c r="E715" s="39"/>
+      <c r="B715" s="38"/>
+      <c r="C715" s="38"/>
+      <c r="E715" s="38"/>
     </row>
     <row r="716" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B716" s="39"/>
-      <c r="C716" s="39"/>
-      <c r="E716" s="39"/>
+      <c r="B716" s="38"/>
+      <c r="C716" s="38"/>
+      <c r="E716" s="38"/>
     </row>
     <row r="717" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B717" s="39"/>
-      <c r="C717" s="39"/>
-      <c r="E717" s="39"/>
+      <c r="B717" s="38"/>
+      <c r="C717" s="38"/>
+      <c r="E717" s="38"/>
     </row>
     <row r="718" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B718" s="39"/>
-      <c r="C718" s="39"/>
-      <c r="E718" s="39"/>
+      <c r="B718" s="38"/>
+      <c r="C718" s="38"/>
+      <c r="E718" s="38"/>
     </row>
     <row r="719" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B719" s="39"/>
-      <c r="C719" s="39"/>
-      <c r="E719" s="39"/>
+      <c r="B719" s="38"/>
+      <c r="C719" s="38"/>
+      <c r="E719" s="38"/>
     </row>
     <row r="720" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B720" s="39"/>
-      <c r="C720" s="39"/>
-      <c r="E720" s="39"/>
+      <c r="B720" s="38"/>
+      <c r="C720" s="38"/>
+      <c r="E720" s="38"/>
     </row>
     <row r="721" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B721" s="39"/>
-      <c r="C721" s="39"/>
-      <c r="E721" s="39"/>
+      <c r="B721" s="38"/>
+      <c r="C721" s="38"/>
+      <c r="E721" s="38"/>
     </row>
     <row r="722" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B722" s="39"/>
-      <c r="C722" s="39"/>
-      <c r="E722" s="39"/>
+      <c r="B722" s="38"/>
+      <c r="C722" s="38"/>
+      <c r="E722" s="38"/>
     </row>
     <row r="723" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B723" s="39"/>
-      <c r="C723" s="39"/>
-      <c r="E723" s="39"/>
+      <c r="B723" s="38"/>
+      <c r="C723" s="38"/>
+      <c r="E723" s="38"/>
     </row>
     <row r="724" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B724" s="39"/>
-      <c r="C724" s="39"/>
-      <c r="E724" s="39"/>
+      <c r="B724" s="38"/>
+      <c r="C724" s="38"/>
+      <c r="E724" s="38"/>
     </row>
     <row r="725" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B725" s="39"/>
-      <c r="C725" s="39"/>
-      <c r="E725" s="39"/>
+      <c r="B725" s="38"/>
+      <c r="C725" s="38"/>
+      <c r="E725" s="38"/>
     </row>
     <row r="726" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B726" s="39"/>
-      <c r="C726" s="39"/>
-      <c r="E726" s="39"/>
+      <c r="B726" s="38"/>
+      <c r="C726" s="38"/>
+      <c r="E726" s="38"/>
     </row>
     <row r="727" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B727" s="39"/>
-      <c r="C727" s="39"/>
-      <c r="E727" s="39"/>
+      <c r="B727" s="38"/>
+      <c r="C727" s="38"/>
+      <c r="E727" s="38"/>
     </row>
     <row r="728" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B728" s="39"/>
-      <c r="C728" s="39"/>
-      <c r="E728" s="39"/>
+      <c r="B728" s="38"/>
+      <c r="C728" s="38"/>
+      <c r="E728" s="38"/>
     </row>
     <row r="729" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B729" s="39"/>
-      <c r="C729" s="39"/>
-      <c r="E729" s="39"/>
+      <c r="B729" s="38"/>
+      <c r="C729" s="38"/>
+      <c r="E729" s="38"/>
     </row>
     <row r="730" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B730" s="39"/>
-      <c r="C730" s="39"/>
-      <c r="E730" s="39"/>
+      <c r="B730" s="38"/>
+      <c r="C730" s="38"/>
+      <c r="E730" s="38"/>
     </row>
     <row r="731" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B731" s="39"/>
-      <c r="C731" s="39"/>
-      <c r="E731" s="39"/>
+      <c r="B731" s="38"/>
+      <c r="C731" s="38"/>
+      <c r="E731" s="38"/>
     </row>
     <row r="732" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B732" s="39"/>
-      <c r="C732" s="39"/>
-      <c r="E732" s="39"/>
+      <c r="B732" s="38"/>
+      <c r="C732" s="38"/>
+      <c r="E732" s="38"/>
     </row>
     <row r="733" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B733" s="39"/>
-      <c r="C733" s="39"/>
-      <c r="E733" s="39"/>
+      <c r="B733" s="38"/>
+      <c r="C733" s="38"/>
+      <c r="E733" s="38"/>
     </row>
     <row r="734" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B734" s="39"/>
-      <c r="C734" s="39"/>
-      <c r="E734" s="39"/>
+      <c r="B734" s="38"/>
+      <c r="C734" s="38"/>
+      <c r="E734" s="38"/>
     </row>
     <row r="735" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B735" s="39"/>
-      <c r="C735" s="39"/>
-      <c r="E735" s="39"/>
+      <c r="B735" s="38"/>
+      <c r="C735" s="38"/>
+      <c r="E735" s="38"/>
     </row>
     <row r="736" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B736" s="39"/>
-      <c r="C736" s="39"/>
-      <c r="E736" s="39"/>
+      <c r="B736" s="38"/>
+      <c r="C736" s="38"/>
+      <c r="E736" s="38"/>
     </row>
     <row r="737" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B737" s="39"/>
-      <c r="C737" s="39"/>
-      <c r="E737" s="39"/>
+      <c r="B737" s="38"/>
+      <c r="C737" s="38"/>
+      <c r="E737" s="38"/>
     </row>
     <row r="738" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B738" s="39"/>
-      <c r="C738" s="39"/>
-      <c r="E738" s="39"/>
+      <c r="B738" s="38"/>
+      <c r="C738" s="38"/>
+      <c r="E738" s="38"/>
     </row>
     <row r="739" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B739" s="39"/>
-      <c r="C739" s="39"/>
-      <c r="E739" s="39"/>
+      <c r="B739" s="38"/>
+      <c r="C739" s="38"/>
+      <c r="E739" s="38"/>
     </row>
     <row r="740" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B740" s="39"/>
-      <c r="C740" s="39"/>
-      <c r="E740" s="39"/>
+      <c r="B740" s="38"/>
+      <c r="C740" s="38"/>
+      <c r="E740" s="38"/>
     </row>
     <row r="741" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B741" s="39"/>
-      <c r="C741" s="39"/>
-      <c r="E741" s="39"/>
+      <c r="B741" s="38"/>
+      <c r="C741" s="38"/>
+      <c r="E741" s="38"/>
     </row>
     <row r="742" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B742" s="39"/>
-      <c r="C742" s="39"/>
-      <c r="E742" s="39"/>
+      <c r="B742" s="38"/>
+      <c r="C742" s="38"/>
+      <c r="E742" s="38"/>
     </row>
     <row r="743" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B743" s="39"/>
-      <c r="C743" s="39"/>
-      <c r="E743" s="39"/>
+      <c r="B743" s="38"/>
+      <c r="C743" s="38"/>
+      <c r="E743" s="38"/>
     </row>
     <row r="744" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B744" s="39"/>
-      <c r="C744" s="39"/>
-      <c r="E744" s="39"/>
+      <c r="B744" s="38"/>
+      <c r="C744" s="38"/>
+      <c r="E744" s="38"/>
     </row>
     <row r="745" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B745" s="39"/>
-      <c r="C745" s="39"/>
-      <c r="E745" s="39"/>
+      <c r="B745" s="38"/>
+      <c r="C745" s="38"/>
+      <c r="E745" s="38"/>
     </row>
     <row r="746" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B746" s="39"/>
-      <c r="C746" s="39"/>
-      <c r="E746" s="39"/>
+      <c r="B746" s="38"/>
+      <c r="C746" s="38"/>
+      <c r="E746" s="38"/>
     </row>
     <row r="747" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B747" s="39"/>
-      <c r="C747" s="39"/>
-      <c r="E747" s="39"/>
+      <c r="B747" s="38"/>
+      <c r="C747" s="38"/>
+      <c r="E747" s="38"/>
     </row>
     <row r="748" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B748" s="39"/>
-      <c r="C748" s="39"/>
-      <c r="E748" s="39"/>
+      <c r="B748" s="38"/>
+      <c r="C748" s="38"/>
+      <c r="E748" s="38"/>
     </row>
     <row r="749" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B749" s="39"/>
-      <c r="C749" s="39"/>
-      <c r="E749" s="39"/>
+      <c r="B749" s="38"/>
+      <c r="C749" s="38"/>
+      <c r="E749" s="38"/>
     </row>
     <row r="750" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B750" s="39"/>
-      <c r="C750" s="39"/>
-      <c r="E750" s="39"/>
+      <c r="B750" s="38"/>
+      <c r="C750" s="38"/>
+      <c r="E750" s="38"/>
     </row>
     <row r="751" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B751" s="39"/>
-      <c r="C751" s="39"/>
-      <c r="E751" s="39"/>
+      <c r="B751" s="38"/>
+      <c r="C751" s="38"/>
+      <c r="E751" s="38"/>
     </row>
     <row r="752" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B752" s="39"/>
-      <c r="C752" s="39"/>
-      <c r="E752" s="39"/>
+      <c r="B752" s="38"/>
+      <c r="C752" s="38"/>
+      <c r="E752" s="38"/>
     </row>
     <row r="753" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B753" s="39"/>
-      <c r="C753" s="39"/>
-      <c r="E753" s="39"/>
+      <c r="B753" s="38"/>
+      <c r="C753" s="38"/>
+      <c r="E753" s="38"/>
     </row>
     <row r="754" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B754" s="39"/>
-      <c r="C754" s="39"/>
-      <c r="E754" s="39"/>
+      <c r="B754" s="38"/>
+      <c r="C754" s="38"/>
+      <c r="E754" s="38"/>
     </row>
     <row r="755" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B755" s="39"/>
-      <c r="C755" s="39"/>
-      <c r="E755" s="39"/>
+      <c r="B755" s="38"/>
+      <c r="C755" s="38"/>
+      <c r="E755" s="38"/>
     </row>
     <row r="756" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B756" s="39"/>
-      <c r="C756" s="39"/>
-      <c r="E756" s="39"/>
+      <c r="B756" s="38"/>
+      <c r="C756" s="38"/>
+      <c r="E756" s="38"/>
     </row>
     <row r="757" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B757" s="39"/>
-      <c r="C757" s="39"/>
-      <c r="E757" s="39"/>
+      <c r="B757" s="38"/>
+      <c r="C757" s="38"/>
+      <c r="E757" s="38"/>
     </row>
     <row r="758" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B758" s="39"/>
-      <c r="C758" s="39"/>
-      <c r="E758" s="39"/>
+      <c r="B758" s="38"/>
+      <c r="C758" s="38"/>
+      <c r="E758" s="38"/>
     </row>
     <row r="759" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B759" s="39"/>
-      <c r="C759" s="39"/>
-      <c r="E759" s="39"/>
+      <c r="B759" s="38"/>
+      <c r="C759" s="38"/>
+      <c r="E759" s="38"/>
     </row>
     <row r="760" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B760" s="39"/>
-      <c r="C760" s="39"/>
-      <c r="E760" s="39"/>
+      <c r="B760" s="38"/>
+      <c r="C760" s="38"/>
+      <c r="E760" s="38"/>
     </row>
     <row r="761" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B761" s="39"/>
-      <c r="C761" s="39"/>
-      <c r="E761" s="39"/>
+      <c r="B761" s="38"/>
+      <c r="C761" s="38"/>
+      <c r="E761" s="38"/>
     </row>
     <row r="762" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B762" s="39"/>
-      <c r="C762" s="39"/>
-      <c r="E762" s="39"/>
+      <c r="B762" s="38"/>
+      <c r="C762" s="38"/>
+      <c r="E762" s="38"/>
     </row>
     <row r="763" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B763" s="39"/>
-      <c r="C763" s="39"/>
-      <c r="E763" s="39"/>
+      <c r="B763" s="38"/>
+      <c r="C763" s="38"/>
+      <c r="E763" s="38"/>
     </row>
     <row r="764" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B764" s="39"/>
-      <c r="C764" s="39"/>
-      <c r="E764" s="39"/>
+      <c r="B764" s="38"/>
+      <c r="C764" s="38"/>
+      <c r="E764" s="38"/>
     </row>
     <row r="765" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B765" s="39"/>
-      <c r="C765" s="39"/>
-      <c r="E765" s="39"/>
+      <c r="B765" s="38"/>
+      <c r="C765" s="38"/>
+      <c r="E765" s="38"/>
     </row>
     <row r="766" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B766" s="39"/>
-      <c r="C766" s="39"/>
-      <c r="E766" s="39"/>
+      <c r="B766" s="38"/>
+      <c r="C766" s="38"/>
+      <c r="E766" s="38"/>
     </row>
     <row r="767" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B767" s="39"/>
-      <c r="C767" s="39"/>
-      <c r="E767" s="39"/>
+      <c r="B767" s="38"/>
+      <c r="C767" s="38"/>
+      <c r="E767" s="38"/>
     </row>
     <row r="768" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B768" s="39"/>
-      <c r="C768" s="39"/>
-      <c r="E768" s="39"/>
+      <c r="B768" s="38"/>
+      <c r="C768" s="38"/>
+      <c r="E768" s="38"/>
     </row>
     <row r="769" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B769" s="39"/>
-      <c r="C769" s="39"/>
-      <c r="E769" s="39"/>
+      <c r="B769" s="38"/>
+      <c r="C769" s="38"/>
+      <c r="E769" s="38"/>
     </row>
     <row r="770" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B770" s="39"/>
-      <c r="C770" s="39"/>
-      <c r="E770" s="39"/>
+      <c r="B770" s="38"/>
+      <c r="C770" s="38"/>
+      <c r="E770" s="38"/>
     </row>
     <row r="771" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B771" s="39"/>
-      <c r="C771" s="39"/>
-      <c r="E771" s="39"/>
+      <c r="B771" s="38"/>
+      <c r="C771" s="38"/>
+      <c r="E771" s="38"/>
     </row>
     <row r="772" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B772" s="39"/>
-      <c r="C772" s="39"/>
-      <c r="E772" s="39"/>
+      <c r="B772" s="38"/>
+      <c r="C772" s="38"/>
+      <c r="E772" s="38"/>
     </row>
     <row r="773" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B773" s="39"/>
-      <c r="C773" s="39"/>
-      <c r="E773" s="39"/>
+      <c r="B773" s="38"/>
+      <c r="C773" s="38"/>
+      <c r="E773" s="38"/>
     </row>
     <row r="774" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B774" s="39"/>
-      <c r="C774" s="39"/>
-      <c r="E774" s="39"/>
+      <c r="B774" s="38"/>
+      <c r="C774" s="38"/>
+      <c r="E774" s="38"/>
     </row>
     <row r="775" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B775" s="39"/>
-      <c r="C775" s="39"/>
-      <c r="E775" s="39"/>
+      <c r="B775" s="38"/>
+      <c r="C775" s="38"/>
+      <c r="E775" s="38"/>
     </row>
     <row r="776" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B776" s="39"/>
-      <c r="C776" s="39"/>
-      <c r="E776" s="39"/>
+      <c r="B776" s="38"/>
+      <c r="C776" s="38"/>
+      <c r="E776" s="38"/>
     </row>
     <row r="777" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B777" s="39"/>
-      <c r="C777" s="39"/>
-      <c r="E777" s="39"/>
+      <c r="B777" s="38"/>
+      <c r="C777" s="38"/>
+      <c r="E777" s="38"/>
     </row>
     <row r="778" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B778" s="39"/>
-      <c r="C778" s="39"/>
-      <c r="E778" s="39"/>
+      <c r="B778" s="38"/>
+      <c r="C778" s="38"/>
+      <c r="E778" s="38"/>
     </row>
     <row r="779" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B779" s="39"/>
-      <c r="C779" s="39"/>
-      <c r="E779" s="39"/>
+      <c r="B779" s="38"/>
+      <c r="C779" s="38"/>
+      <c r="E779" s="38"/>
     </row>
     <row r="780" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B780" s="39"/>
-      <c r="C780" s="39"/>
-      <c r="E780" s="39"/>
+      <c r="B780" s="38"/>
+      <c r="C780" s="38"/>
+      <c r="E780" s="38"/>
     </row>
     <row r="781" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B781" s="39"/>
-      <c r="C781" s="39"/>
-      <c r="E781" s="39"/>
+      <c r="B781" s="38"/>
+      <c r="C781" s="38"/>
+      <c r="E781" s="38"/>
     </row>
     <row r="782" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B782" s="39"/>
-      <c r="C782" s="39"/>
-      <c r="E782" s="39"/>
+      <c r="B782" s="38"/>
+      <c r="C782" s="38"/>
+      <c r="E782" s="38"/>
     </row>
     <row r="783" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B783" s="39"/>
-      <c r="C783" s="39"/>
-      <c r="E783" s="39"/>
+      <c r="B783" s="38"/>
+      <c r="C783" s="38"/>
+      <c r="E783" s="38"/>
     </row>
     <row r="784" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B784" s="39"/>
-      <c r="C784" s="39"/>
-      <c r="E784" s="39"/>
+      <c r="B784" s="38"/>
+      <c r="C784" s="38"/>
+      <c r="E784" s="38"/>
     </row>
     <row r="785" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B785" s="39"/>
-      <c r="C785" s="39"/>
-      <c r="E785" s="39"/>
+      <c r="B785" s="38"/>
+      <c r="C785" s="38"/>
+      <c r="E785" s="38"/>
     </row>
     <row r="786" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B786" s="39"/>
-      <c r="C786" s="39"/>
-      <c r="E786" s="39"/>
+      <c r="B786" s="38"/>
+      <c r="C786" s="38"/>
+      <c r="E786" s="38"/>
     </row>
     <row r="787" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B787" s="39"/>
-      <c r="C787" s="39"/>
-      <c r="E787" s="39"/>
+      <c r="B787" s="38"/>
+      <c r="C787" s="38"/>
+      <c r="E787" s="38"/>
     </row>
     <row r="788" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B788" s="39"/>
-      <c r="C788" s="39"/>
-      <c r="E788" s="39"/>
+      <c r="B788" s="38"/>
+      <c r="C788" s="38"/>
+      <c r="E788" s="38"/>
     </row>
     <row r="789" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B789" s="39"/>
-      <c r="C789" s="39"/>
-      <c r="E789" s="39"/>
+      <c r="B789" s="38"/>
+      <c r="C789" s="38"/>
+      <c r="E789" s="38"/>
     </row>
     <row r="790" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B790" s="39"/>
-      <c r="C790" s="39"/>
-      <c r="E790" s="39"/>
+      <c r="B790" s="38"/>
+      <c r="C790" s="38"/>
+      <c r="E790" s="38"/>
     </row>
     <row r="791" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B791" s="39"/>
-      <c r="C791" s="39"/>
-      <c r="E791" s="39"/>
+      <c r="B791" s="38"/>
+      <c r="C791" s="38"/>
+      <c r="E791" s="38"/>
     </row>
     <row r="792" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B792" s="39"/>
-      <c r="C792" s="39"/>
-      <c r="E792" s="39"/>
+      <c r="B792" s="38"/>
+      <c r="C792" s="38"/>
+      <c r="E792" s="38"/>
     </row>
     <row r="793" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B793" s="39"/>
-      <c r="C793" s="39"/>
-      <c r="E793" s="39"/>
+      <c r="B793" s="38"/>
+      <c r="C793" s="38"/>
+      <c r="E793" s="38"/>
     </row>
     <row r="794" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B794" s="39"/>
-      <c r="C794" s="39"/>
-      <c r="E794" s="39"/>
+      <c r="B794" s="38"/>
+      <c r="C794" s="38"/>
+      <c r="E794" s="38"/>
     </row>
     <row r="795" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B795" s="39"/>
-      <c r="C795" s="39"/>
-      <c r="E795" s="39"/>
+      <c r="B795" s="38"/>
+      <c r="C795" s="38"/>
+      <c r="E795" s="38"/>
     </row>
     <row r="796" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B796" s="39"/>
-      <c r="C796" s="39"/>
-      <c r="E796" s="39"/>
+      <c r="B796" s="38"/>
+      <c r="C796" s="38"/>
+      <c r="E796" s="38"/>
     </row>
     <row r="797" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B797" s="39"/>
-      <c r="C797" s="39"/>
-      <c r="E797" s="39"/>
+      <c r="B797" s="38"/>
+      <c r="C797" s="38"/>
+      <c r="E797" s="38"/>
     </row>
     <row r="798" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B798" s="39"/>
-      <c r="C798" s="39"/>
-      <c r="E798" s="39"/>
+      <c r="B798" s="38"/>
+      <c r="C798" s="38"/>
+      <c r="E798" s="38"/>
     </row>
     <row r="799" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B799" s="39"/>
-      <c r="C799" s="39"/>
-      <c r="E799" s="39"/>
+      <c r="B799" s="38"/>
+      <c r="C799" s="38"/>
+      <c r="E799" s="38"/>
     </row>
     <row r="800" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B800" s="39"/>
-      <c r="C800" s="39"/>
-      <c r="E800" s="39"/>
+      <c r="B800" s="38"/>
+      <c r="C800" s="38"/>
+      <c r="E800" s="38"/>
     </row>
     <row r="801" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B801" s="39"/>
-      <c r="C801" s="39"/>
-      <c r="E801" s="39"/>
+      <c r="B801" s="38"/>
+      <c r="C801" s="38"/>
+      <c r="E801" s="38"/>
     </row>
     <row r="802" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B802" s="39"/>
-      <c r="C802" s="39"/>
-      <c r="E802" s="39"/>
+      <c r="B802" s="38"/>
+      <c r="C802" s="38"/>
+      <c r="E802" s="38"/>
     </row>
     <row r="803" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B803" s="39"/>
-      <c r="C803" s="39"/>
-      <c r="E803" s="39"/>
+      <c r="B803" s="38"/>
+      <c r="C803" s="38"/>
+      <c r="E803" s="38"/>
     </row>
     <row r="804" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B804" s="39"/>
-      <c r="C804" s="39"/>
-      <c r="E804" s="39"/>
+      <c r="B804" s="38"/>
+      <c r="C804" s="38"/>
+      <c r="E804" s="38"/>
     </row>
     <row r="805" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B805" s="39"/>
-      <c r="C805" s="39"/>
-      <c r="E805" s="39"/>
+      <c r="B805" s="38"/>
+      <c r="C805" s="38"/>
+      <c r="E805" s="38"/>
     </row>
     <row r="806" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B806" s="39"/>
-      <c r="C806" s="39"/>
-      <c r="E806" s="39"/>
+      <c r="B806" s="38"/>
+      <c r="C806" s="38"/>
+      <c r="E806" s="38"/>
     </row>
     <row r="807" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B807" s="39"/>
-      <c r="C807" s="39"/>
-      <c r="E807" s="39"/>
+      <c r="B807" s="38"/>
+      <c r="C807" s="38"/>
+      <c r="E807" s="38"/>
     </row>
     <row r="808" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B808" s="39"/>
-      <c r="C808" s="39"/>
-      <c r="E808" s="39"/>
+      <c r="B808" s="38"/>
+      <c r="C808" s="38"/>
+      <c r="E808" s="38"/>
     </row>
     <row r="809" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B809" s="39"/>
-      <c r="C809" s="39"/>
-      <c r="E809" s="39"/>
+      <c r="B809" s="38"/>
+      <c r="C809" s="38"/>
+      <c r="E809" s="38"/>
     </row>
     <row r="810" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B810" s="39"/>
-      <c r="C810" s="39"/>
-      <c r="E810" s="39"/>
+      <c r="B810" s="38"/>
+      <c r="C810" s="38"/>
+      <c r="E810" s="38"/>
     </row>
     <row r="811" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B811" s="39"/>
-      <c r="C811" s="39"/>
-      <c r="E811" s="39"/>
+      <c r="B811" s="38"/>
+      <c r="C811" s="38"/>
+      <c r="E811" s="38"/>
     </row>
     <row r="812" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B812" s="39"/>
-      <c r="C812" s="39"/>
-      <c r="E812" s="39"/>
+      <c r="B812" s="38"/>
+      <c r="C812" s="38"/>
+      <c r="E812" s="38"/>
     </row>
     <row r="813" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B813" s="39"/>
-      <c r="C813" s="39"/>
-      <c r="E813" s="39"/>
+      <c r="B813" s="38"/>
+      <c r="C813" s="38"/>
+      <c r="E813" s="38"/>
     </row>
     <row r="814" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B814" s="39"/>
-      <c r="C814" s="39"/>
-      <c r="E814" s="39"/>
+      <c r="B814" s="38"/>
+      <c r="C814" s="38"/>
+      <c r="E814" s="38"/>
     </row>
     <row r="815" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B815" s="39"/>
-      <c r="C815" s="39"/>
-      <c r="E815" s="39"/>
+      <c r="B815" s="38"/>
+      <c r="C815" s="38"/>
+      <c r="E815" s="38"/>
     </row>
     <row r="816" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B816" s="39"/>
-      <c r="C816" s="39"/>
-      <c r="E816" s="39"/>
+      <c r="B816" s="38"/>
+      <c r="C816" s="38"/>
+      <c r="E816" s="38"/>
     </row>
     <row r="817" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B817" s="39"/>
-      <c r="C817" s="39"/>
-      <c r="E817" s="39"/>
+      <c r="B817" s="38"/>
+      <c r="C817" s="38"/>
+      <c r="E817" s="38"/>
     </row>
     <row r="818" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B818" s="39"/>
-      <c r="C818" s="39"/>
-      <c r="E818" s="39"/>
+      <c r="B818" s="38"/>
+      <c r="C818" s="38"/>
+      <c r="E818" s="38"/>
     </row>
     <row r="819" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B819" s="39"/>
-      <c r="C819" s="39"/>
-      <c r="E819" s="39"/>
+      <c r="B819" s="38"/>
+      <c r="C819" s="38"/>
+      <c r="E819" s="38"/>
     </row>
     <row r="820" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B820" s="39"/>
-      <c r="C820" s="39"/>
-      <c r="E820" s="39"/>
+      <c r="B820" s="38"/>
+      <c r="C820" s="38"/>
+      <c r="E820" s="38"/>
     </row>
     <row r="821" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B821" s="39"/>
-      <c r="C821" s="39"/>
-      <c r="E821" s="39"/>
+      <c r="B821" s="38"/>
+      <c r="C821" s="38"/>
+      <c r="E821" s="38"/>
     </row>
     <row r="822" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B822" s="39"/>
-      <c r="C822" s="39"/>
-      <c r="E822" s="39"/>
+      <c r="B822" s="38"/>
+      <c r="C822" s="38"/>
+      <c r="E822" s="38"/>
     </row>
     <row r="823" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B823" s="39"/>
-      <c r="C823" s="39"/>
-      <c r="E823" s="39"/>
+      <c r="B823" s="38"/>
+      <c r="C823" s="38"/>
+      <c r="E823" s="38"/>
     </row>
     <row r="824" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B824" s="39"/>
-      <c r="C824" s="39"/>
-      <c r="E824" s="39"/>
+      <c r="B824" s="38"/>
+      <c r="C824" s="38"/>
+      <c r="E824" s="38"/>
     </row>
     <row r="825" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B825" s="39"/>
-      <c r="C825" s="39"/>
-      <c r="E825" s="39"/>
+      <c r="B825" s="38"/>
+      <c r="C825" s="38"/>
+      <c r="E825" s="38"/>
     </row>
     <row r="826" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B826" s="39"/>
-      <c r="C826" s="39"/>
-      <c r="E826" s="39"/>
+      <c r="B826" s="38"/>
+      <c r="C826" s="38"/>
+      <c r="E826" s="38"/>
     </row>
     <row r="827" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B827" s="39"/>
-      <c r="C827" s="39"/>
-      <c r="E827" s="39"/>
+      <c r="B827" s="38"/>
+      <c r="C827" s="38"/>
+      <c r="E827" s="38"/>
     </row>
     <row r="828" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B828" s="39"/>
-      <c r="C828" s="39"/>
-      <c r="E828" s="39"/>
+      <c r="B828" s="38"/>
+      <c r="C828" s="38"/>
+      <c r="E828" s="38"/>
     </row>
     <row r="829" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B829" s="39"/>
-      <c r="C829" s="39"/>
-      <c r="E829" s="39"/>
+      <c r="B829" s="38"/>
+      <c r="C829" s="38"/>
+      <c r="E829" s="38"/>
     </row>
     <row r="830" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B830" s="39"/>
-      <c r="C830" s="39"/>
-      <c r="E830" s="39"/>
+      <c r="B830" s="38"/>
+      <c r="C830" s="38"/>
+      <c r="E830" s="38"/>
     </row>
     <row r="831" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B831" s="39"/>
-      <c r="C831" s="39"/>
-      <c r="E831" s="39"/>
+      <c r="B831" s="38"/>
+      <c r="C831" s="38"/>
+      <c r="E831" s="38"/>
     </row>
     <row r="832" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B832" s="39"/>
-      <c r="C832" s="39"/>
-      <c r="E832" s="39"/>
+      <c r="B832" s="38"/>
+      <c r="C832" s="38"/>
+      <c r="E832" s="38"/>
     </row>
     <row r="833" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B833" s="39"/>
-      <c r="C833" s="39"/>
-      <c r="E833" s="39"/>
+      <c r="B833" s="38"/>
+      <c r="C833" s="38"/>
+      <c r="E833" s="38"/>
     </row>
     <row r="834" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B834" s="39"/>
-      <c r="C834" s="39"/>
-      <c r="E834" s="39"/>
+      <c r="B834" s="38"/>
+      <c r="C834" s="38"/>
+      <c r="E834" s="38"/>
     </row>
     <row r="835" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B835" s="39"/>
-      <c r="C835" s="39"/>
-      <c r="E835" s="39"/>
+      <c r="B835" s="38"/>
+      <c r="C835" s="38"/>
+      <c r="E835" s="38"/>
     </row>
     <row r="836" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B836" s="39"/>
-      <c r="C836" s="39"/>
-      <c r="E836" s="39"/>
+      <c r="B836" s="38"/>
+      <c r="C836" s="38"/>
+      <c r="E836" s="38"/>
     </row>
     <row r="837" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B837" s="39"/>
-      <c r="C837" s="39"/>
-      <c r="E837" s="39"/>
+      <c r="B837" s="38"/>
+      <c r="C837" s="38"/>
+      <c r="E837" s="38"/>
     </row>
     <row r="838" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B838" s="39"/>
-      <c r="C838" s="39"/>
-      <c r="E838" s="39"/>
+      <c r="B838" s="38"/>
+      <c r="C838" s="38"/>
+      <c r="E838" s="38"/>
     </row>
     <row r="839" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B839" s="39"/>
-      <c r="C839" s="39"/>
-      <c r="E839" s="39"/>
+      <c r="B839" s="38"/>
+      <c r="C839" s="38"/>
+      <c r="E839" s="38"/>
     </row>
     <row r="840" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B840" s="39"/>
-      <c r="C840" s="39"/>
-      <c r="E840" s="39"/>
+      <c r="B840" s="38"/>
+      <c r="C840" s="38"/>
+      <c r="E840" s="38"/>
     </row>
     <row r="841" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B841" s="39"/>
-      <c r="C841" s="39"/>
-      <c r="E841" s="39"/>
+      <c r="B841" s="38"/>
+      <c r="C841" s="38"/>
+      <c r="E841" s="38"/>
     </row>
     <row r="842" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B842" s="39"/>
-      <c r="C842" s="39"/>
-      <c r="E842" s="39"/>
+      <c r="B842" s="38"/>
+      <c r="C842" s="38"/>
+      <c r="E842" s="38"/>
     </row>
     <row r="843" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B843" s="39"/>
-      <c r="C843" s="39"/>
-      <c r="E843" s="39"/>
+      <c r="B843" s="38"/>
+      <c r="C843" s="38"/>
+      <c r="E843" s="38"/>
     </row>
     <row r="844" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B844" s="39"/>
-      <c r="C844" s="39"/>
-      <c r="E844" s="39"/>
+      <c r="B844" s="38"/>
+      <c r="C844" s="38"/>
+      <c r="E844" s="38"/>
     </row>
     <row r="845" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B845" s="39"/>
-      <c r="C845" s="39"/>
-      <c r="E845" s="39"/>
+      <c r="B845" s="38"/>
+      <c r="C845" s="38"/>
+      <c r="E845" s="38"/>
     </row>
     <row r="846" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B846" s="39"/>
-      <c r="C846" s="39"/>
-      <c r="E846" s="39"/>
+      <c r="B846" s="38"/>
+      <c r="C846" s="38"/>
+      <c r="E846" s="38"/>
     </row>
     <row r="847" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B847" s="39"/>
-      <c r="C847" s="39"/>
-      <c r="E847" s="39"/>
+      <c r="B847" s="38"/>
+      <c r="C847" s="38"/>
+      <c r="E847" s="38"/>
     </row>
     <row r="848" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B848" s="39"/>
-      <c r="C848" s="39"/>
-      <c r="E848" s="39"/>
+      <c r="B848" s="38"/>
+      <c r="C848" s="38"/>
+      <c r="E848" s="38"/>
     </row>
     <row r="849" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B849" s="39"/>
-      <c r="C849" s="39"/>
-      <c r="E849" s="39"/>
+      <c r="B849" s="38"/>
+      <c r="C849" s="38"/>
+      <c r="E849" s="38"/>
     </row>
     <row r="850" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B850" s="39"/>
-      <c r="C850" s="39"/>
-      <c r="E850" s="39"/>
+      <c r="B850" s="38"/>
+      <c r="C850" s="38"/>
+      <c r="E850" s="38"/>
     </row>
     <row r="851" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B851" s="39"/>
-      <c r="C851" s="39"/>
-      <c r="E851" s="39"/>
+      <c r="B851" s="38"/>
+      <c r="C851" s="38"/>
+      <c r="E851" s="38"/>
     </row>
     <row r="852" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B852" s="39"/>
-      <c r="C852" s="39"/>
-      <c r="E852" s="39"/>
+      <c r="B852" s="38"/>
+      <c r="C852" s="38"/>
+      <c r="E852" s="38"/>
     </row>
     <row r="853" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B853" s="39"/>
-      <c r="C853" s="39"/>
-      <c r="E853" s="39"/>
+      <c r="B853" s="38"/>
+      <c r="C853" s="38"/>
+      <c r="E853" s="38"/>
     </row>
     <row r="854" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B854" s="39"/>
-      <c r="C854" s="39"/>
-      <c r="E854" s="39"/>
+      <c r="B854" s="38"/>
+      <c r="C854" s="38"/>
+      <c r="E854" s="38"/>
     </row>
     <row r="855" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B855" s="39"/>
-      <c r="C855" s="39"/>
-      <c r="E855" s="39"/>
+      <c r="B855" s="38"/>
+      <c r="C855" s="38"/>
+      <c r="E855" s="38"/>
     </row>
     <row r="856" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B856" s="39"/>
-      <c r="C856" s="39"/>
-      <c r="E856" s="39"/>
+      <c r="B856" s="38"/>
+      <c r="C856" s="38"/>
+      <c r="E856" s="38"/>
     </row>
     <row r="857" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B857" s="39"/>
-      <c r="C857" s="39"/>
-      <c r="E857" s="39"/>
+      <c r="B857" s="38"/>
+      <c r="C857" s="38"/>
+      <c r="E857" s="38"/>
     </row>
     <row r="858" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B858" s="39"/>
-      <c r="C858" s="39"/>
-      <c r="E858" s="39"/>
+      <c r="B858" s="38"/>
+      <c r="C858" s="38"/>
+      <c r="E858" s="38"/>
     </row>
     <row r="859" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B859" s="39"/>
-      <c r="C859" s="39"/>
-      <c r="E859" s="39"/>
+      <c r="B859" s="38"/>
+      <c r="C859" s="38"/>
+      <c r="E859" s="38"/>
     </row>
     <row r="860" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B860" s="39"/>
-      <c r="C860" s="39"/>
-      <c r="E860" s="39"/>
+      <c r="B860" s="38"/>
+      <c r="C860" s="38"/>
+      <c r="E860" s="38"/>
     </row>
     <row r="861" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B861" s="39"/>
-      <c r="C861" s="39"/>
-      <c r="E861" s="39"/>
+      <c r="B861" s="38"/>
+      <c r="C861" s="38"/>
+      <c r="E861" s="38"/>
     </row>
     <row r="862" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B862" s="39"/>
-      <c r="C862" s="39"/>
-      <c r="E862" s="39"/>
+      <c r="B862" s="38"/>
+      <c r="C862" s="38"/>
+      <c r="E862" s="38"/>
     </row>
     <row r="863" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B863" s="39"/>
-      <c r="C863" s="39"/>
-      <c r="E863" s="39"/>
+      <c r="B863" s="38"/>
+      <c r="C863" s="38"/>
+      <c r="E863" s="38"/>
     </row>
     <row r="864" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B864" s="39"/>
-      <c r="C864" s="39"/>
-      <c r="E864" s="39"/>
+      <c r="B864" s="38"/>
+      <c r="C864" s="38"/>
+      <c r="E864" s="38"/>
     </row>
     <row r="865" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B865" s="39"/>
-      <c r="C865" s="39"/>
-      <c r="E865" s="39"/>
+      <c r="B865" s="38"/>
+      <c r="C865" s="38"/>
+      <c r="E865" s="38"/>
     </row>
     <row r="866" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B866" s="39"/>
-      <c r="C866" s="39"/>
-      <c r="E866" s="39"/>
+      <c r="B866" s="38"/>
+      <c r="C866" s="38"/>
+      <c r="E866" s="38"/>
     </row>
     <row r="867" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B867" s="39"/>
-      <c r="C867" s="39"/>
-      <c r="E867" s="39"/>
+      <c r="B867" s="38"/>
+      <c r="C867" s="38"/>
+      <c r="E867" s="38"/>
     </row>
     <row r="868" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B868" s="39"/>
-      <c r="C868" s="39"/>
-      <c r="E868" s="39"/>
+      <c r="B868" s="38"/>
+      <c r="C868" s="38"/>
+      <c r="E868" s="38"/>
     </row>
     <row r="869" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B869" s="39"/>
-      <c r="C869" s="39"/>
-      <c r="E869" s="39"/>
+      <c r="B869" s="38"/>
+      <c r="C869" s="38"/>
+      <c r="E869" s="38"/>
     </row>
     <row r="870" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B870" s="39"/>
-      <c r="C870" s="39"/>
-      <c r="E870" s="39"/>
+      <c r="B870" s="38"/>
+      <c r="C870" s="38"/>
+      <c r="E870" s="38"/>
     </row>
     <row r="871" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B871" s="39"/>
-      <c r="C871" s="39"/>
-      <c r="E871" s="39"/>
+      <c r="B871" s="38"/>
+      <c r="C871" s="38"/>
+      <c r="E871" s="38"/>
     </row>
     <row r="872" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B872" s="39"/>
-      <c r="C872" s="39"/>
-      <c r="E872" s="39"/>
+      <c r="B872" s="38"/>
+      <c r="C872" s="38"/>
+      <c r="E872" s="38"/>
     </row>
     <row r="873" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B873" s="39"/>
-      <c r="C873" s="39"/>
-      <c r="E873" s="39"/>
+      <c r="B873" s="38"/>
+      <c r="C873" s="38"/>
+      <c r="E873" s="38"/>
     </row>
     <row r="874" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B874" s="39"/>
-      <c r="C874" s="39"/>
-      <c r="E874" s="39"/>
+      <c r="B874" s="38"/>
+      <c r="C874" s="38"/>
+      <c r="E874" s="38"/>
     </row>
     <row r="875" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B875" s="39"/>
-      <c r="C875" s="39"/>
-      <c r="E875" s="39"/>
+      <c r="B875" s="38"/>
+      <c r="C875" s="38"/>
+      <c r="E875" s="38"/>
     </row>
     <row r="876" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B876" s="39"/>
-      <c r="C876" s="39"/>
-      <c r="E876" s="39"/>
+      <c r="B876" s="38"/>
+      <c r="C876" s="38"/>
+      <c r="E876" s="38"/>
     </row>
     <row r="877" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B877" s="39"/>
-      <c r="C877" s="39"/>
-      <c r="E877" s="39"/>
+      <c r="B877" s="38"/>
+      <c r="C877" s="38"/>
+      <c r="E877" s="38"/>
     </row>
     <row r="878" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B878" s="39"/>
-      <c r="C878" s="39"/>
-      <c r="E878" s="39"/>
+      <c r="B878" s="38"/>
+      <c r="C878" s="38"/>
+      <c r="E878" s="38"/>
     </row>
     <row r="879" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B879" s="39"/>
-      <c r="C879" s="39"/>
-      <c r="E879" s="39"/>
+      <c r="B879" s="38"/>
+      <c r="C879" s="38"/>
+      <c r="E879" s="38"/>
     </row>
     <row r="880" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B880" s="39"/>
-      <c r="C880" s="39"/>
-      <c r="E880" s="39"/>
+      <c r="B880" s="38"/>
+      <c r="C880" s="38"/>
+      <c r="E880" s="38"/>
     </row>
     <row r="881" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B881" s="39"/>
-      <c r="C881" s="39"/>
-      <c r="E881" s="39"/>
+      <c r="B881" s="38"/>
+      <c r="C881" s="38"/>
+      <c r="E881" s="38"/>
     </row>
     <row r="882" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B882" s="39"/>
-      <c r="C882" s="39"/>
-      <c r="E882" s="39"/>
+      <c r="B882" s="38"/>
+      <c r="C882" s="38"/>
+      <c r="E882" s="38"/>
     </row>
     <row r="883" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B883" s="39"/>
-      <c r="C883" s="39"/>
-      <c r="E883" s="39"/>
+      <c r="B883" s="38"/>
+      <c r="C883" s="38"/>
+      <c r="E883" s="38"/>
     </row>
     <row r="884" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B884" s="39"/>
-      <c r="C884" s="39"/>
-      <c r="E884" s="39"/>
+      <c r="B884" s="38"/>
+      <c r="C884" s="38"/>
+      <c r="E884" s="38"/>
     </row>
     <row r="885" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B885" s="39"/>
-      <c r="C885" s="39"/>
-      <c r="E885" s="39"/>
+      <c r="B885" s="38"/>
+      <c r="C885" s="38"/>
+      <c r="E885" s="38"/>
     </row>
     <row r="886" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B886" s="39"/>
-      <c r="C886" s="39"/>
-      <c r="E886" s="39"/>
+      <c r="B886" s="38"/>
+      <c r="C886" s="38"/>
+      <c r="E886" s="38"/>
     </row>
     <row r="887" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B887" s="39"/>
-      <c r="C887" s="39"/>
-      <c r="E887" s="39"/>
+      <c r="B887" s="38"/>
+      <c r="C887" s="38"/>
+      <c r="E887" s="38"/>
     </row>
     <row r="888" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B888" s="39"/>
-      <c r="C888" s="39"/>
-      <c r="E888" s="39"/>
+      <c r="B888" s="38"/>
+      <c r="C888" s="38"/>
+      <c r="E888" s="38"/>
     </row>
     <row r="889" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B889" s="39"/>
-      <c r="C889" s="39"/>
-      <c r="E889" s="39"/>
+      <c r="B889" s="38"/>
+      <c r="C889" s="38"/>
+      <c r="E889" s="38"/>
     </row>
     <row r="890" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B890" s="39"/>
-      <c r="C890" s="39"/>
-      <c r="E890" s="39"/>
+      <c r="B890" s="38"/>
+      <c r="C890" s="38"/>
+      <c r="E890" s="38"/>
     </row>
     <row r="891" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B891" s="39"/>
-      <c r="C891" s="39"/>
-      <c r="E891" s="39"/>
+      <c r="B891" s="38"/>
+      <c r="C891" s="38"/>
+      <c r="E891" s="38"/>
     </row>
     <row r="892" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B892" s="39"/>
-      <c r="C892" s="39"/>
-      <c r="E892" s="39"/>
+      <c r="B892" s="38"/>
+      <c r="C892" s="38"/>
+      <c r="E892" s="38"/>
     </row>
     <row r="893" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B893" s="39"/>
-      <c r="C893" s="39"/>
-      <c r="E893" s="39"/>
+      <c r="B893" s="38"/>
+      <c r="C893" s="38"/>
+      <c r="E893" s="38"/>
     </row>
     <row r="894" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B894" s="39"/>
-      <c r="C894" s="39"/>
-      <c r="E894" s="39"/>
+      <c r="B894" s="38"/>
+      <c r="C894" s="38"/>
+      <c r="E894" s="38"/>
     </row>
     <row r="895" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B895" s="39"/>
-      <c r="C895" s="39"/>
-      <c r="E895" s="39"/>
+      <c r="B895" s="38"/>
+      <c r="C895" s="38"/>
+      <c r="E895" s="38"/>
     </row>
     <row r="896" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B896" s="39"/>
-      <c r="C896" s="39"/>
-      <c r="E896" s="39"/>
+      <c r="B896" s="38"/>
+      <c r="C896" s="38"/>
+      <c r="E896" s="38"/>
     </row>
     <row r="897" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B897" s="39"/>
-      <c r="C897" s="39"/>
-      <c r="E897" s="39"/>
+      <c r="B897" s="38"/>
+      <c r="C897" s="38"/>
+      <c r="E897" s="38"/>
     </row>
     <row r="898" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B898" s="39"/>
-      <c r="C898" s="39"/>
-      <c r="E898" s="39"/>
+      <c r="B898" s="38"/>
+      <c r="C898" s="38"/>
+      <c r="E898" s="38"/>
     </row>
     <row r="899" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B899" s="39"/>
-      <c r="C899" s="39"/>
-      <c r="E899" s="39"/>
+      <c r="B899" s="38"/>
+      <c r="C899" s="38"/>
+      <c r="E899" s="38"/>
     </row>
     <row r="900" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B900" s="39"/>
-      <c r="C900" s="39"/>
-      <c r="E900" s="39"/>
+      <c r="B900" s="38"/>
+      <c r="C900" s="38"/>
+      <c r="E900" s="38"/>
     </row>
     <row r="901" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B901" s="39"/>
-      <c r="C901" s="39"/>
-      <c r="E901" s="39"/>
+      <c r="B901" s="38"/>
+      <c r="C901" s="38"/>
+      <c r="E901" s="38"/>
     </row>
     <row r="902" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B902" s="39"/>
-      <c r="C902" s="39"/>
-      <c r="E902" s="39"/>
+      <c r="B902" s="38"/>
+      <c r="C902" s="38"/>
+      <c r="E902" s="38"/>
     </row>
     <row r="903" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B903" s="39"/>
-      <c r="C903" s="39"/>
-      <c r="E903" s="39"/>
+      <c r="B903" s="38"/>
+      <c r="C903" s="38"/>
+      <c r="E903" s="38"/>
     </row>
     <row r="904" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B904" s="39"/>
-      <c r="C904" s="39"/>
-      <c r="E904" s="39"/>
+      <c r="B904" s="38"/>
+      <c r="C904" s="38"/>
+      <c r="E904" s="38"/>
     </row>
     <row r="905" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B905" s="39"/>
-      <c r="C905" s="39"/>
-      <c r="E905" s="39"/>
+      <c r="B905" s="38"/>
+      <c r="C905" s="38"/>
+      <c r="E905" s="38"/>
     </row>
     <row r="906" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B906" s="39"/>
-      <c r="C906" s="39"/>
-      <c r="E906" s="39"/>
+      <c r="B906" s="38"/>
+      <c r="C906" s="38"/>
+      <c r="E906" s="38"/>
     </row>
     <row r="907" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B907" s="39"/>
-      <c r="C907" s="39"/>
-      <c r="E907" s="39"/>
+      <c r="B907" s="38"/>
+      <c r="C907" s="38"/>
+      <c r="E907" s="38"/>
     </row>
     <row r="908" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B908" s="39"/>
-      <c r="C908" s="39"/>
-      <c r="E908" s="39"/>
+      <c r="B908" s="38"/>
+      <c r="C908" s="38"/>
+      <c r="E908" s="38"/>
     </row>
     <row r="909" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B909" s="39"/>
-      <c r="C909" s="39"/>
-      <c r="E909" s="39"/>
+      <c r="B909" s="38"/>
+      <c r="C909" s="38"/>
+      <c r="E909" s="38"/>
     </row>
     <row r="910" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B910" s="39"/>
-      <c r="C910" s="39"/>
-      <c r="E910" s="39"/>
+      <c r="B910" s="38"/>
+      <c r="C910" s="38"/>
+      <c r="E910" s="38"/>
     </row>
     <row r="911" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B911" s="39"/>
-      <c r="C911" s="39"/>
-      <c r="E911" s="39"/>
+      <c r="B911" s="38"/>
+      <c r="C911" s="38"/>
+      <c r="E911" s="38"/>
     </row>
     <row r="912" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B912" s="39"/>
-      <c r="C912" s="39"/>
-      <c r="E912" s="39"/>
+      <c r="B912" s="38"/>
+      <c r="C912" s="38"/>
+      <c r="E912" s="38"/>
     </row>
     <row r="913" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B913" s="39"/>
-      <c r="C913" s="39"/>
-      <c r="E913" s="39"/>
+      <c r="B913" s="38"/>
+      <c r="C913" s="38"/>
+      <c r="E913" s="38"/>
     </row>
     <row r="914" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B914" s="39"/>
-      <c r="C914" s="39"/>
-      <c r="E914" s="39"/>
+      <c r="B914" s="38"/>
+      <c r="C914" s="38"/>
+      <c r="E914" s="38"/>
     </row>
     <row r="915" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B915" s="39"/>
-      <c r="C915" s="39"/>
-      <c r="E915" s="39"/>
+      <c r="B915" s="38"/>
+      <c r="C915" s="38"/>
+      <c r="E915" s="38"/>
     </row>
     <row r="916" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B916" s="39"/>
-      <c r="C916" s="39"/>
-      <c r="E916" s="39"/>
+      <c r="B916" s="38"/>
+      <c r="C916" s="38"/>
+      <c r="E916" s="38"/>
     </row>
     <row r="917" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B917" s="39"/>
-      <c r="C917" s="39"/>
-      <c r="E917" s="39"/>
+      <c r="B917" s="38"/>
+      <c r="C917" s="38"/>
+      <c r="E917" s="38"/>
     </row>
     <row r="918" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B918" s="39"/>
-      <c r="C918" s="39"/>
-      <c r="E918" s="39"/>
+      <c r="B918" s="38"/>
+      <c r="C918" s="38"/>
+      <c r="E918" s="38"/>
     </row>
     <row r="919" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B919" s="39"/>
-      <c r="C919" s="39"/>
-      <c r="E919" s="39"/>
+      <c r="B919" s="38"/>
+      <c r="C919" s="38"/>
+      <c r="E919" s="38"/>
     </row>
     <row r="920" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B920" s="39"/>
-      <c r="C920" s="39"/>
-      <c r="E920" s="39"/>
+      <c r="B920" s="38"/>
+      <c r="C920" s="38"/>
+      <c r="E920" s="38"/>
     </row>
     <row r="921" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B921" s="39"/>
-      <c r="C921" s="39"/>
-      <c r="E921" s="39"/>
+      <c r="B921" s="38"/>
+      <c r="C921" s="38"/>
+      <c r="E921" s="38"/>
     </row>
     <row r="922" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B922" s="39"/>
-      <c r="C922" s="39"/>
-      <c r="E922" s="39"/>
+      <c r="B922" s="38"/>
+      <c r="C922" s="38"/>
+      <c r="E922" s="38"/>
     </row>
     <row r="923" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B923" s="39"/>
-      <c r="C923" s="39"/>
-      <c r="E923" s="39"/>
+      <c r="B923" s="38"/>
+      <c r="C923" s="38"/>
+      <c r="E923" s="38"/>
     </row>
     <row r="924" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B924" s="39"/>
-      <c r="C924" s="39"/>
-      <c r="E924" s="39"/>
+      <c r="B924" s="38"/>
+      <c r="C924" s="38"/>
+      <c r="E924" s="38"/>
     </row>
     <row r="925" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B925" s="39"/>
-      <c r="C925" s="39"/>
-      <c r="E925" s="39"/>
+      <c r="B925" s="38"/>
+      <c r="C925" s="38"/>
+      <c r="E925" s="38"/>
     </row>
     <row r="926" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B926" s="39"/>
-      <c r="C926" s="39"/>
-      <c r="E926" s="39"/>
+      <c r="B926" s="38"/>
+      <c r="C926" s="38"/>
+      <c r="E926" s="38"/>
     </row>
     <row r="927" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B927" s="39"/>
-      <c r="C927" s="39"/>
-      <c r="E927" s="39"/>
+      <c r="B927" s="38"/>
+      <c r="C927" s="38"/>
+      <c r="E927" s="38"/>
     </row>
     <row r="928" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B928" s="39"/>
-      <c r="C928" s="39"/>
-      <c r="E928" s="39"/>
+      <c r="B928" s="38"/>
+      <c r="C928" s="38"/>
+      <c r="E928" s="38"/>
     </row>
     <row r="929" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B929" s="39"/>
-      <c r="C929" s="39"/>
-      <c r="E929" s="39"/>
+      <c r="B929" s="38"/>
+      <c r="C929" s="38"/>
+      <c r="E929" s="38"/>
     </row>
     <row r="930" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B930" s="39"/>
-      <c r="C930" s="39"/>
-      <c r="E930" s="39"/>
+      <c r="B930" s="38"/>
+      <c r="C930" s="38"/>
+      <c r="E930" s="38"/>
     </row>
     <row r="931" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B931" s="39"/>
-      <c r="C931" s="39"/>
-      <c r="E931" s="39"/>
+      <c r="B931" s="38"/>
+      <c r="C931" s="38"/>
+      <c r="E931" s="38"/>
     </row>
     <row r="932" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B932" s="39"/>
-      <c r="C932" s="39"/>
-      <c r="E932" s="39"/>
+      <c r="B932" s="38"/>
+      <c r="C932" s="38"/>
+      <c r="E932" s="38"/>
     </row>
     <row r="933" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B933" s="39"/>
-      <c r="C933" s="39"/>
-      <c r="E933" s="39"/>
+      <c r="B933" s="38"/>
+      <c r="C933" s="38"/>
+      <c r="E933" s="38"/>
     </row>
     <row r="934" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B934" s="39"/>
-      <c r="C934" s="39"/>
-      <c r="E934" s="39"/>
+      <c r="B934" s="38"/>
+      <c r="C934" s="38"/>
+      <c r="E934" s="38"/>
     </row>
     <row r="935" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B935" s="39"/>
-      <c r="C935" s="39"/>
-      <c r="E935" s="39"/>
+      <c r="B935" s="38"/>
+      <c r="C935" s="38"/>
+      <c r="E935" s="38"/>
     </row>
     <row r="936" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B936" s="39"/>
-      <c r="C936" s="39"/>
-      <c r="E936" s="39"/>
+      <c r="B936" s="38"/>
+      <c r="C936" s="38"/>
+      <c r="E936" s="38"/>
     </row>
     <row r="937" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B937" s="39"/>
-      <c r="C937" s="39"/>
-      <c r="E937" s="39"/>
+      <c r="B937" s="38"/>
+      <c r="C937" s="38"/>
+      <c r="E937" s="38"/>
     </row>
     <row r="938" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B938" s="39"/>
-      <c r="C938" s="39"/>
-      <c r="E938" s="39"/>
+      <c r="B938" s="38"/>
+      <c r="C938" s="38"/>
+      <c r="E938" s="38"/>
     </row>
     <row r="939" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B939" s="39"/>
-      <c r="C939" s="39"/>
-      <c r="E939" s="39"/>
+      <c r="B939" s="38"/>
+      <c r="C939" s="38"/>
+      <c r="E939" s="38"/>
     </row>
     <row r="940" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B940" s="39"/>
-      <c r="C940" s="39"/>
-      <c r="E940" s="39"/>
+      <c r="B940" s="38"/>
+      <c r="C940" s="38"/>
+      <c r="E940" s="38"/>
     </row>
     <row r="941" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B941" s="39"/>
-      <c r="C941" s="39"/>
-      <c r="E941" s="39"/>
+      <c r="B941" s="38"/>
+      <c r="C941" s="38"/>
+      <c r="E941" s="38"/>
     </row>
     <row r="942" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B942" s="39"/>
-      <c r="C942" s="39"/>
-      <c r="E942" s="39"/>
+      <c r="B942" s="38"/>
+      <c r="C942" s="38"/>
+      <c r="E942" s="38"/>
     </row>
     <row r="943" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B943" s="39"/>
-      <c r="C943" s="39"/>
-      <c r="E943" s="39"/>
+      <c r="B943" s="38"/>
+      <c r="C943" s="38"/>
+      <c r="E943" s="38"/>
     </row>
     <row r="944" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B944" s="39"/>
-      <c r="C944" s="39"/>
-      <c r="E944" s="39"/>
+      <c r="B944" s="38"/>
+      <c r="C944" s="38"/>
+      <c r="E944" s="38"/>
     </row>
     <row r="945" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B945" s="39"/>
-      <c r="C945" s="39"/>
-      <c r="E945" s="39"/>
+      <c r="B945" s="38"/>
+      <c r="C945" s="38"/>
+      <c r="E945" s="38"/>
     </row>
     <row r="946" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B946" s="39"/>
-      <c r="C946" s="39"/>
-      <c r="E946" s="39"/>
+      <c r="B946" s="38"/>
+      <c r="C946" s="38"/>
+      <c r="E946" s="38"/>
     </row>
     <row r="947" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B947" s="39"/>
-      <c r="C947" s="39"/>
-      <c r="E947" s="39"/>
+      <c r="B947" s="38"/>
+      <c r="C947" s="38"/>
+      <c r="E947" s="38"/>
     </row>
     <row r="948" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B948" s="39"/>
-      <c r="C948" s="39"/>
-      <c r="E948" s="39"/>
+      <c r="B948" s="38"/>
+      <c r="C948" s="38"/>
+      <c r="E948" s="38"/>
     </row>
     <row r="949" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B949" s="39"/>
-      <c r="C949" s="39"/>
-      <c r="E949" s="39"/>
+      <c r="B949" s="38"/>
+      <c r="C949" s="38"/>
+      <c r="E949" s="38"/>
     </row>
     <row r="950" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B950" s="39"/>
-      <c r="C950" s="39"/>
-      <c r="E950" s="39"/>
+      <c r="B950" s="38"/>
+      <c r="C950" s="38"/>
+      <c r="E950" s="38"/>
     </row>
     <row r="951" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B951" s="39"/>
-      <c r="C951" s="39"/>
-      <c r="E951" s="39"/>
+      <c r="B951" s="38"/>
+      <c r="C951" s="38"/>
+      <c r="E951" s="38"/>
     </row>
     <row r="952" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B952" s="39"/>
-      <c r="C952" s="39"/>
-      <c r="E952" s="39"/>
+      <c r="B952" s="38"/>
+      <c r="C952" s="38"/>
+      <c r="E952" s="38"/>
     </row>
     <row r="953" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B953" s="39"/>
-      <c r="C953" s="39"/>
-      <c r="E953" s="39"/>
+      <c r="B953" s="38"/>
+      <c r="C953" s="38"/>
+      <c r="E953" s="38"/>
     </row>
     <row r="954" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B954" s="39"/>
-      <c r="C954" s="39"/>
-      <c r="E954" s="39"/>
+      <c r="B954" s="38"/>
+      <c r="C954" s="38"/>
+      <c r="E954" s="38"/>
     </row>
     <row r="955" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B955" s="39"/>
-      <c r="C955" s="39"/>
-      <c r="E955" s="39"/>
+      <c r="B955" s="38"/>
+      <c r="C955" s="38"/>
+      <c r="E955" s="38"/>
     </row>
     <row r="956" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B956" s="39"/>
-      <c r="C956" s="39"/>
-      <c r="E956" s="39"/>
+      <c r="B956" s="38"/>
+      <c r="C956" s="38"/>
+      <c r="E956" s="38"/>
     </row>
     <row r="957" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B957" s="39"/>
-      <c r="C957" s="39"/>
-      <c r="E957" s="39"/>
+      <c r="B957" s="38"/>
+      <c r="C957" s="38"/>
+      <c r="E957" s="38"/>
     </row>
     <row r="958" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B958" s="39"/>
-      <c r="C958" s="39"/>
-      <c r="E958" s="39"/>
+      <c r="B958" s="38"/>
+      <c r="C958" s="38"/>
+      <c r="E958" s="38"/>
     </row>
     <row r="959" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B959" s="39"/>
-      <c r="C959" s="39"/>
-      <c r="E959" s="39"/>
+      <c r="B959" s="38"/>
+      <c r="C959" s="38"/>
+      <c r="E959" s="38"/>
     </row>
     <row r="960" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B960" s="39"/>
-      <c r="C960" s="39"/>
-      <c r="E960" s="39"/>
+      <c r="B960" s="38"/>
+      <c r="C960" s="38"/>
+      <c r="E960" s="38"/>
     </row>
     <row r="961" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B961" s="39"/>
-      <c r="C961" s="39"/>
-      <c r="E961" s="39"/>
+      <c r="B961" s="38"/>
+      <c r="C961" s="38"/>
+      <c r="E961" s="38"/>
     </row>
     <row r="962" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B962" s="39"/>
-      <c r="C962" s="39"/>
-      <c r="E962" s="39"/>
+      <c r="B962" s="38"/>
+      <c r="C962" s="38"/>
+      <c r="E962" s="38"/>
     </row>
     <row r="963" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B963" s="39"/>
-      <c r="C963" s="39"/>
-      <c r="E963" s="39"/>
+      <c r="B963" s="38"/>
+      <c r="C963" s="38"/>
+      <c r="E963" s="38"/>
     </row>
     <row r="964" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B964" s="39"/>
-      <c r="C964" s="39"/>
-      <c r="E964" s="39"/>
+      <c r="B964" s="38"/>
+      <c r="C964" s="38"/>
+      <c r="E964" s="38"/>
     </row>
     <row r="965" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B965" s="39"/>
-      <c r="C965" s="39"/>
-      <c r="E965" s="39"/>
+      <c r="B965" s="38"/>
+      <c r="C965" s="38"/>
+      <c r="E965" s="38"/>
     </row>
     <row r="966" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B966" s="39"/>
-      <c r="C966" s="39"/>
-      <c r="E966" s="39"/>
+      <c r="B966" s="38"/>
+      <c r="C966" s="38"/>
+      <c r="E966" s="38"/>
     </row>
     <row r="967" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B967" s="39"/>
-      <c r="C967" s="39"/>
-      <c r="E967" s="39"/>
+      <c r="B967" s="38"/>
+      <c r="C967" s="38"/>
+      <c r="E967" s="38"/>
     </row>
     <row r="968" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B968" s="39"/>
-      <c r="C968" s="39"/>
-      <c r="E968" s="39"/>
+      <c r="B968" s="38"/>
+      <c r="C968" s="38"/>
+      <c r="E968" s="38"/>
     </row>
     <row r="969" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B969" s="39"/>
-      <c r="C969" s="39"/>
-      <c r="E969" s="39"/>
+      <c r="B969" s="38"/>
+      <c r="C969" s="38"/>
+      <c r="E969" s="38"/>
     </row>
     <row r="970" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B970" s="39"/>
-      <c r="C970" s="39"/>
-      <c r="E970" s="39"/>
+      <c r="B970" s="38"/>
+      <c r="C970" s="38"/>
+      <c r="E970" s="38"/>
     </row>
     <row r="971" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B971" s="39"/>
-      <c r="C971" s="39"/>
-      <c r="E971" s="39"/>
+      <c r="B971" s="38"/>
+      <c r="C971" s="38"/>
+      <c r="E971" s="38"/>
     </row>
     <row r="972" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B972" s="39"/>
-      <c r="C972" s="39"/>
-      <c r="E972" s="39"/>
+      <c r="B972" s="38"/>
+      <c r="C972" s="38"/>
+      <c r="E972" s="38"/>
     </row>
     <row r="973" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B973" s="39"/>
-      <c r="C973" s="39"/>
-      <c r="E973" s="39"/>
+      <c r="B973" s="38"/>
+      <c r="C973" s="38"/>
+      <c r="E973" s="38"/>
     </row>
     <row r="974" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B974" s="39"/>
-      <c r="C974" s="39"/>
-      <c r="E974" s="39"/>
+      <c r="B974" s="38"/>
+      <c r="C974" s="38"/>
+      <c r="E974" s="38"/>
     </row>
     <row r="975" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B975" s="39"/>
-      <c r="C975" s="39"/>
-      <c r="E975" s="39"/>
+      <c r="B975" s="38"/>
+      <c r="C975" s="38"/>
+      <c r="E975" s="38"/>
     </row>
     <row r="976" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B976" s="39"/>
-      <c r="C976" s="39"/>
-      <c r="E976" s="39"/>
+      <c r="B976" s="38"/>
+      <c r="C976" s="38"/>
+      <c r="E976" s="38"/>
     </row>
     <row r="977" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B977" s="39"/>
-      <c r="C977" s="39"/>
-      <c r="E977" s="39"/>
+      <c r="B977" s="38"/>
+      <c r="C977" s="38"/>
+      <c r="E977" s="38"/>
     </row>
     <row r="978" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B978" s="39"/>
-      <c r="C978" s="39"/>
-      <c r="E978" s="39"/>
+      <c r="B978" s="38"/>
+      <c r="C978" s="38"/>
+      <c r="E978" s="38"/>
     </row>
     <row r="979" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B979" s="39"/>
-      <c r="C979" s="39"/>
-      <c r="E979" s="39"/>
+      <c r="B979" s="38"/>
+      <c r="C979" s="38"/>
+      <c r="E979" s="38"/>
     </row>
     <row r="980" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B980" s="39"/>
-      <c r="C980" s="39"/>
-      <c r="E980" s="39"/>
+      <c r="B980" s="38"/>
+      <c r="C980" s="38"/>
+      <c r="E980" s="38"/>
     </row>
     <row r="981" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B981" s="39"/>
-      <c r="C981" s="39"/>
-      <c r="E981" s="39"/>
+      <c r="B981" s="38"/>
+      <c r="C981" s="38"/>
+      <c r="E981" s="38"/>
     </row>
     <row r="982" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B982" s="39"/>
-      <c r="C982" s="39"/>
-      <c r="E982" s="39"/>
+      <c r="B982" s="38"/>
+      <c r="C982" s="38"/>
+      <c r="E982" s="38"/>
     </row>
     <row r="983" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B983" s="39"/>
-      <c r="C983" s="39"/>
-      <c r="E983" s="39"/>
+      <c r="B983" s="38"/>
+      <c r="C983" s="38"/>
+      <c r="E983" s="38"/>
     </row>
     <row r="984" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B984" s="39"/>
-      <c r="C984" s="39"/>
-      <c r="E984" s="39"/>
+      <c r="B984" s="38"/>
+      <c r="C984" s="38"/>
+      <c r="E984" s="38"/>
     </row>
     <row r="985" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B985" s="39"/>
-      <c r="C985" s="39"/>
-      <c r="E985" s="39"/>
+      <c r="B985" s="38"/>
+      <c r="C985" s="38"/>
+      <c r="E985" s="38"/>
     </row>
     <row r="986" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B986" s="39"/>
-      <c r="C986" s="39"/>
-      <c r="E986" s="39"/>
+      <c r="B986" s="38"/>
+      <c r="C986" s="38"/>
+      <c r="E986" s="38"/>
     </row>
     <row r="987" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B987" s="39"/>
-      <c r="C987" s="39"/>
-      <c r="E987" s="39"/>
+      <c r="B987" s="38"/>
+      <c r="C987" s="38"/>
+      <c r="E987" s="38"/>
     </row>
     <row r="988" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B988" s="39"/>
-      <c r="C988" s="39"/>
-      <c r="E988" s="39"/>
+      <c r="B988" s="38"/>
+      <c r="C988" s="38"/>
+      <c r="E988" s="38"/>
     </row>
     <row r="989" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B989" s="39"/>
-      <c r="C989" s="39"/>
-      <c r="E989" s="39"/>
+      <c r="B989" s="38"/>
+      <c r="C989" s="38"/>
+      <c r="E989" s="38"/>
     </row>
     <row r="990" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B990" s="39"/>
-      <c r="C990" s="39"/>
-      <c r="E990" s="39"/>
+      <c r="B990" s="38"/>
+      <c r="C990" s="38"/>
+      <c r="E990" s="38"/>
     </row>
     <row r="991" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B991" s="39"/>
-      <c r="C991" s="39"/>
-      <c r="E991" s="39"/>
+      <c r="B991" s="38"/>
+      <c r="C991" s="38"/>
+      <c r="E991" s="38"/>
     </row>
     <row r="992" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B992" s="39"/>
-      <c r="C992" s="39"/>
-      <c r="E992" s="39"/>
+      <c r="B992" s="38"/>
+      <c r="C992" s="38"/>
+      <c r="E992" s="38"/>
     </row>
     <row r="993" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B993" s="39"/>
-      <c r="C993" s="39"/>
-      <c r="E993" s="39"/>
+      <c r="B993" s="38"/>
+      <c r="C993" s="38"/>
+      <c r="E993" s="38"/>
     </row>
     <row r="994" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B994" s="39"/>
-      <c r="C994" s="39"/>
-      <c r="E994" s="39"/>
+      <c r="B994" s="38"/>
+      <c r="C994" s="38"/>
+      <c r="E994" s="38"/>
     </row>
     <row r="995" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B995" s="39"/>
-      <c r="C995" s="39"/>
-      <c r="E995" s="39"/>
+      <c r="B995" s="38"/>
+      <c r="C995" s="38"/>
+      <c r="E995" s="38"/>
     </row>
     <row r="996" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B996" s="39"/>
-      <c r="C996" s="39"/>
-      <c r="E996" s="39"/>
+      <c r="B996" s="38"/>
+      <c r="C996" s="38"/>
+      <c r="E996" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12861,56 +13054,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>97</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="236" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="42"/>
     </row>
     <row r="6" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13026,12 +13219,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" style="45" customWidth="1"/>
-    <col min="2" max="2" width="47" style="45" customWidth="1"/>
-    <col min="3" max="3" width="75.83203125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="45" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" style="45" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="45"/>
+    <col min="1" max="1" width="32" style="44" customWidth="1"/>
+    <col min="2" max="2" width="47" style="44" customWidth="1"/>
+    <col min="3" max="3" width="75.83203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="44" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13047,19 +13240,19 @@
     </row>
     <row r="4" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:5" s="20" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13067,7 +13260,7 @@
       <c r="A6" s="30">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -13076,7 +13269,7 @@
       <c r="D6" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="47" t="s">
         <v>126</v>
       </c>
     </row>
@@ -13084,13 +13277,13 @@
       <c r="A7" s="30"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10"/>
@@ -13102,39 +13295,39 @@
       <c r="B11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="51" t="s">
         <v>132</v>
       </c>
     </row>
@@ -13168,7 +13361,7 @@
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13178,7 +13371,7 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="44" t="s">
         <v>129</v>
       </c>
     </row>
